--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>19986.1206864983</v>
+        <v>18251.25748635034</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>20009.48161208792</v>
+        <v>18272.59060420466</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>20033.17821593027</v>
+        <v>18294.23026229852</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>20057.21528891929</v>
+        <v>18316.18083566003</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>20081.59768942264</v>
+        <v>18338.446760934</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>20106.33034420781</v>
+        <v>18361.03253722774</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>20131.41824938023</v>
+        <v>18383.94272696778</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>20156.86647133368</v>
+        <v>18407.18195676769</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>20182.68014771314</v>
+        <v>18430.75491830739</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>20208.86448839003</v>
+        <v>18454.66636922379</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>20235.42477645022</v>
+        <v>18478.92113401291</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>20262.36636919492</v>
+        <v>18503.52410494404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>20289.6946991544</v>
+        <v>18528.48024298535</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>20317.41527511505</v>
+        <v>18553.79457874183</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>20345.53368315946</v>
+        <v>18579.47221340516</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>20374.05558772025</v>
+        <v>18605.5183197159</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>20402.98673264726</v>
+        <v>18631.93814293826</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>20432.33294228862</v>
+        <v>18658.73700184712</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>20462.10012258577</v>
+        <v>18685.92028972814</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>20492.29426218241</v>
+        <v>18713.49347539039</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>20522.9214335479</v>
+        <v>18741.46210419227</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>20553.98779411496</v>
+        <v>18769.83179908038</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>20585.49958743191</v>
+        <v>18798.60826164187</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>20617.46314432984</v>
+        <v>18827.79727317015</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>20649.88488410452</v>
+        <v>18857.4046957443</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>20682.77131571352</v>
+        <v>18887.43647332226</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>20716.12903898858</v>
+        <v>18917.89863284793</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>20749.96474586335</v>
+        <v>18948.79728537241</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>20784.28522161696</v>
+        <v>18980.1386271895</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>20819.09734613313</v>
+        <v>19011.92894098565</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>20854.40809517551</v>
+        <v>19044.17459700452</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>20890.22454167912</v>
+        <v>19076.8820542263</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>20926.55385705799</v>
+        <v>19110.05786156198</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>20963.40331252974</v>
+        <v>19143.7086590627</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>21000.78028045642</v>
+        <v>19177.8411791445</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>21038.69223570279</v>
+        <v>19212.46224782843</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>21077.14675701127</v>
+        <v>19247.57878599632</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>21116.15152839456</v>
+        <v>19283.19781066243</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>21155.71434054562</v>
+        <v>19319.32643626114</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>21195.84309226551</v>
+        <v>19355.97187595073</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>21236.545791909</v>
+        <v>19393.14144293353</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>21277.83055884852</v>
+        <v>19430.84255179283</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>21319.70562495628</v>
+        <v>19469.08271984639</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>21362.17933610519</v>
+        <v>19507.86956851701</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>21405.26015368835</v>
+        <v>19547.21082472006</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>21448.95665615764</v>
+        <v>19587.11432226868</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>21493.27754058161</v>
+        <v>19627.58800329629</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>21538.23162422271</v>
+        <v>19668.63991969699</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>21583.8278461342</v>
+        <v>19710.27823458386</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>21630.07526877709</v>
+        <v>19752.51122376547</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>21676.98307965711</v>
+        <v>19795.34727724087</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>21724.56059298221</v>
+        <v>19838.79490071305</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>21772.8172513404</v>
+        <v>19882.86271712133</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>21821.76262739881</v>
+        <v>19927.55946819275</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>21871.40642562366</v>
+        <v>19972.89401601294</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>21921.75848402153</v>
+        <v>20018.8753446161</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>21972.82877590269</v>
+        <v>20065.51256159513</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>22024.62741166557</v>
+        <v>20112.81489973167</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>22077.16464060416</v>
+        <v>20160.79171864607</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>22130.45085273734</v>
+        <v>20209.45250646826</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>22184.49658066106</v>
+        <v>20258.80688152913</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>22239.31250142352</v>
+        <v>20308.86459407278</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>22294.90943842361</v>
+        <v>20359.63552799025</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>22351.29836333273</v>
+        <v>20411.12970257462</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>22408.49039804072</v>
+        <v>20463.35727429789</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>22466.49681662582</v>
+        <v>20516.32853860996</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>22525.32904734881</v>
+        <v>20570.05393175978</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>22584.99867467249</v>
+        <v>20624.54403263935</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>22645.51744130562</v>
+        <v>20679.8095646505</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>22706.89725027271</v>
+        <v>20735.86139759462</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>22769.15016700921</v>
+        <v>20792.71054958649</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>22832.28842148311</v>
+        <v>20850.36818899123</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>22896.32441034263</v>
+        <v>20908.84563638589</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>22961.2706990908</v>
+        <v>20968.15436654515</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>23027.14002428736</v>
+        <v>21028.30601045206</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>23093.94529577778</v>
+        <v>21089.31235733361</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>23161.69959895047</v>
+        <v>21151.18535672206</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>23230.41619702214</v>
+        <v>21213.93712054177</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>23300.10853335173</v>
+        <v>21277.57992522255</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>23370.7902337837</v>
+        <v>21342.12621383915</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>23442.47510902035</v>
+        <v>21407.58859827802</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>23515.17715702451</v>
+        <v>21473.97986143119</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>23588.91056545224</v>
+        <v>21541.31295941804</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>23663.68971411651</v>
+        <v>21609.60102383485</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>23739.52917748213</v>
+        <v>21678.85736403338</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>23816.44372719235</v>
+        <v>21749.09546942797</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>23894.44833462763</v>
+        <v>21820.32901183246</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>23973.55817349735</v>
+        <v>21892.57184782667</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>24053.78862246463</v>
+        <v>21965.83802115345</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>24135.15526780476</v>
+        <v>22040.14176514651</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>24217.67390609842</v>
+        <v>22115.49750518953</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>24301.36054695914</v>
+        <v>22191.91986120728</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>24386.23141579697</v>
+        <v>22269.42365018895</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>24472.30295661743</v>
+        <v>22348.02388874463</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>24559.59183485783</v>
+        <v>22427.73579569498</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>24648.11494026064</v>
+        <v>22508.57479469539</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>24737.88938978458</v>
+        <v>22590.55651689441</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>24828.93253055479</v>
+        <v>22673.69680362779</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>24921.26194285232</v>
+        <v>22758.0117091484</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>25014.89544314331</v>
+        <v>22843.51750339256</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>25109.85108714939</v>
+        <v>22930.23067478396</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>25206.14717295976</v>
+        <v>23018.16793307542</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>25303.80224418518</v>
+        <v>23107.34621222926</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>25402.83509315578</v>
+        <v>23197.78267333751</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>25503.26476416252</v>
+        <v>23289.49470758193</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>25605.11055674402</v>
+        <v>23382.49993923562</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>25708.39202901897</v>
+        <v>23476.81622870609</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>25813.12900106554</v>
+        <v>23572.46167562137</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>25919.34155834866</v>
+        <v>23669.45462195976</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>26027.05005519609</v>
+        <v>23767.81365522416</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>26136.27511832449</v>
+        <v>23867.55761166222</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>26247.03765041653</v>
+        <v>23968.70557953259</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>26359.35883374984</v>
+        <v>24071.27690241935</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>26473.26013388001</v>
+        <v>24175.29118259479</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>26588.76330337725</v>
+        <v>24280.76828443214</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>26705.89038561965</v>
+        <v>24387.72833786938</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>26824.66371864321</v>
+        <v>24496.19174192506</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>26945.10593905051</v>
+        <v>24606.17916826769</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>27067.23998597921</v>
+        <v>24717.71156483984</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>27191.08910513209</v>
+        <v>24830.81015953833</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>27316.67685287014</v>
+        <v>24945.4964639519</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>27444.02710036991</v>
+        <v>25061.79227715786</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>27573.16403784727</v>
+        <v>25179.71968957914</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>27704.112178849</v>
+        <v>25299.30108690333</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>27836.89636461411</v>
+        <v>25420.5591540655</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>27971.54176850672</v>
+        <v>25543.51687929617</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>28108.0739005223</v>
+        <v>25668.19755823653</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>28246.51861186949</v>
+        <v>25794.62479812248</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>28386.90209962953</v>
+        <v>25922.8225220395</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>28529.25091149511</v>
+        <v>26052.8149732504</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>28673.59195059142</v>
+        <v>26184.62671959764</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>28819.95248038149</v>
+        <v>26318.28265798301</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>28968.36012965799</v>
+        <v>26453.80801892607</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>29118.84289762456</v>
+        <v>26591.22837120442</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>29271.42915906862</v>
+        <v>26730.56962657754</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>29426.147669629</v>
+        <v>26871.85804459704</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>29583.02757116095</v>
+        <v>27015.1202375061</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>29742.09839720116</v>
+        <v>27160.38317523006</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>29903.39007853653</v>
+        <v>27307.67419046179</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>30066.93294887914</v>
+        <v>27457.02098384409</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>30232.75775065134</v>
+        <v>27608.45162925251</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>30400.89564088378</v>
+        <v>27761.9945791816</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>30571.37819723045</v>
+        <v>27917.6786702377</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>30744.23742410438</v>
+        <v>28075.53312874192</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>30919.50575893703</v>
+        <v>28235.58757644651</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>31097.2160785669</v>
+        <v>28397.87203636862</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>31277.40170575992</v>
+        <v>28562.41693874482</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>31460.0964158668</v>
+        <v>28729.25312711067</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>31645.33444362194</v>
+        <v>28898.41186450918</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>31833.15049008762</v>
+        <v>29069.92483983257</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>32023.57972974945</v>
+        <v>29243.82417430152</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>32216.65781776722</v>
+        <v>29420.14242808677</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>32412.4208973867</v>
+        <v>29598.91260707751</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>32610.90560751779</v>
+        <v>29780.16816980176</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>32812.14909048442</v>
+        <v>29963.9430345035</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>33016.18899995232</v>
+        <v>30150.2715863823</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>33223.06350904029</v>
+        <v>30339.18868500055</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>33432.81131862168</v>
+        <v>30530.72967186419</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>33645.47166582197</v>
+        <v>30724.93037818289</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>33861.08433271985</v>
+        <v>30921.82713281578</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>34079.68965525825</v>
+        <v>31121.45677040871</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>34301.32853237264</v>
+        <v>31323.8566397307</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>34526.04243534459</v>
+        <v>31529.06461221504</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>34753.87341738732</v>
+        <v>31737.11909071314</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>34984.86412347241</v>
+        <v>31948.05901846817</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>35219.05780040535</v>
+        <v>32161.92388831588</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>35456.49830715865</v>
+        <v>32378.75375212089</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>35697.23012547147</v>
+        <v>32598.58923045625</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>35941.29837072529</v>
+        <v>32821.47152253497</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>36188.74880310462</v>
+        <v>33047.4424164021</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>36439.62783905352</v>
+        <v>33276.54429939654</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>36693.98256303708</v>
+        <v>33508.82016889178</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>36951.86073961954</v>
+        <v>33744.31364332559</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>37213.31082586942</v>
+        <v>33983.06897352822</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>37478.38198410287</v>
+        <v>34225.13105435975</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>37747.1240949778</v>
+        <v>34470.54543666745</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>38019.58777094976</v>
+        <v>34719.35833957366</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>38295.82437010296</v>
+        <v>34971.61666310639</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>38575.88601036899</v>
+        <v>35227.36800118361</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>38859.82558414659</v>
+        <v>35486.66065496414</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>39147.69677333639</v>
+        <v>35749.54364657711</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>39439.55406480469</v>
+        <v>36016.06673324372</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>39735.45276629083</v>
+        <v>36286.28042180353</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>40035.44902277362</v>
+        <v>36560.23598366039</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>40339.59983331212</v>
+        <v>36837.98547016129</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>40647.96306837665</v>
+        <v>37119.58172842311</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>40960.59748768729</v>
+        <v>37405.07841762249</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>41277.56275857582</v>
+        <v>37694.530025764</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>41598.91947488949</v>
+        <v>37987.99188694303</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>41924.7291764543</v>
+        <v>38285.52019911954</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>42255.05436911614</v>
+        <v>38587.17204241964</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>42589.95854537949</v>
+        <v>38893.00539798252</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>42929.5062056621</v>
+        <v>39203.07916737045</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>43273.76288018691</v>
+        <v>39517.45319256045</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>43622.79515153138</v>
+        <v>39836.18827653588</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>43976.67067785495</v>
+        <v>40159.34620449795</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>44335.4582168271</v>
+        <v>40486.98976571684</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>44699.22765027765</v>
+        <v>40819.182776042</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>45068.05000959244</v>
+        <v>41155.99010109359</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>45441.99750187743</v>
+        <v>41497.47768015532</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>45821.14353691529</v>
+        <v>41843.71255079129</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>46205.56275493863</v>
+        <v>42194.76287420823</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>46595.33105524498</v>
+        <v>42550.69796138673</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>46990.52562567907</v>
+        <v>42911.58830000424</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>47391.22497300792</v>
+        <v>43277.50558217351</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>47797.50895421545</v>
+        <v>43648.52273302099</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>48209.45880874384</v>
+        <v>44024.71394012911</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>48627.15719170871</v>
+        <v>44406.15468386855</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>49050.68820811586</v>
+        <v>44792.92176864474</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>49480.13744810853</v>
+        <v>45185.09335508568</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>49915.59202327353</v>
+        <v>45582.74899319631</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>50357.14060403538</v>
+        <v>45985.96965650699</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>50804.87345816808</v>
+        <v>46394.83777724216</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51258.88249045496</v>
+        <v>46809.43728253753</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>51719.2612835255</v>
+        <v>47229.8536317324</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52186.1051399014</v>
+        <v>47656.17385476566</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>52659.51112528107</v>
+        <v>48088.48659170315</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53139.57811309443</v>
+        <v>48526.88213342514</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>53626.40683035852</v>
+        <v>48971.45246350121</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54120.09990486591</v>
+        <v>49422.29130128278</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54620.76191373607</v>
+        <v>49879.49414623986</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55128.49943336171</v>
+        <v>50343.15832357207</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55643.42109078087</v>
+        <v>50813.38303112146</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56165.63761650623</v>
+        <v>51290.26938761584</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56695.26189884093</v>
+        <v>51773.92048226998</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57232.40903971353</v>
+        <v>52264.44142577378</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57777.19641205984</v>
+        <v>52761.93940269344</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>58329.74371878277</v>
+        <v>53266.52372531297</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58890.17305331775</v>
+        <v>53778.30588894281</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>59458.60896183358</v>
+        <v>54297.39962872084</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>60035.17850709381</v>
+        <v>54823.92097793102</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>60620.01133400645</v>
+        <v>55357.98832786264</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>61213.23973688739</v>
+        <v>55899.72248923552</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>61814.99872846032</v>
+        <v>56449.24675520996</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>62425.42611061683</v>
+        <v>57006.68696600499</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>63044.66254695699</v>
+        <v>57572.17157514229</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>63672.85163713022</v>
+        <v>58145.83171733348</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>64310.1399929932</v>
+        <v>58727.80127802796</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>64956.67731660102</v>
+        <v>59318.21696463358</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>65612.61648004316</v>
+        <v>59917.21837942298</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>66278.11360713607</v>
+        <v>60524.94809413465</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>66953.32815697927</v>
+        <v>61141.5517262764</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>67638.42300937955</v>
+        <v>61767.17801713425</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>68333.56455214549</v>
+        <v>62401.97891148942</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>69038.92277024905</v>
+        <v>63046.10963904066</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>69754.67133684953</v>
+        <v>63699.72879752686</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>70480.98770616978</v>
+        <v>64362.99843754107</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>71218.05320820928</v>
+        <v>65036.08414902263</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>71966.05314527683</v>
+        <v>65719.15514941029</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>72725.17689031809</v>
+        <v>66412.38437343427</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>73495.6179870082</v>
+        <v>67115.94856452094</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>74277.57425157526</v>
+        <v>67830.02836777757</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>75071.24787631365</v>
+        <v>68554.80842452019</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>75876.84553473872</v>
+        <v>69290.47746830064</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>76694.57848832947</v>
+        <v>70037.22842238357</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>77524.66269479715</v>
+        <v>70795.25849861681</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>78367.31891781013</v>
+        <v>71564.76929763229</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>79222.77283809779</v>
+        <v>72345.96691030482</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>80091.25516584794</v>
+        <v>73139.06202039395</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>80973.00175430055</v>
+        <v>73944.27000827687</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>81868.2537144363</v>
+        <v>74761.81105568154</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>82777.25753064168</v>
+        <v>75591.91025131223</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>83700.26517722783</v>
+        <v>76434.79769725339</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>84637.53423566621</v>
+        <v>77290.70861602934</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>85589.32801239152</v>
+        <v>78159.88345818142</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>86555.91565701443</v>
+        <v>79042.56801021936</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>87537.57228076985</v>
+        <v>79939.01350278778</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>88534.57907501412</v>
+        <v>80849.47671887786</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>89547.22342957363</v>
+        <v>81774.22010190217</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>90575.79905072846</v>
+        <v>82713.51186343758</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>91620.60607860428</v>
+        <v>83667.62609042668</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>92681.95120372641</v>
+        <v>84636.84285161491</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>93760.14778247717</v>
+        <v>85621.44830298588</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>94855.5159511794</v>
+        <v>86621.73479194136</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>95968.38273851173</v>
+        <v>87638.00095995916</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>97099.08217594455</v>
+        <v>88670.55184344293</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>98247.95540586817</v>
+        <v>89719.69897246416</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>99415.35078706368</v>
+        <v>90785.76046707766</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>100601.6239971498</v>
+        <v>91869.06113087627</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>101807.1381316205</v>
+        <v>92969.93254143086</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>103032.2637990643</v>
+        <v>94088.71313724495</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>104277.3792121415</v>
+        <v>95225.74830083457</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>105542.8702738692</v>
+        <v>96381.39043752353</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>106829.1306587485</v>
+        <v>97555.99904952812</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>108136.5618882418</v>
+        <v>98749.94080488327</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>109465.5734000918</v>
+        <v>99963.58960074408</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>110816.5826109479</v>
+        <v>101197.3266205762</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>112190.014971748</v>
+        <v>102451.5403847303</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>113586.3040152803</v>
+        <v>103726.6267938748</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>115005.8913953259</v>
+        <v>105022.9891647419</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>116449.2269167688</v>
+        <v>106341.038257623</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>117916.7685560302</v>
+        <v>107681.1922950294</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>119408.9824711714</v>
+        <v>109043.8769709181</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>120926.3430009823</v>
+        <v>110429.5254498605</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>122469.332652361</v>
+        <v>111838.5783555157</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>124038.4420752632</v>
+        <v>113271.4837477559</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>125634.1700244894</v>
+        <v>114728.6970877698</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>127257.023307555</v>
+        <v>116210.6811904581</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>128907.5167178794</v>
+        <v>117717.9061634218</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>130586.1729525097</v>
+        <v>119250.8493318276</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>132293.522513584</v>
+        <v>120809.9951484255</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>134030.1035927333</v>
+        <v>122395.8350879837</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>135796.4619376032</v>
+        <v>124008.8675253973</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>137593.1506996737</v>
+        <v>125649.5975967179</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>139420.7302625549</v>
+        <v>127318.5370423538</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>141279.768049925</v>
+        <v>129016.2040316794</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>143170.8383122839</v>
+        <v>130743.1229682997</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>145094.5218916977</v>
+        <v>132499.8242752154</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>147051.405963715</v>
+        <v>134286.8441591418</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>149042.0837556417</v>
+        <v>136104.7243532385</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>151067.1542403833</v>
+        <v>137954.0118375273</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>153127.2218050716</v>
+        <v>139835.258536283</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>155222.8958937172</v>
+        <v>141749.0209917043</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>157354.7906231544</v>
+        <v>143695.8600131978</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>159523.5243715751</v>
+        <v>145676.3403016263</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>161729.719338979</v>
+        <v>147691.0300479151</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>163974.0010789114</v>
+        <v>149740.5005054359</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>166256.9980008993</v>
+        <v>151825.3255356328</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>168579.3408430464</v>
+        <v>153946.0811263983</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>170941.6621143061</v>
+        <v>156103.3448827596</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>173344.5955060058</v>
+        <v>158297.6954894828</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>175788.7752722649</v>
+        <v>160529.7121452742</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>178274.8355790181</v>
+        <v>162799.9739683101</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>180803.4098214372</v>
+        <v>165109.0593729091</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>183375.1299096212</v>
+        <v>167457.5454172255</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>185990.6255225172</v>
+        <v>169846.0071219341</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>188650.5233301329</v>
+        <v>172275.0167599559</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>191355.4461841921</v>
+        <v>174745.1431173687</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>194106.0122775038</v>
+        <v>177256.950725744</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>196902.834272418</v>
+        <v>179810.9990662582</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>199746.518398864</v>
+        <v>182407.8417460222</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>202637.6635225889</v>
+        <v>185048.025647201</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>205576.8601843427</v>
+        <v>187732.0900496005</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>208564.6896108886</v>
+        <v>190460.5657275254</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>211601.7226988542</v>
+        <v>193233.9740218361</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>214688.5189725851</v>
+        <v>196052.825888263</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>217825.6255172993</v>
+        <v>198917.6209231679</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>221013.5758889967</v>
+        <v>201828.8463680769</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>224252.8890027257</v>
+        <v>204786.9760944485</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>227544.06800096</v>
+        <v>207792.4695702795</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>230887.599103993</v>
+        <v>210845.7708102897</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>234283.9504444143</v>
+        <v>213947.3073115686</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>237733.5708878818</v>
+        <v>217097.4889767097</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>241236.8888425595</v>
+        <v>220296.7070265922</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>244794.3110597383</v>
+        <v>223545.3329051127</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>248406.2214283088</v>
+        <v>226843.7171783016</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>252072.9797658949</v>
+        <v>230192.1884303898</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>255794.9206095968</v>
+        <v>233591.0521595204</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>259572.3520094275</v>
+        <v>237040.5896759185</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>263405.5543276494</v>
+        <v>240541.0570054491</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>267294.7790473361</v>
+        <v>244092.6838016004</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>271240.2475935967</v>
+        <v>247695.6722690294</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>275242.1501709913</v>
+        <v>251350.1961018941</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>279300.6446207635</v>
+        <v>255056.3994402817</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>283415.8553015814</v>
+        <v>258814.3958481052</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>287587.8719975458</v>
+        <v>262624.2673159001</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>286863.1452270558</v>
+        <v>261962.4492921352</v>
       </c>
       <c r="C358" t="n">
-        <v>4953.603630216416</v>
+        <v>5137.119742678181</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>286129.5693019849</v>
+        <v>261292.5502504816</v>
       </c>
       <c r="C359" t="n">
-        <v>9972.934065897847</v>
+        <v>10342.40127123642</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>285386.969375242</v>
+        <v>260614.4105211702</v>
       </c>
       <c r="C360" t="n">
-        <v>15058.1459925202</v>
+        <v>15616.00500178217</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>284635.1653870007</v>
+        <v>259927.8656741792</v>
       </c>
       <c r="C361" t="n">
-        <v>20209.36071493181</v>
+        <v>20958.05673314346</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>283873.9719151918</v>
+        <v>259232.7463827051</v>
       </c>
       <c r="C362" t="n">
-        <v>25426.66540869018</v>
+        <v>26368.64687046995</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>283103.198022724</v>
+        <v>258528.8782836451</v>
       </c>
       <c r="C363" t="n">
-        <v>30710.11242492096</v>
+        <v>31847.82970433902</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>282322.6471016212</v>
+        <v>257816.0818352639</v>
       </c>
       <c r="C364" t="n">
-        <v>36059.71865226352</v>
+        <v>37395.62274906331</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>281532.1167143091</v>
+        <v>257094.1721722564</v>
       </c>
       <c r="C365" t="n">
-        <v>41475.46493933504</v>
+        <v>43012.00614375887</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>280731.3984323367</v>
+        <v>256362.9589584697</v>
       </c>
       <c r="C366" t="n">
-        <v>46957.29558100456</v>
+        <v>48696.92211958724</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>279920.2776728784</v>
+        <v>255622.2462375964</v>
       </c>
       <c r="C367" t="n">
-        <v>52505.11787160367</v>
+        <v>54450.27453641385</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>279098.5335334191</v>
+        <v>254871.8322822107</v>
       </c>
       <c r="C368" t="n">
-        <v>58118.80172799261</v>
+        <v>60271.92849191</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>278265.9386251006</v>
+        <v>254111.5094415801</v>
       </c>
       <c r="C369" t="n">
-        <v>63798.17938519552</v>
+        <v>66161.71000591213</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>277422.2589052717</v>
+        <v>253341.0639887507</v>
       </c>
       <c r="C370" t="n">
-        <v>69543.04516705882</v>
+        <v>72119.40578258388</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>276567.2535098752</v>
+        <v>252560.2759674846</v>
       </c>
       <c r="C371" t="n">
-        <v>75353.15533412527</v>
+        <v>78144.76305265442</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>275700.6745863827</v>
+        <v>251768.9190396946</v>
       </c>
       <c r="C372" t="n">
-        <v>81228.22801061983</v>
+        <v>84237.48949769918</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>274822.2671280828</v>
+        <v>250966.760334119</v>
       </c>
       <c r="C373" t="n">
-        <v>81227.76114798358</v>
+        <v>84237.00533920672</v>
       </c>
       <c r="D373" t="n">
-        <v>5940.182044135742</v>
+        <v>5210.715032853709</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>273931.768810631</v>
+        <v>250153.5602970575</v>
       </c>
       <c r="C374" t="n">
-        <v>81227.22092474494</v>
+        <v>84236.44510232229</v>
       </c>
       <c r="D374" t="n">
-        <v>11944.72191039528</v>
+        <v>10477.88461015244</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>273028.9098318681</v>
+        <v>249329.0725460954</v>
       </c>
       <c r="C375" t="n">
-        <v>81226.59662141527</v>
+        <v>84235.79767043235</v>
       </c>
       <c r="D375" t="n">
-        <v>18013.23440809919</v>
+        <v>15801.1708434529</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>272113.4127560275</v>
+        <v>248493.0437278339</v>
       </c>
       <c r="C376" t="n">
-        <v>81225.87608543591</v>
+        <v>84235.05044076257</v>
       </c>
       <c r="D376" t="n">
-        <v>24145.29816859537</v>
+        <v>21180.20410907124</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>271184.9923635738</v>
+        <v>247645.2133807622</v>
       </c>
       <c r="C377" t="n">
-        <v>81225.04556046623</v>
+        <v>84234.18914734124</v>
       </c>
       <c r="D377" t="n">
-        <v>30340.45615495834</v>
+        <v>26614.5834951902</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>270243.355508026</v>
+        <v>246785.3138045101</v>
       </c>
       <c r="C378" t="n">
-        <v>81224.08949843435</v>
+        <v>84233.19766608722</v>
       </c>
       <c r="D378" t="n">
-        <v>36598.2162719231</v>
+        <v>32103.87733689178</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>269288.2009812614</v>
+        <v>245913.0699368441</v>
       </c>
       <c r="C379" t="n">
-        <v>81222.99035304843</v>
+        <v>84232.05780067135</v>
       </c>
       <c r="D379" t="n">
-        <v>42918.05207656851</v>
+        <v>37647.62383956722</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>268319.219388919</v>
+        <v>245028.1992398846</v>
       </c>
       <c r="C380" t="n">
-        <v>81221.72835342764</v>
+        <v>84230.74904776107</v>
       </c>
       <c r="D380" t="n">
-        <v>49299.40358984824</v>
+        <v>43245.33179079016</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>267336.0930376612</v>
+        <v>244130.411597156</v>
       </c>
       <c r="C381" t="n">
-        <v>81220.2812564833</v>
+        <v>84229.2483402283</v>
       </c>
       <c r="D381" t="n">
-        <v>55741.67820863213</v>
+        <v>48896.48136035748</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>266338.4958362002</v>
+        <v>243219.4092232023</v>
       </c>
       <c r="C382" t="n">
-        <v>81218.62407666029</v>
+        <v>84227.52976687819</v>
       </c>
       <c r="D382" t="n">
-        <v>62244.25171746231</v>
+        <v>54600.52498779944</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>265326.0932121306</v>
+        <v>242294.8865876397</v>
       </c>
       <c r="C383" t="n">
-        <v>81216.7287916412</v>
+        <v>84225.5642672508</v>
       </c>
       <c r="D383" t="n">
-        <v>62244.13513887244</v>
+        <v>54600.4227253088</v>
       </c>
       <c r="E383" t="n">
-        <v>6562.334259886013</v>
+        <v>4203.829523570242</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>264298.5420467659</v>
+        <v>241356.5303556501</v>
       </c>
       <c r="C384" t="n">
-        <v>81214.56402262063</v>
+        <v>84223.31930005029</v>
       </c>
       <c r="D384" t="n">
-        <v>62243.99615455469</v>
+        <v>54600.30080856138</v>
       </c>
       <c r="E384" t="n">
-        <v>13183.65108515097</v>
+        <v>8445.443262313976</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>263255.4906303171</v>
+        <v>240404.0193470495</v>
       </c>
       <c r="C385" t="n">
-        <v>81212.09468777904</v>
+        <v>84220.75848378139</v>
       </c>
       <c r="D385" t="n">
-        <v>62243.83073536213</v>
+        <v>54600.15570319811</v>
       </c>
       <c r="E385" t="n">
-        <v>19863.24249819835</v>
+        <v>12724.38768597742</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>262196.5786399068</v>
+        <v>239437.024516211</v>
       </c>
       <c r="C386" t="n">
-        <v>81209.28162762398</v>
+        <v>84217.84120821017</v>
       </c>
       <c r="D386" t="n">
-        <v>62243.63418284026</v>
+        <v>54599.9832877447</v>
       </c>
       <c r="E386" t="n">
-        <v>26600.37458973574</v>
+        <v>17040.19265246954</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>261121.4371430516</v>
+        <v>238455.2089552442</v>
       </c>
       <c r="C387" t="n">
-        <v>81206.08120092527</v>
+        <v>84214.5222153302</v>
       </c>
       <c r="D387" t="n">
-        <v>62243.40102850414</v>
+        <v>54599.77876525783</v>
       </c>
       <c r="E387" t="n">
-        <v>33394.28910071038</v>
+        <v>21392.3724212495</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>260029.6886293946</v>
+        <v>237458.2279229744</v>
       </c>
       <c r="C388" t="n">
-        <v>81202.4448500524</v>
+        <v>84210.7511485968</v>
       </c>
       <c r="D388" t="n">
-        <v>62243.12491983284</v>
+        <v>54599.53656331964</v>
       </c>
       <c r="E388" t="n">
-        <v>40244.20510192798</v>
+        <v>25780.42672929003</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>258920.9470736087</v>
+        <v>236445.7289023848</v>
       </c>
       <c r="C389" t="n">
-        <v>81198.31863462753</v>
+        <v>84206.47206930345</v>
       </c>
       <c r="D389" t="n">
-        <v>62242.79849154736</v>
+        <v>54599.25022112313</v>
       </c>
       <c r="E389" t="n">
-        <v>47149.32076833781</v>
+        <v>30203.84192768396</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>257794.8180325222</v>
+        <v>235417.3516893115</v>
       </c>
       <c r="C390" t="n">
-        <v>81193.64273254086</v>
+        <v>84201.62293911105</v>
       </c>
       <c r="D390" t="n">
-        <v>62242.41322063546</v>
+        <v>54598.91226230007</v>
       </c>
       <c r="E390" t="n">
-        <v>54108.81524449766</v>
+        <v>34662.0921766606</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>256650.8987796443</v>
+        <v>234372.728515292</v>
       </c>
       <c r="C391" t="n">
-        <v>81188.35090753579</v>
+        <v>84196.13506790907</v>
       </c>
       <c r="D391" t="n">
-        <v>62241.95926348362</v>
+        <v>54598.51405205369</v>
       </c>
       <c r="E391" t="n">
-        <v>61121.85059724684</v>
+        <v>39154.64069646748</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>255488.7784803854</v>
+        <v>233311.484207575</v>
       </c>
       <c r="C392" t="n">
-        <v>81182.36994276571</v>
+        <v>84189.93252638694</v>
       </c>
       <c r="D392" t="n">
-        <v>62241.42527337783</v>
+        <v>54598.04563707062</v>
       </c>
       <c r="E392" t="n">
-        <v>68187.57385112904</v>
+        <v>43680.94107126167</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>254308.0384113654</v>
+        <v>232233.2363893931</v>
       </c>
       <c r="C393" t="n">
-        <v>81175.61903995037</v>
+        <v>84182.93152293119</v>
       </c>
       <c r="D393" t="n">
-        <v>62240.79819653908</v>
+        <v>54597.49556660372</v>
       </c>
       <c r="E393" t="n">
-        <v>68187.48967959966</v>
+        <v>43680.88715100308</v>
       </c>
       <c r="F393" t="n">
-        <v>7117.629421997442</v>
+        <v>7400.15216187223</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>253108.2522272942</v>
+        <v>231137.5957236766</v>
       </c>
       <c r="C394" t="n">
-        <v>81168.00918402163</v>
+        <v>84175.03974473318</v>
       </c>
       <c r="D394" t="n">
-        <v>62240.06304477211</v>
+        <v>54596.85069304007</v>
       </c>
       <c r="E394" t="n">
-        <v>68187.38773416236</v>
+        <v>43680.82184478397</v>
       </c>
       <c r="F394" t="n">
-        <v>14286.22196637002</v>
+        <v>14853.290344491</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>251888.9862789795</v>
+        <v>230024.1662034564</v>
       </c>
       <c r="C395" t="n">
-        <v>81159.44247344893</v>
+        <v>84166.1556633052</v>
       </c>
       <c r="D395" t="n">
-        <v>62239.20264272732</v>
+        <v>54596.09595019956</v>
       </c>
       <c r="E395" t="n">
-        <v>68187.26449614466</v>
+        <v>43680.7428985437</v>
       </c>
       <c r="F395" t="n">
-        <v>21504.89601192725</v>
+        <v>22358.49793214454</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>250649.799986065</v>
+        <v>228892.5454922487</v>
       </c>
       <c r="C396" t="n">
-        <v>81149.81141677199</v>
+        <v>84156.16780495172</v>
       </c>
       <c r="D396" t="n">
-        <v>62238.19734771013</v>
+        <v>54595.21410755238</v>
       </c>
       <c r="E396" t="n">
-        <v>68187.11580142095</v>
+        <v>43680.64764474454</v>
       </c>
       <c r="F396" t="n">
-        <v>28772.76440279556</v>
+        <v>29914.85255474775</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>249390.2462681351</v>
+        <v>227742.3253177372</v>
       </c>
       <c r="C397" t="n">
-        <v>81138.99819624686</v>
+        <v>84144.95398713576</v>
       </c>
       <c r="D397" t="n">
-        <v>62237.02473992169</v>
+        <v>54594.18549849875</v>
       </c>
       <c r="E397" t="n">
-        <v>68186.93673260637</v>
+        <v>43680.53293331113</v>
       </c>
       <c r="F397" t="n">
-        <v>36088.93692052972</v>
+        <v>37521.42865808005</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>248109.8720378242</v>
+        <v>226573.09192208</v>
       </c>
       <c r="C398" t="n">
-        <v>81126.87389992972</v>
+        <v>84132.38052211388</v>
       </c>
       <c r="D398" t="n">
-        <v>62235.65928098438</v>
+        <v>54592.98772082821</v>
       </c>
       <c r="E398" t="n">
-        <v>68186.72149532306</v>
+        <v>43680.3950523666</v>
       </c>
       <c r="F398" t="n">
-        <v>43452.52281720877</v>
+        <v>45177.30013742846</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>246808.2187595465</v>
+        <v>225384.426572138</v>
       </c>
       <c r="C399" t="n">
-        <v>81113.2977239833</v>
+        <v>84118.30138969017</v>
       </c>
       <c r="D399" t="n">
-        <v>62234.07193859697</v>
+        <v>54591.59530746799</v>
       </c>
       <c r="E399" t="n">
-        <v>68186.46327656986</v>
+        <v>43680.22963750424</v>
       </c>
       <c r="F399" t="n">
-        <v>50862.63340327723</v>
+        <v>52881.54302814895</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>245484.8230774066</v>
+        <v>224175.9061328827</v>
       </c>
       <c r="C400" t="n">
-        <v>81098.11614748981</v>
+        <v>84102.55738145867</v>
       </c>
       <c r="D400" t="n">
-        <v>62232.22977518445</v>
+        <v>54589.97936564748</v>
       </c>
       <c r="E400" t="n">
-        <v>68186.15408305266</v>
+        <v>43680.03156822209</v>
       </c>
       <c r="F400" t="n">
-        <v>58318.38468346762</v>
+        <v>60633.23824621765</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>244139.2175157708</v>
+        <v>222947.1037071537</v>
       </c>
       <c r="C401" t="n">
-        <v>81081.16208259579</v>
+        <v>84084.97521946364</v>
       </c>
       <c r="D401" t="n">
-        <v>62230.09549845732</v>
+        <v>54588.10718264977</v>
       </c>
       <c r="E401" t="n">
-        <v>68185.78455715301</v>
+        <v>43679.79485003232</v>
       </c>
       <c r="F401" t="n">
-        <v>65818.90003373768</v>
+        <v>68431.47437142466</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>242770.9312558487</v>
+        <v>221697.5893448319</v>
       </c>
       <c r="C402" t="n">
-        <v>81062.25400339223</v>
+        <v>84065.36665280716</v>
       </c>
       <c r="D402" t="n">
-        <v>62227.62697188219</v>
+        <v>54585.94179639756</v>
       </c>
       <c r="E402" t="n">
-        <v>68185.34376803187</v>
+        <v>43679.51248064244</v>
       </c>
       <c r="F402" t="n">
-        <v>73363.31291170022</v>
+        <v>76275.35046539016</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>241379.4909914857</v>
+        <v>220426.9308243457</v>
       </c>
       <c r="C403" t="n">
-        <v>81041.19505754848</v>
+        <v>84043.527536372</v>
       </c>
       <c r="D403" t="n">
-        <v>62224.77668319253</v>
+        <v>54583.44152923187</v>
       </c>
       <c r="E403" t="n">
-        <v>68184.81897518682</v>
+        <v>43679.17629849012</v>
       </c>
       <c r="F403" t="n">
-        <v>73363.24868245855</v>
+        <v>76275.28368667305</v>
       </c>
       <c r="G403" t="n">
-        <v>7587.520910133477</v>
+        <v>12089.7657460393</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>239964.4218671612</v>
+        <v>219134.6945092475</v>
       </c>
       <c r="C404" t="n">
-        <v>81017.77216536664</v>
+        <v>84019.23689649845</v>
       </c>
       <c r="D404" t="n">
-        <v>62221.49116924068</v>
+        <v>54580.55948339348</v>
       </c>
       <c r="E404" t="n">
-        <v>68184.1953616056</v>
+        <v>43678.77681180136</v>
       </c>
       <c r="F404" t="n">
-        <v>73363.16983387769</v>
+        <v>76275.20170832583</v>
       </c>
       <c r="G404" t="n">
-        <v>15217.26208847785</v>
+        <v>24246.80420980159</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>238525.2485009475</v>
+        <v>217820.4462823763</v>
       </c>
       <c r="C405" t="n">
-        <v>80991.7551116011</v>
+        <v>83992.25598915854</v>
       </c>
       <c r="D405" t="n">
-        <v>62217.7103957147</v>
+        <v>54577.24299691185</v>
       </c>
       <c r="E405" t="n">
-        <v>68183.45573349357</v>
+        <v>43678.30300623603</v>
       </c>
       <c r="F405" t="n">
-        <v>73363.0732420117</v>
+        <v>76275.10128240261</v>
       </c>
       <c r="G405" t="n">
-        <v>22888.40683689917</v>
+        <v>36469.81408493903</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>237061.4960949001</v>
+        <v>216483.752559863</v>
       </c>
       <c r="C406" t="n">
-        <v>80962.8956360896</v>
+        <v>83962.32735689798</v>
       </c>
       <c r="D406" t="n">
-        <v>62213.36709052065</v>
+        <v>54573.43305884959</v>
       </c>
       <c r="E406" t="n">
-        <v>68182.5801833991</v>
+        <v>43677.74212908612</v>
       </c>
       <c r="F406" t="n">
-        <v>73362.95516304925</v>
+        <v>76274.97851648752</v>
       </c>
       <c r="G406" t="n">
-        <v>30600.16016914756</v>
+        <v>48757.52866027598</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>235572.6916350193</v>
+        <v>215124.1813869306</v>
       </c>
       <c r="C407" t="n">
-        <v>80930.92652996533</v>
+        <v>83929.17389156519</v>
       </c>
       <c r="D407" t="n">
-        <v>62208.38602996714</v>
+        <v>54569.06368314479</v>
       </c>
       <c r="E407" t="n">
-        <v>68181.5457134265</v>
+        <v>43677.07944790594</v>
       </c>
       <c r="F407" t="n">
-        <v>73362.81112092976</v>
+        <v>76274.82875685005</v>
       </c>
       <c r="G407" t="n">
-        <v>38351.75167208529</v>
+        <v>61108.72037881812</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>234058.365182544</v>
+        <v>213741.3036170995</v>
       </c>
       <c r="C408" t="n">
-        <v>80895.56074495231</v>
+        <v>83892.49791060915</v>
       </c>
       <c r="D408" t="n">
-        <v>62202.68327728813</v>
+        <v>54564.06124064514</v>
       </c>
       <c r="E408" t="n">
-        <v>68180.32581511453</v>
+        <v>43676.29798138251</v>
       </c>
       <c r="F408" t="n">
-        <v>73362.63577682053</v>
+        <v>76274.64645274119</v>
       </c>
       <c r="G408" t="n">
-        <v>46142.43836331575</v>
+        <v>73522.20539102684</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>232518.0512579137</v>
+        <v>212334.6941760173</v>
       </c>
       <c r="C409" t="n">
-        <v>80856.49052398725</v>
+        <v>83851.98025549318</v>
       </c>
       <c r="D409" t="n">
-        <v>62196.16537350646</v>
+        <v>54558.34374933503</v>
       </c>
       <c r="E409" t="n">
-        <v>68178.89000247893</v>
+        <v>43675.37820020271</v>
       </c>
       <c r="F409" t="n">
-        <v>73362.42277797232</v>
+        <v>76274.42499924962</v>
       </c>
       <c r="G409" t="n">
-        <v>53971.50753657509</v>
+        <v>85996.84808859508</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>230951.2903182598</v>
+        <v>210903.9334106979</v>
       </c>
       <c r="C410" t="n">
-        <v>80813.38656214655</v>
+        <v>83807.27942153688</v>
       </c>
       <c r="D410" t="n">
-        <v>62188.72848117744</v>
+        <v>54551.82012322919</v>
       </c>
       <c r="E410" t="n">
-        <v>68177.20329467345</v>
+        <v>43674.29769564601</v>
       </c>
       <c r="F410" t="n">
-        <v>73362.16458321556</v>
+        <v>76274.15655587132</v>
       </c>
       <c r="G410" t="n">
-        <v>61838.27958583944</v>
+        <v>98531.56560430898</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>229357.6303287643</v>
+        <v>209448.608524482</v>
       </c>
       <c r="C411" t="n">
-        <v>80765.8972075811</v>
+        <v>83758.03072924809</v>
       </c>
       <c r="D411" t="n">
-        <v>62180.25748216038</v>
+        <v>54544.3893809399</v>
       </c>
       <c r="E411" t="n">
-        <v>68175.22564472607</v>
+        <v>43673.03081363318</v>
       </c>
       <c r="F411" t="n">
-        <v>73361.85226209249</v>
+        <v>76273.83183766856</v>
       </c>
       <c r="G411" t="n">
-        <v>69742.11079873134</v>
+        <v>111125.3322629917</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>227736.628427656</v>
+        <v>207968.315097505</v>
       </c>
       <c r="C412" t="n">
-        <v>80713.647712862</v>
+        <v>83703.84554793299</v>
       </c>
       <c r="D412" t="n">
-        <v>62170.6250312499</v>
+        <v>54535.9398155243</v>
       </c>
       <c r="E412" t="n">
-        <v>68172.9113108622</v>
+        <v>43671.54825199596</v>
       </c>
       <c r="F412" t="n">
-        <v>73361.47526434618</v>
+        <v>76273.43987560899</v>
       </c>
       <c r="G412" t="n">
-        <v>77682.39610934371</v>
+        <v>123777.1839677841</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>226087.8526839911</v>
+        <v>206462.6586918973</v>
       </c>
       <c r="C413" t="n">
-        <v>80656.23954780675</v>
+        <v>83644.3105830647</v>
       </c>
       <c r="D413" t="n">
-        <v>62159.69056825658</v>
+        <v>54526.34812788374</v>
       </c>
       <c r="E413" t="n">
-        <v>68170.20816704333</v>
+        <v>43669.81661880841</v>
       </c>
       <c r="F413" t="n">
-        <v>73361.02115620734</v>
+        <v>76272.96774238511</v>
       </c>
       <c r="G413" t="n">
-        <v>77682.3440620956</v>
+        <v>123777.1010370028</v>
       </c>
       <c r="H413" t="n">
-        <v>7976.227738066776</v>
+        <v>12105.69345435466</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>224410.8839467082</v>
+        <v>204931.2565403338</v>
       </c>
       <c r="C414" t="n">
-        <v>80593.24978547581</v>
+        <v>83578.98723953296</v>
       </c>
       <c r="D414" t="n">
-        <v>62147.29929195958</v>
+        <v>54515.47852671709</v>
       </c>
       <c r="E414" t="n">
-        <v>68167.05694953693</v>
+        <v>43667.79794973975</v>
       </c>
       <c r="F414" t="n">
-        <v>73360.47531964083</v>
+        <v>76272.4002397226</v>
       </c>
       <c r="G414" t="n">
-        <v>77682.27947323132</v>
+        <v>123776.9981227244</v>
       </c>
       <c r="H414" t="n">
-        <v>15987.83866901408</v>
+        <v>24265.08874628396</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>222705.3177827336</v>
+        <v>203373.7393159062</v>
       </c>
       <c r="C415" t="n">
-        <v>80524.2305735915</v>
+        <v>83507.41107348037</v>
       </c>
       <c r="D415" t="n">
-        <v>62133.28110025756</v>
+        <v>54503.18179882349</v>
       </c>
       <c r="E415" t="n">
-        <v>68163.39043660146</v>
+        <v>43665.44918256083</v>
       </c>
       <c r="F415" t="n">
-        <v>73359.82061043782</v>
+        <v>76271.71954290112</v>
       </c>
       <c r="G415" t="n">
-        <v>77682.19950284465</v>
+        <v>123776.8706999136</v>
       </c>
       <c r="H415" t="n">
-        <v>24034.36245944445</v>
+        <v>36477.47204061192</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>220970.7665011721</v>
+        <v>201789.752980607</v>
       </c>
       <c r="C416" t="n">
-        <v>80448.70870412023</v>
+        <v>83429.09134593932</v>
       </c>
       <c r="D416" t="n">
-        <v>62117.44950181902</v>
+        <v>54489.29435440431</v>
       </c>
       <c r="E416" t="n">
-        <v>68159.13255872627</v>
+        <v>43662.72158716405</v>
       </c>
       <c r="F416" t="n">
-        <v>73359.03697077507</v>
+        <v>76270.90479793472</v>
       </c>
       <c r="G416" t="n">
-        <v>77682.10071301728</v>
+        <v>123776.7132906774</v>
       </c>
       <c r="H416" t="n">
-        <v>32115.37841160472</v>
+        <v>48742.2048352541</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>219206.8612598302</v>
+        <v>200178.9607089981</v>
       </c>
       <c r="C417" t="n">
-        <v>80366.18529416414</v>
+        <v>83343.51069190139</v>
       </c>
       <c r="D417" t="n">
-        <v>62099.60050556948</v>
+        <v>54473.63725292363</v>
       </c>
       <c r="E417" t="n">
-        <v>68154.19743732165</v>
+        <v>43659.56014974841</v>
       </c>
       <c r="F417" t="n">
-        <v>73358.10099161731</v>
+        <v>76269.93166660443</v>
       </c>
       <c r="G417" t="n">
-        <v>77681.97895248233</v>
+        <v>123776.5192804913</v>
       </c>
       <c r="H417" t="n">
-        <v>40230.51796305844</v>
+        <v>61058.72775502451</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>217413.2542494971</v>
+        <v>198541.0448828904</v>
       </c>
       <c r="C418" t="n">
-        <v>80276.13559161288</v>
+        <v>83250.12491876919</v>
       </c>
       <c r="D418" t="n">
-        <v>62079.51149544802</v>
+        <v>54456.01521604708</v>
       </c>
       <c r="E418" t="n">
-        <v>68148.48835031597</v>
+        <v>43655.90291018142</v>
       </c>
       <c r="F418" t="n">
-        <v>73356.98542011768</v>
+        <v>76268.77181430596</v>
       </c>
       <c r="G418" t="n">
-        <v>77681.82922140065</v>
+        <v>123776.2807027365</v>
       </c>
       <c r="H418" t="n">
-        <v>48379.46709531804</v>
+        <v>73426.56420726876</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>215589.6209505726</v>
+        <v>196875.7091520881</v>
       </c>
       <c r="C419" t="n">
-        <v>80178.00891919801</v>
+        <v>83148.36294833804</v>
       </c>
       <c r="D419" t="n">
-        <v>62056.9400990078</v>
+        <v>54436.21563518074</v>
       </c>
       <c r="E419" t="n">
-        <v>68141.89662379501</v>
+        <v>43651.68025198347</v>
       </c>
       <c r="F419" t="n">
-        <v>73355.65860698863</v>
+        <v>76267.39233548469</v>
       </c>
       <c r="G419" t="n">
-        <v>77681.64551331573</v>
+        <v>123775.987986876</v>
       </c>
       <c r="H419" t="n">
-        <v>56561.96864038089</v>
+        <v>85845.32388254383</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>213735.6624557493</v>
+        <v>195182.6805554538</v>
       </c>
       <c r="C420" t="n">
-        <v>80071.22877065692</v>
+        <v>83037.62691652263</v>
       </c>
       <c r="D420" t="n">
-        <v>62031.62305961597</v>
+        <v>54414.00758216721</v>
       </c>
       <c r="E420" t="n">
-        <v>68134.30044961827</v>
+        <v>43646.81414489326</v>
       </c>
       <c r="F420" t="n">
-        <v>73354.08388867672</v>
+        <v>76265.75511128696</v>
       </c>
       <c r="G420" t="n">
-        <v>77681.42063101962</v>
+        <v>123775.6296650588</v>
       </c>
       <c r="H420" t="n">
-        <v>64777.82447366581</v>
+        <v>98314.70608288521</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>211851.1078515815</v>
+        <v>193461.7116957496</v>
       </c>
       <c r="C421" t="n">
-        <v>79955.19307263845</v>
+        <v>82917.29244496537</v>
       </c>
       <c r="D421" t="n">
-        <v>62003.27512321286</v>
+        <v>54389.14083275303</v>
       </c>
       <c r="E421" t="n">
-        <v>68125.56362987679</v>
+        <v>43641.21734056772</v>
       </c>
       <c r="F421" t="n">
-        <v>73352.21889909646</v>
+        <v>76263.81609397432</v>
       </c>
       <c r="G421" t="n">
-        <v>77681.14597270846</v>
+        <v>123775.1920313862</v>
       </c>
       <c r="H421" t="n">
-        <v>73026.89758137775</v>
+        <v>110834.5028594909</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>209935.7166508672</v>
+        <v>191712.5829608798</v>
       </c>
       <c r="C422" t="n">
-        <v>79829.27462575199</v>
+        <v>82786.7090984251</v>
       </c>
       <c r="D422" t="n">
-        <v>61971.58795180546</v>
+        <v>54361.34491350774</v>
       </c>
       <c r="E422" t="n">
-        <v>68115.53425012076</v>
+        <v>43634.79252265207</v>
       </c>
       <c r="F422" t="n">
-        <v>73350.01480566959</v>
+        <v>76261.52451263864</v>
       </c>
       <c r="G422" t="n">
-        <v>77680.81128443699</v>
+        <v>123774.6587474786</v>
       </c>
       <c r="H422" t="n">
-        <v>81309.11398981286</v>
+        <v>123404.6019408697</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>207989.2812668785</v>
+        <v>189935.1047833504</v>
       </c>
       <c r="C423" t="n">
-        <v>79692.82173776909</v>
+        <v>82645.20104143671</v>
       </c>
       <c r="D423" t="n">
-        <v>61936.22907707899</v>
+        <v>54330.32818393396</v>
       </c>
       <c r="E423" t="n">
-        <v>68104.04328448488</v>
+        <v>43627.43141322341</v>
       </c>
       <c r="F423" t="n">
-        <v>73347.41546449247</v>
+        <v>76258.82199483519</v>
       </c>
       <c r="G423" t="n">
-        <v>77680.40437449918</v>
+        <v>123774.0103873771</v>
       </c>
       <c r="H423" t="n">
-        <v>89624.46454359558</v>
+        <v>136024.9894317101</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>206011.6295195761</v>
+        <v>188129.1199289344</v>
       </c>
       <c r="C424" t="n">
-        <v>79545.15906141512</v>
+        <v>82492.06790714082</v>
       </c>
       <c r="D424" t="n">
-        <v>61896.84090869205</v>
+        <v>54295.77696654609</v>
       </c>
       <c r="E424" t="n">
-        <v>68090.90313717832</v>
+        <v>43619.01383846971</v>
       </c>
       <c r="F424" t="n">
-        <v>73344.35648962962</v>
+        <v>76255.64159893335</v>
       </c>
       <c r="G424" t="n">
-        <v>77679.91078497292</v>
+        <v>123773.2239141906</v>
       </c>
       <c r="H424" t="n">
-        <v>97973.00651924656</v>
+        <v>148695.7522618269</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>204002.6271630656</v>
+        <v>186294.5058047373</v>
       </c>
       <c r="C425" t="n">
-        <v>79385.58864843463</v>
+        <v>82326.58589039868</v>
       </c>
       <c r="D425" t="n">
-        <v>61853.03981295748</v>
+        <v>54257.35473869115</v>
       </c>
       <c r="E425" t="n">
-        <v>68075.90612628068</v>
+        <v>43609.40675740982</v>
       </c>
       <c r="F425" t="n">
-        <v>73340.76423182175</v>
+        <v>76251.90675228614</v>
       </c>
       <c r="G425" t="n">
-        <v>77679.31341527583</v>
+        <v>123772.2720802798</v>
       </c>
       <c r="H425" t="n">
-        <v>106354.8650599031</v>
+        <v>161417.0803636679</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>201962.180422696</v>
+        <v>184431.1767760665</v>
       </c>
       <c r="C426" t="n">
-        <v>79213.39123066374</v>
+        <v>82148.00907632476</v>
       </c>
       <c r="D426" t="n">
-        <v>61804.41527867778</v>
+        <v>54214.70140082133</v>
       </c>
       <c r="E426" t="n">
-        <v>68058.82291739171</v>
+        <v>43598.46325848997</v>
       </c>
       <c r="F426" t="n">
-        <v>73336.55466231587</v>
+        <v>76247.53009075567</v>
       </c>
       <c r="G426" t="n">
-        <v>77678.59209219529</v>
+        <v>123771.1227421528</v>
       </c>
       <c r="H426" t="n">
-        <v>114770.2344163524</v>
+        <v>174189.2685558568</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>199890.238529372</v>
+        <v>182539.0864807568</v>
       </c>
       <c r="C427" t="n">
-        <v>79027.82773769714</v>
+        <v>81955.57101417858</v>
       </c>
       <c r="D427" t="n">
-        <v>61750.52918787779</v>
+        <v>54167.43263678229</v>
       </c>
       <c r="E427" t="n">
-        <v>68039.40091641362</v>
+        <v>43586.02153000052</v>
       </c>
       <c r="F427" t="n">
-        <v>73331.63215809065</v>
+        <v>76242.41219572007</v>
       </c>
       <c r="G427" t="n">
-        <v>77677.72308048708</v>
+        <v>123769.7380806663</v>
       </c>
       <c r="H427" t="n">
-        <v>123219.3789788948</v>
+        <v>187012.7181092738</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>197786.7962378701</v>
+        <v>180618.2301288878</v>
       </c>
       <c r="C428" t="n">
-        <v>78828.14105938698</v>
+        <v>81748.48654515899</v>
       </c>
       <c r="D428" t="n">
-        <v>61690.91521003293</v>
+        <v>54115.13938243142</v>
       </c>
       <c r="E428" t="n">
-        <v>68017.36263258956</v>
+        <v>43571.90381143888</v>
       </c>
       <c r="F428" t="n">
-        <v>73325.88818547732</v>
+        <v>76236.44022544286</v>
       </c>
       <c r="G428" t="n">
-        <v>77676.67852779552</v>
+        <v>123768.0737165742</v>
       </c>
       <c r="H428" t="n">
-        <v>131702.6340838565</v>
+        <v>199887.9379711187</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>195651.8963152125</v>
+        <v>178668.646775159</v>
       </c>
       <c r="C429" t="n">
-        <v>78613.55805985794</v>
+        <v>81525.9538910323</v>
       </c>
       <c r="D429" t="n">
-        <v>61625.07833910151</v>
+        <v>54057.38741952364</v>
       </c>
       <c r="E429" t="n">
-        <v>67992.40402486379</v>
+        <v>43555.91533418832</v>
       </c>
       <c r="F429" t="n">
-        <v>73319.19988007795</v>
+        <v>76229.48643862341</v>
       </c>
       <c r="G429" t="n">
-        <v>77675.42583734471</v>
+        <v>123766.0777109906</v>
       </c>
       <c r="H429" t="n">
-        <v>140220.4065778509</v>
+        <v>212815.5456213012</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>193485.6319844819</v>
+        <v>176690.4215505725</v>
       </c>
       <c r="C430" t="n">
-        <v>78383.29184796955</v>
+        <v>81287.15700870847</v>
       </c>
       <c r="D430" t="n">
-        <v>61552.49459320882</v>
+        <v>53993.71711227485</v>
       </c>
       <c r="E430" t="n">
-        <v>67964.19284665307</v>
+        <v>43537.84326117889</v>
       </c>
       <c r="F430" t="n">
-        <v>73311.42852197583</v>
+        <v>76221.40660908321</v>
       </c>
       <c r="G430" t="n">
-        <v>77673.92696160154</v>
+        <v>123763.6894399292</v>
       </c>
       <c r="H430" t="n">
-        <v>148773.1751221662</v>
+        <v>225796.2675344175</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>191288.1493088584</v>
+        <v>174683.687839528</v>
       </c>
       <c r="C431" t="n">
-        <v>78136.54430720449</v>
+        <v>81031.26821385427</v>
       </c>
       <c r="D431" t="n">
-        <v>61472.6108971707</v>
+        <v>53923.64330431191</v>
       </c>
       <c r="E431" t="n">
-        <v>67932.36700619711</v>
+        <v>43517.45563652847</v>
       </c>
       <c r="F431" t="n">
-        <v>73302.41790652595</v>
+        <v>76212.03833188755</v>
       </c>
       <c r="G431" t="n">
-        <v>77672.13760993067</v>
+        <v>123760.8383318012</v>
       </c>
       <c r="H431" t="n">
-        <v>157361.4902189074</v>
+        <v>238830.9392194256</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>189059.6495001384</v>
+        <v>172648.6293879544</v>
       </c>
       <c r="C432" t="n">
-        <v>77872.50888582248</v>
+        <v>80757.45107441377</v>
       </c>
       <c r="D432" t="n">
-        <v>61384.8451681584</v>
+        <v>53846.65539381761</v>
       </c>
       <c r="E432" t="n">
-        <v>67896.53296176602</v>
+        <v>43494.50035751301</v>
       </c>
       <c r="F432" t="n">
-        <v>73291.99261251958</v>
+        <v>76201.19922276771</v>
       </c>
       <c r="G432" t="n">
-        <v>77670.00636316901</v>
+        <v>123757.4424566003</v>
       </c>
       <c r="H432" t="n">
-        <v>165985.9739397662</v>
+        <v>251920.5048079945</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>186800.3911355701</v>
+        <v>170585.4823277154</v>
       </c>
       <c r="C433" t="n">
-        <v>77590.37364580111</v>
+        <v>80464.86357250344</v>
       </c>
       <c r="D433" t="n">
-        <v>61288.58662467045</v>
+        <v>53762.21760456023</v>
       </c>
       <c r="E433" t="n">
-        <v>67856.26417310994</v>
+        <v>43468.70418256569</v>
       </c>
       <c r="F433" t="n">
-        <v>73279.95617124066</v>
+        <v>76188.68501450113</v>
       </c>
       <c r="G433" t="n">
-        <v>77667.47368806138</v>
+        <v>123753.4069555289</v>
       </c>
       <c r="H433" t="n">
-        <v>174647.3193375635</v>
+        <v>265066.0161613895</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>184510.6922665013</v>
+        <v>168494.5371022214</v>
       </c>
       <c r="C434" t="n">
-        <v>77289.32456660322</v>
+        <v>80152.661530574</v>
       </c>
       <c r="D434" t="n">
-        <v>61183.19633856403</v>
+        <v>53669.76947013417</v>
       </c>
       <c r="E434" t="n">
-        <v>67811.09963260622</v>
+        <v>43439.77179033011</v>
       </c>
       <c r="F434" t="n">
-        <v>73266.08914187943</v>
+        <v>76174.26755593141</v>
       </c>
       <c r="G434" t="n">
-        <v>77664.47084463871</v>
+        <v>123748.6223000423</v>
       </c>
       <c r="H434" t="n">
-        <v>183346.2895199649</v>
+        <v>278268.6314646288</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>182190.9324021262</v>
+        <v>166376.1402779787</v>
       </c>
       <c r="C435" t="n">
-        <v>76968.54909718347</v>
+        <v>79820.00229500835</v>
       </c>
       <c r="D435" t="n">
-        <v>61068.00804918773</v>
+        <v>53568.72654811558</v>
       </c>
       <c r="E435" t="n">
-        <v>67760.54250155254</v>
+        <v>43407.3849060701</v>
       </c>
       <c r="F435" t="n">
-        <v>73250.14710093732</v>
+        <v>76157.69272156621</v>
       </c>
       <c r="G435" t="n">
-        <v>77660.91867991193</v>
+        <v>123742.9623697506</v>
       </c>
       <c r="H435" t="n">
-        <v>192083.7163640863</v>
+        <v>291529.6132756146</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>179841.5543515021</v>
+        <v>164230.6962267134</v>
       </c>
       <c r="C436" t="n">
-        <v>76627.2399468949</v>
+        <v>79466.04866746961</v>
       </c>
       <c r="D436" t="n">
-        <v>60942.32925762961</v>
+        <v>53458.48137993438</v>
       </c>
       <c r="E436" t="n">
-        <v>67704.05887892756</v>
+        <v>43371.20151293809</v>
       </c>
       <c r="F436" t="n">
-        <v>73231.85855564434</v>
+        <v>76138.67824217099</v>
       </c>
       <c r="G436" t="n">
-        <v>77656.72630171553</v>
+        <v>123736.2823393542</v>
       </c>
       <c r="H436" t="n">
-        <v>200860.4988500365</v>
+        <v>304850.3259959127</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>177463.0659070339</v>
+        <v>162058.6686627238</v>
       </c>
       <c r="C437" t="n">
-        <v>76264.5991031045</v>
+        <v>79089.97307135744</v>
       </c>
       <c r="D437" t="n">
-        <v>60805.44261773086</v>
+        <v>53338.40471106841</v>
       </c>
       <c r="E437" t="n">
-        <v>67641.07673164626</v>
+        <v>43330.85516669702</v>
       </c>
       <c r="F437" t="n">
-        <v>73210.92279400393</v>
+        <v>76116.9114694749</v>
       </c>
       <c r="G437" t="n">
-        <v>77651.78962719359</v>
+        <v>123728.4163658378</v>
       </c>
       <c r="H437" t="n">
-        <v>209677.6009908701</v>
+        <v>318232.2327289992</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>175056.0413527715</v>
+        <v>159860.5820202525</v>
       </c>
       <c r="C438" t="n">
-        <v>75879.84206040305</v>
+        <v>78690.96193769721</v>
       </c>
       <c r="D438" t="n">
-        <v>60656.60763880701</v>
+        <v>53207.84698466698</v>
       </c>
       <c r="E438" t="n">
-        <v>67570.98501682715</v>
+        <v>43285.95443344493</v>
       </c>
       <c r="F438" t="n">
-        <v>73187.00768686504</v>
+        <v>76092.04709099964</v>
       </c>
       <c r="G438" t="n">
-        <v>77645.9898012967</v>
+        <v>123719.1750685429</v>
       </c>
       <c r="H438" t="n">
-        <v>218536.0493358926</v>
+        <v>331676.8914909705</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>172621.1227811548</v>
+        <v>157637.0226559335</v>
       </c>
       <c r="C439" t="n">
-        <v>75472.20224332852</v>
+        <v>78268.22029171212</v>
       </c>
       <c r="D439" t="n">
-        <v>60495.06271295479</v>
+        <v>53066.14011990002</v>
       </c>
       <c r="E439" t="n">
-        <v>67493.13302781142</v>
+        <v>43236.08247067497</v>
       </c>
       <c r="F439" t="n">
-        <v>73159.74746037438</v>
+        <v>76063.70481409288</v>
       </c>
       <c r="G439" t="n">
-        <v>77639.19148177645</v>
+        <v>123708.3427965215</v>
       </c>
       <c r="H439" t="n">
-        <v>227436.9300238764</v>
+        <v>345185.9507381471</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>170159.0212022672</v>
+        <v>155388.6398617586</v>
       </c>
       <c r="C440" t="n">
-        <v>75040.93560154981</v>
+        <v>77820.97651824472</v>
       </c>
       <c r="D440" t="n">
-        <v>60320.02747740188</v>
+        <v>52912.59958420633</v>
       </c>
       <c r="E440" t="n">
-        <v>67406.82999657566</v>
+        <v>43180.79677258119</v>
       </c>
       <c r="F440" t="n">
-        <v>73128.74046025376</v>
+        <v>76031.46704146219</v>
       </c>
       <c r="G440" t="n">
-        <v>77631.24098854452</v>
+        <v>123695.6746797706</v>
       </c>
       <c r="H440" t="n">
-        <v>236381.3853624454</v>
+        <v>358761.1441755308</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>167670.5174302303</v>
+        <v>153116.1466745297</v>
       </c>
       <c r="C441" t="n">
-        <v>74585.32535351157</v>
+        <v>77348.48728113927</v>
       </c>
       <c r="D441" t="n">
-        <v>60130.70551958284</v>
+        <v>52746.52676618034</v>
       </c>
       <c r="E441" t="n">
-        <v>67311.34498571152</v>
+        <v>43119.62910086067</v>
       </c>
       <c r="F441" t="n">
-        <v>73093.5469325413</v>
+        <v>75994.87656382643</v>
       </c>
       <c r="G441" t="n">
-        <v>77621.96431692624</v>
+        <v>123680.8934636005</v>
       </c>
       <c r="H441" t="n">
-        <v>245370.6099097884</v>
+        <v>372404.2848099365</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>165156.462732092</v>
+        <v>150820.3204684222</v>
       </c>
       <c r="C442" t="n">
-        <v>74104.68685166103</v>
+        <v>76850.04256871084</v>
       </c>
       <c r="D442" t="n">
-        <v>59926.28742950437</v>
+        <v>52567.2116531005</v>
       </c>
       <c r="E442" t="n">
-        <v>67205.90710325075</v>
+        <v>43052.08562233035</v>
       </c>
       <c r="F442" t="n">
-        <v>73053.68684868721</v>
+        <v>75953.43429868214</v>
       </c>
       <c r="G442" t="n">
-        <v>77611.165016299</v>
+        <v>123663.6861285103</v>
       </c>
       <c r="H442" t="n">
-        <v>254405.8460349187</v>
+        <v>386117.2582117026</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>162617.779225425</v>
+        <v>148502.0033180694</v>
       </c>
       <c r="C443" t="n">
-        <v>73598.37253960498</v>
+        <v>76324.97083454988</v>
       </c>
       <c r="D443" t="n">
-        <v>59705.95420051533</v>
+        <v>52373.93581407737</v>
       </c>
       <c r="E443" t="n">
-        <v>67089.70607324639</v>
+        <v>42977.64727444131</v>
       </c>
       <c r="F443" t="n">
-        <v>73008.63780615148</v>
+        <v>75906.59710756892</v>
       </c>
       <c r="G443" t="n">
-        <v>77598.62193787843</v>
+        <v>123643.700301567</v>
       </c>
       <c r="H443" t="n">
-        <v>263488.3789329848</v>
+        <v>399902.0149493192</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>160055.4600118599</v>
+        <v>146162.1021205052</v>
       </c>
       <c r="C444" t="n">
-        <v>73065.77696891612</v>
+        <v>75772.64420018629</v>
       </c>
       <c r="D444" t="n">
-        <v>59468.88097584146</v>
+        <v>52165.97568650607</v>
       </c>
       <c r="E444" t="n">
-        <v>66961.89319413353</v>
+        <v>42895.77037920427</v>
       </c>
       <c r="F444" t="n">
-        <v>72957.83303885604</v>
+        <v>75853.77572754977</v>
       </c>
       <c r="G444" t="n">
-        <v>77584.08685800602</v>
+        <v>123620.5404694112</v>
       </c>
       <c r="H444" t="n">
-        <v>272619.5310726957</v>
+        <v>413760.5621621659</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>157470.5690349346</v>
+        <v>143801.5884653525</v>
       </c>
       <c r="C445" t="n">
-        <v>72506.34184086866</v>
+        <v>75192.48368360601</v>
       </c>
       <c r="D445" t="n">
-        <v>59214.24113421325</v>
+        <v>51942.60615997018</v>
       </c>
       <c r="E445" t="n">
-        <v>66821.58271544217</v>
+        <v>42805.88752511155</v>
       </c>
       <c r="F445" t="n">
-        <v>72900.6595749275</v>
+        <v>75794.33285582834</v>
       </c>
       <c r="G445" t="n">
-        <v>77567.28198620197</v>
+        <v>123593.7640076512</v>
       </c>
       <c r="H445" t="n">
-        <v>281800.6560537585</v>
+        <v>427694.9542378117</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>154864.2406519314</v>
+        <v>141421.4982438265</v>
       </c>
       <c r="C446" t="n">
-        <v>71919.56103617072</v>
+        <v>74583.96441531998</v>
       </c>
       <c r="D446" t="n">
-        <v>58941.21070364318</v>
+        <v>51703.10444799783</v>
       </c>
       <c r="E446" t="n">
-        <v>66667.85366138756</v>
+        <v>42707.40873532853</v>
       </c>
       <c r="F446" t="n">
-        <v>72836.45658205863</v>
+        <v>75727.58142943225</v>
       </c>
       <c r="G446" t="n">
-        <v>77547.89737047526</v>
+        <v>123562.8770465491</v>
       </c>
       <c r="H446" t="n">
-        <v>291033.1318534068</v>
+        <v>441707.2825621255</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>152237.6789107977</v>
+        <v>139022.9309884205</v>
       </c>
       <c r="C447" t="n">
-        <v>71304.9855938192</v>
+        <v>73946.62080167052</v>
       </c>
       <c r="D447" t="n">
-        <v>58648.97308794007</v>
+        <v>51446.75423414995</v>
       </c>
       <c r="E447" t="n">
-        <v>66499.75212718949</v>
+        <v>42599.72293871509</v>
       </c>
       <c r="F447" t="n">
-        <v>72764.51394343775</v>
+        <v>75652.78314461626</v>
       </c>
       <c r="G447" t="n">
-        <v>77525.58821591065</v>
+        <v>123527.3301985242</v>
       </c>
       <c r="H447" t="n">
-        <v>300318.3534426548</v>
+        <v>455799.6643128043</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>149592.1565248018</v>
+        <v>136607.0489365656</v>
       </c>
       <c r="C448" t="n">
-        <v>70662.22859856766</v>
+        <v>73280.05159336532</v>
       </c>
       <c r="D448" t="n">
-        <v>58336.72408593315</v>
+        <v>51172.85007487299</v>
       </c>
       <c r="E448" t="n">
-        <v>66316.29407065272</v>
+        <v>42482.19975811146</v>
       </c>
       <c r="F448" t="n">
-        <v>72684.0711094608</v>
+        <v>75569.14726299507</v>
       </c>
       <c r="G448" t="n">
-        <v>77499.97213636283</v>
+        <v>123486.5141790715</v>
       </c>
       <c r="H448" t="n">
-        <v>309657.7247548815</v>
+        <v>469974.2302699211</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>146929.0135392369</v>
+        <v>134175.0758130696</v>
       </c>
       <c r="C449" t="n">
-        <v>69990.96993520927</v>
+        <v>72583.92481589211</v>
       </c>
       <c r="D449" t="n">
-        <v>58003.67717867441</v>
+        <v>50880.70203742156</v>
       </c>
       <c r="E449" t="n">
-        <v>66116.46861756721</v>
+        <v>42354.19162777641</v>
       </c>
       <c r="F449" t="n">
-        <v>72594.31627226679</v>
+        <v>75475.82975331314</v>
       </c>
       <c r="G449" t="n">
-        <v>77470.62636314686</v>
+        <v>123439.7553591593</v>
       </c>
       <c r="H449" t="n">
-        <v>319052.6499918127</v>
+        <v>484233.1116208232</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>144249.6556862708</v>
+        <v>131728.2953277703</v>
       </c>
       <c r="C450" t="n">
-        <v>69290.96086696644</v>
+        <v>71857.982517524</v>
       </c>
       <c r="D450" t="n">
-        <v>57649.06905515591</v>
+        <v>50569.64054700578</v>
       </c>
       <c r="E450" t="n">
-        <v>65899.24189485919</v>
+        <v>42215.036248903</v>
       </c>
       <c r="F450" t="n">
-        <v>72494.38591143224</v>
+        <v>75371.93281910621</v>
       </c>
       <c r="G450" t="n">
-        <v>77437.08493888049</v>
+        <v>123386.311293967</v>
       </c>
       <c r="H450" t="n">
-        <v>328504.5242548698</v>
+        <v>498578.4257411302</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>141555.5524258974</v>
+        <v>129268.0493865403</v>
       </c>
       <c r="C451" t="n">
-        <v>68562.02839478031</v>
+        <v>71102.04529010739</v>
       </c>
       <c r="D451" t="n">
-        <v>57272.16534238805</v>
+        <v>50239.02141320385</v>
       </c>
       <c r="E451" t="n">
-        <v>65663.56140015919</v>
+        <v>42064.05938876257</v>
       </c>
       <c r="F451" t="n">
-        <v>72383.36475983766</v>
+        <v>75256.50486321305</v>
       </c>
       <c r="G451" t="n">
-        <v>77398.83592905341</v>
+        <v>123325.3662798703</v>
       </c>
       <c r="H451" t="n">
-        <v>338014.7234933979</v>
+        <v>513012.2609389403</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>138848.2346729076</v>
+        <v>126795.7360155636</v>
       </c>
       <c r="C452" t="n">
-        <v>67804.07935423027</v>
+        <v>70316.0165177602</v>
       </c>
       <c r="D452" t="n">
-        <v>56872.26650110578</v>
+        <v>49888.23100166293</v>
       </c>
       <c r="E452" t="n">
-        <v>65408.36091057651</v>
+        <v>41900.57802526435</v>
       </c>
       <c r="F452" t="n">
-        <v>72260.28623869245</v>
+        <v>75128.5409400678</v>
       </c>
       <c r="G452" t="n">
-        <v>77355.31868840888</v>
+        <v>123256.0269987615</v>
       </c>
       <c r="H452" t="n">
-        <v>347584.5937653306</v>
+        <v>527536.6601555102</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>18251.25748635034</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>18272.59060420466</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>18294.23026229852</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>18316.18083566003</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>18338.446760934</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>18361.03253722774</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>18383.94272696778</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>18407.18195676769</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>18430.75491830739</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>18454.66636922379</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>18478.92113401291</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>18503.52410494404</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>18528.48024298535</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>18553.79457874183</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>18579.47221340516</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>18605.5183197159</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>18631.93814293826</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>18658.73700184712</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>18685.92028972814</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>18713.49347539039</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>18741.46210419227</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>18769.83179908038</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>18798.60826164187</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>18827.79727317015</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>18857.4046957443</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>18887.43647332226</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>18917.89863284793</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>18948.79728537241</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>18980.1386271895</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>19011.92894098565</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>19044.17459700452</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>19076.8820542263</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>19110.05786156198</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>19143.7086590627</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>19177.8411791445</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>19212.46224782843</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>19247.57878599632</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>19283.19781066243</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>19319.32643626114</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>19355.97187595073</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>19393.14144293353</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>19430.84255179283</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>19469.08271984639</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>19507.86956851701</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>19547.21082472006</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>19587.11432226868</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>19627.58800329629</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>19668.63991969699</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>19710.27823458386</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>19752.51122376547</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>19795.34727724087</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>19838.79490071305</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>19882.86271712133</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>19927.55946819275</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>19972.89401601294</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>20018.8753446161</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>20065.51256159513</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>20112.81489973167</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>20160.79171864607</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>20209.45250646826</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>20258.80688152913</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>20308.86459407278</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>20359.63552799025</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>20411.12970257462</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>20463.35727429789</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>20516.32853860996</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>20570.05393175978</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>20624.54403263935</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>20679.8095646505</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>20735.86139759462</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>20792.71054958649</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>20850.36818899123</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>20908.84563638589</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>20968.15436654515</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>21028.30601045206</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>21089.31235733361</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>21151.18535672206</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>21213.93712054177</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>21277.57992522255</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>21342.12621383915</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>21407.58859827802</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>21473.97986143119</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>21541.31295941804</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>21609.60102383485</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>21678.85736403338</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>21749.09546942797</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>21820.32901183246</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>21892.57184782667</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>21965.83802115345</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>22040.14176514651</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>22115.49750518953</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>22191.91986120728</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>22269.42365018895</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>22348.02388874463</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>22427.73579569498</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>22508.57479469539</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>22590.55651689441</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>22673.69680362779</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>22758.0117091484</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>22843.51750339256</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>22930.23067478396</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>23018.16793307542</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>23107.34621222926</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>23197.78267333751</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>23289.49470758193</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>23382.49993923562</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>23476.81622870609</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>23572.46167562137</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>23669.45462195976</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>23767.81365522416</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>23867.55761166222</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>23968.70557953259</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>24071.27690241935</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>24175.29118259479</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>24280.76828443214</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>24387.72833786938</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>24496.19174192506</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>24606.17916826769</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>24717.71156483984</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>24830.81015953833</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>24945.4964639519</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>25061.79227715786</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>25179.71968957914</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>25299.30108690333</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>25420.5591540655</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>25543.51687929617</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>25668.19755823653</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>25794.62479812248</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>25922.8225220395</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>26052.8149732504</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>26184.62671959764</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>26318.28265798301</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>26453.80801892607</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>26591.22837120442</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>26730.56962657754</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>26871.85804459704</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>27015.1202375061</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>27160.38317523006</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>27307.67419046179</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>27457.02098384409</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>27608.45162925251</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>27761.9945791816</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>27917.6786702377</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>28075.53312874192</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>28235.58757644651</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>28397.87203636862</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>28562.41693874482</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>28729.25312711067</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>28898.41186450918</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>29069.92483983257</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>29243.82417430152</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>29420.14242808677</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>29598.91260707751</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>29780.16816980176</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>29963.9430345035</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>30150.2715863823</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>30339.18868500055</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>30530.72967186419</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>30724.93037818289</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>30921.82713281578</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>31121.45677040871</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>31323.8566397307</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>31529.06461221504</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>31737.11909071314</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>31948.05901846817</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>32161.92388831588</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>32378.75375212089</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>32598.58923045625</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>32821.47152253497</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>33047.4424164021</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>33276.54429939654</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>33508.82016889178</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>33744.31364332559</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>33983.06897352822</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>34225.13105435975</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>34470.54543666745</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>34719.35833957366</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>34971.61666310639</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>35227.36800118361</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>35486.66065496414</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>35749.54364657711</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>36016.06673324372</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>36286.28042180353</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>36560.23598366039</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>36837.98547016129</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>37119.58172842311</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>37405.07841762249</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>37694.530025764</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>37987.99188694303</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>38285.52019911954</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>38587.17204241964</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>38893.00539798252</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>39203.07916737045</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>39517.45319256045</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>39836.18827653588</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>40159.34620449795</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>40486.98976571684</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>40819.182776042</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>41155.99010109359</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>41497.47768015532</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>41843.71255079129</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>42194.76287420823</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>42550.69796138673</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>42911.58830000424</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>43277.50558217351</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>43648.52273302099</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>44024.71394012911</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>44406.15468386855</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>44792.92176864474</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>45185.09335508568</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>45582.74899319631</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>45985.96965650699</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>46394.83777724216</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>46809.43728253753</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>47229.8536317324</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>47656.17385476566</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>48088.48659170315</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>48526.88213342514</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>48971.45246350121</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>49422.29130128278</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>49879.49414623986</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>50343.15832357207</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>50813.38303112146</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>51290.26938761584</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>51773.92048226998</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>52264.44142577378</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>52761.93940269344</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>53266.52372531297</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>53778.30588894281</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>54297.39962872084</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>54823.92097793102</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>55357.98832786264</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>55899.72248923552</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>56449.24675520996</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>57006.68696600499</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>57572.17157514229</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>58145.83171733348</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>58727.80127802796</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>59318.21696463358</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>59917.21837942298</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>60524.94809413465</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>61141.5517262764</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>61767.17801713425</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>62401.97891148942</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>63046.10963904066</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>63699.72879752686</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>64362.99843754107</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>65036.08414902263</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>65719.15514941029</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>66412.38437343427</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>67115.94856452094</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>67830.02836777757</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>68554.80842452019</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>69290.47746830064</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>70037.22842238357</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>70795.25849861681</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>71564.76929763229</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>72345.96691030482</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>73139.06202039395</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>73944.27000827687</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>74761.81105568154</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>75591.91025131223</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>76434.79769725339</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>77290.70861602934</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>78159.88345818142</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>79042.56801021936</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>79939.01350278778</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>80849.47671887786</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>81774.22010190217</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>82713.51186343758</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>83667.62609042668</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>84636.84285161491</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>85621.44830298588</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>86621.73479194136</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>87638.00095995916</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>88670.55184344293</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>89719.69897246416</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>90785.76046707766</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>91869.06113087627</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>92969.93254143086</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>94088.71313724495</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>95225.74830083457</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>96381.39043752353</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>97555.99904952812</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>98749.94080488327</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>99963.58960074408</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>101197.3266205762</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>102451.5403847303</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>103726.6267938748</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105022.9891647419</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106341.038257623</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>107681.1922950294</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>109043.8769709181</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>110429.5254498605</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111838.5783555157</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>113271.4837477559</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>114728.6970877698</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>116210.6811904581</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>117717.9061634218</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>119250.8493318276</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>120809.9951484255</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>122395.8350879837</v>
+        <v>1952.789333408346</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>124008.8675253973</v>
+        <v>3936.550948613783</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>125649.5975967179</v>
+        <v>5951.819019872233</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>127318.5370423538</v>
+        <v>7999.134737616318</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>129016.2040316794</v>
+        <v>10079.04615512657</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>130743.1229682997</v>
+        <v>12192.10801445265</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>132499.8242752154</v>
+        <v>14338.88155074148</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>134286.8441591418</v>
+        <v>16519.93427413138</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>136104.7243532385</v>
+        <v>18735.83972837708</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>137954.0118375273</v>
+        <v>20987.17722538473</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>139835.258536283</v>
+        <v>23274.53155484689</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>141749.0209917043</v>
+        <v>25598.49266818396</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>143695.8600131978</v>
+        <v>27959.65533602314</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>145676.3403016263</v>
+        <v>30358.61877846942</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>147691.0300479151</v>
+        <v>32795.98626745228</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>149740.5005054359</v>
+        <v>35272.36470046929</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>151825.3255356328</v>
+        <v>37788.36414508281</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>153946.0811263983</v>
+        <v>40344.59735357259</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>156103.3448827596</v>
+        <v>42941.67924719788</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>158297.6954894828</v>
+        <v>45580.2263695719</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>160529.7121452742</v>
+        <v>48260.85630871758</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>162799.9739683101</v>
+        <v>50984.18708743298</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>165109.0593729091</v>
+        <v>53750.83652167213</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>167457.5454172255</v>
+        <v>56561.42154671764</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>169846.0071219341</v>
+        <v>59416.55751100808</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>172275.0167599559</v>
+        <v>62316.85743757067</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>174745.1431173687</v>
+        <v>65262.93125310268</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>177256.950725744</v>
+        <v>68255.38498484595</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>179810.9990662582</v>
+        <v>71294.81992550446</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>182407.8417460222</v>
+        <v>74381.83176656619</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>185048.025647201</v>
+        <v>77517.00970050532</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>187732.0900496005</v>
+        <v>80700.93549246513</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>190460.5657275254</v>
+        <v>83934.18252214606</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>193233.9740218361</v>
+        <v>87217.3147967562</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>196052.825888263</v>
+        <v>90550.88593601692</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>198917.6209231679</v>
+        <v>93935.43813035452</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>201828.8463680769</v>
+        <v>97371.50107355113</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>204786.9760944485</v>
+        <v>100859.5908712779</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>207792.4695702795</v>
+        <v>104400.2089270763</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>210845.7708102897</v>
+        <v>107993.8408075042</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>213947.3073115686</v>
+        <v>111640.9550883192</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>217097.4889767097</v>
+        <v>115342.0021837146</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>220296.7070265922</v>
+        <v>119097.4131607829</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>223545.3329051127</v>
+        <v>122907.5985415226</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>226843.7171783016</v>
+        <v>126772.9470948618</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>230192.1884303898</v>
+        <v>130693.8246213045</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>233591.0521595204</v>
+        <v>134670.5727329602</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>237040.5896759185</v>
+        <v>138703.5076318388</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>240541.0570054491</v>
+        <v>142792.9188894376</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>244092.6838016004</v>
+        <v>146939.0682307571</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>247695.6722690294</v>
+        <v>151142.1883260096</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>251350.1961018941</v>
+        <v>155402.4815933823</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>255056.3994402817</v>
+        <v>159720.1190163205</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>258814.3958481052</v>
+        <v>164095.238978878</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>262624.2673159001</v>
+        <v>168527.9461227604</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>261962.4492921352</v>
+        <v>168494.6962298819</v>
       </c>
       <c r="C358" t="n">
         <v>5137.119742678181</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>261292.5502504816</v>
+        <v>168459.1156381147</v>
       </c>
       <c r="C359" t="n">
         <v>10342.40127123642</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>260614.4105211702</v>
+        <v>168421.0599186048</v>
       </c>
       <c r="C360" t="n">
         <v>15616.00500178217</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>259927.8656741792</v>
+        <v>168380.3771026659</v>
       </c>
       <c r="C361" t="n">
         <v>20958.05673314346</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>259232.7463827051</v>
+        <v>168336.9073869899</v>
       </c>
       <c r="C362" t="n">
         <v>26368.64687046995</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>258528.8782836451</v>
+        <v>168290.4828342076</v>
       </c>
       <c r="C363" t="n">
         <v>31847.82970433902</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>257816.0818352639</v>
+        <v>168240.9270692961</v>
       </c>
       <c r="C364" t="n">
         <v>37395.62274906331</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>257094.1721722564</v>
+        <v>168188.0549723882</v>
       </c>
       <c r="C365" t="n">
         <v>43012.00614375887</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>256362.9589584697</v>
+        <v>168131.6723686079</v>
       </c>
       <c r="C366" t="n">
         <v>48696.92211958724</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>255622.2462375964</v>
+        <v>168071.575715622</v>
       </c>
       <c r="C367" t="n">
         <v>54450.27453641385</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>254871.8322822107</v>
+        <v>168007.5517896779</v>
       </c>
       <c r="C368" t="n">
         <v>60271.92849191</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>254111.5094415801</v>
+        <v>167939.3773709716</v>
       </c>
       <c r="C369" t="n">
         <v>66161.71000591213</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>253341.0639887507</v>
+        <v>167866.818929278</v>
       </c>
       <c r="C370" t="n">
         <v>72119.40578258388</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>252560.2759674846</v>
+        <v>167789.6323108604</v>
       </c>
       <c r="C371" t="n">
         <v>78144.76305265442</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>251768.9190396946</v>
+        <v>167707.5624277726</v>
       </c>
       <c r="C372" t="n">
         <v>84237.48949769918</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>250966.760334119</v>
+        <v>167620.3429507629</v>
       </c>
       <c r="C373" t="n">
         <v>84237.00533920672</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>250153.5602970575</v>
+        <v>167527.6960070929</v>
       </c>
       <c r="C374" t="n">
         <v>84236.44510232229</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>249329.0725460954</v>
+        <v>167429.3318846911</v>
       </c>
       <c r="C375" t="n">
         <v>84235.79767043235</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>248493.0437278339</v>
+        <v>167324.9487441715</v>
       </c>
       <c r="C376" t="n">
         <v>84235.05044076257</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>247645.2133807622</v>
+        <v>167214.2323403655</v>
       </c>
       <c r="C377" t="n">
         <v>84234.18914734124</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>246785.3138045101</v>
+        <v>167096.8557551329</v>
       </c>
       <c r="C378" t="n">
         <v>84233.19766608722</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>245913.0699368441</v>
+        <v>166972.4791433416</v>
       </c>
       <c r="C379" t="n">
         <v>84232.05780067135</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>245028.1992398846</v>
+        <v>166840.7494940296</v>
       </c>
       <c r="C380" t="n">
         <v>84230.74904776107</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>244130.411597156</v>
+        <v>166701.3004088952</v>
       </c>
       <c r="C381" t="n">
         <v>84229.2483402283</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>243219.4092232023</v>
+        <v>166553.7519003858</v>
       </c>
       <c r="C382" t="n">
         <v>84227.52976687819</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>242294.8865876397</v>
+        <v>166397.7102117907</v>
       </c>
       <c r="C383" t="n">
         <v>84225.5642672508</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>241356.5303556501</v>
+        <v>166232.7676618716</v>
       </c>
       <c r="C384" t="n">
         <v>84223.31930005029</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>240404.0193470495</v>
+        <v>166058.5025166958</v>
       </c>
       <c r="C385" t="n">
         <v>84220.75848378139</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>239437.024516211</v>
+        <v>165874.4788914628</v>
       </c>
       <c r="C386" t="n">
         <v>84217.84120821017</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>238455.2089552442</v>
+        <v>165680.2466852426</v>
       </c>
       <c r="C387" t="n">
         <v>84214.5222153302</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>237458.2279229744</v>
+        <v>165475.3415516577</v>
       </c>
       <c r="C388" t="n">
         <v>84210.7511485968</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>236445.7289023848</v>
+        <v>165259.2849086622</v>
       </c>
       <c r="C389" t="n">
         <v>84206.47206930345</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>235417.3516893115</v>
+        <v>165031.5839906667</v>
       </c>
       <c r="C390" t="n">
         <v>84201.62293911105</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>234372.728515292</v>
+        <v>164791.7319463637</v>
       </c>
       <c r="C391" t="n">
         <v>84196.13506790907</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>233311.484207575</v>
+        <v>164539.2079856828</v>
       </c>
       <c r="C392" t="n">
         <v>84189.93252638694</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>232233.2363893931</v>
+        <v>164273.4775793824</v>
       </c>
       <c r="C393" t="n">
         <v>84182.93152293119</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>231137.5957236766</v>
+        <v>163993.9927148356</v>
       </c>
       <c r="C394" t="n">
         <v>84175.03974473318</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>230024.1662034564</v>
+        <v>163700.1922116069</v>
       </c>
       <c r="C395" t="n">
         <v>84166.1556633052</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>228892.5454922487</v>
+        <v>163391.5021004321</v>
       </c>
       <c r="C396" t="n">
         <v>84156.16780495172</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>227742.3253177372</v>
+        <v>163067.3360692103</v>
       </c>
       <c r="C397" t="n">
         <v>84144.95398713576</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>226573.09192208</v>
+        <v>162727.0959795844</v>
       </c>
       <c r="C398" t="n">
         <v>84132.38052211388</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>225384.426572138</v>
+        <v>162370.1724576329</v>
       </c>
       <c r="C399" t="n">
         <v>84118.30138969017</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>224175.9061328827</v>
+        <v>161995.9455621057</v>
       </c>
       <c r="C400" t="n">
         <v>84102.55738145867</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>222947.1037071537</v>
+        <v>161603.785533523</v>
       </c>
       <c r="C401" t="n">
         <v>84084.97521946364</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>221697.5893448319</v>
+        <v>161193.0536273002</v>
       </c>
       <c r="C402" t="n">
         <v>84065.36665280716</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>220426.9308243457</v>
+        <v>160763.1030338786</v>
       </c>
       <c r="C403" t="n">
         <v>84043.527536372</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>219134.6945092475</v>
+        <v>160313.2798886114</v>
       </c>
       <c r="C404" t="n">
         <v>84019.23689649845</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>217820.4462823763</v>
+        <v>159842.9243738934</v>
       </c>
       <c r="C405" t="n">
         <v>83992.25598915854</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>216483.752559863</v>
+        <v>159351.3719157148</v>
       </c>
       <c r="C406" t="n">
         <v>83962.32735689798</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>215124.1813869306</v>
+        <v>158837.9544764677</v>
       </c>
       <c r="C407" t="n">
         <v>83929.17389156519</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>213741.3036170995</v>
+        <v>158302.0019454468</v>
       </c>
       <c r="C408" t="n">
         <v>83892.49791060915</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>212334.6941760173</v>
+        <v>157742.8436280431</v>
       </c>
       <c r="C409" t="n">
         <v>83851.98025549318</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>210903.9334106979</v>
+        <v>157159.8098341517</v>
       </c>
       <c r="C410" t="n">
         <v>83807.27942153688</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>209448.608524482</v>
+        <v>156552.2335657879</v>
       </c>
       <c r="C411" t="n">
         <v>83758.03072924809</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>207968.315097505</v>
+        <v>155919.4523033344</v>
       </c>
       <c r="C412" t="n">
         <v>83703.84554793299</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>206462.6586918973</v>
+        <v>155260.8098892341</v>
       </c>
       <c r="C413" t="n">
         <v>83644.3105830647</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>204931.2565403338</v>
+        <v>154575.658507283</v>
       </c>
       <c r="C414" t="n">
         <v>83578.98723953296</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>203373.7393159062</v>
+        <v>153863.3607549933</v>
       </c>
       <c r="C415" t="n">
         <v>83507.41107348037</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>201789.752980607</v>
+        <v>153123.2918057601</v>
       </c>
       <c r="C416" t="n">
         <v>83429.09134593932</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>200178.9607089981</v>
+        <v>152354.8416568105</v>
       </c>
       <c r="C417" t="n">
         <v>83343.51069190139</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>198541.0448828904</v>
+        <v>151557.417458117</v>
       </c>
       <c r="C418" t="n">
         <v>83250.12491876919</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>196875.7091520881</v>
+        <v>150730.4459166483</v>
       </c>
       <c r="C419" t="n">
         <v>83148.36294833804</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>195182.6805554538</v>
+        <v>149873.3757694927</v>
       </c>
       <c r="C420" t="n">
         <v>83037.62691652263</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>193461.7116957496</v>
+        <v>148985.6803185426</v>
       </c>
       <c r="C421" t="n">
         <v>82917.29244496537</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>191712.5829608798</v>
+        <v>148066.8600185754</v>
       </c>
       <c r="C422" t="n">
         <v>82786.7090984251</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>189935.1047833504</v>
+        <v>147116.4451097105</v>
       </c>
       <c r="C423" t="n">
         <v>82645.20104143671</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>188129.1199289344</v>
+        <v>146133.9982843742</v>
       </c>
       <c r="C424" t="n">
         <v>82492.06790714082</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>186294.5058047373</v>
+        <v>145119.1173780735</v>
       </c>
       <c r="C425" t="n">
         <v>82326.58589039868</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>184431.1767760665</v>
+        <v>144071.4380724704</v>
       </c>
       <c r="C426" t="n">
         <v>82148.00907632476</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>182539.0864807568</v>
+        <v>142990.6365984699</v>
       </c>
       <c r="C427" t="n">
         <v>81955.57101417858</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>180618.2301288878</v>
+        <v>141876.4324263028</v>
       </c>
       <c r="C428" t="n">
         <v>81748.48654515899</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>178668.646775159</v>
+        <v>140728.590928895</v>
       </c>
       <c r="C429" t="n">
         <v>81525.9538910323</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>176690.4215505725</v>
+        <v>139546.9260041906</v>
       </c>
       <c r="C430" t="n">
         <v>81287.15700870847</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>174683.687839528</v>
+        <v>138331.3026415377</v>
       </c>
       <c r="C431" t="n">
         <v>81031.26821385427</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>172648.6293879544</v>
+        <v>137081.6394167654</v>
       </c>
       <c r="C432" t="n">
         <v>80757.45107441377</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>170585.4823277154</v>
+        <v>135797.910900186</v>
       </c>
       <c r="C433" t="n">
         <v>80464.86357250344</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>168494.5371022214</v>
+        <v>134480.1499614579</v>
       </c>
       <c r="C434" t="n">
         <v>80152.661530574</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>166376.1402779787</v>
+        <v>133128.4499550469</v>
       </c>
       <c r="C435" t="n">
         <v>79820.00229500835</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>164230.6962267134</v>
+        <v>131742.9667699408</v>
       </c>
       <c r="C436" t="n">
         <v>79466.04866746961</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>162058.6686627238</v>
+        <v>130323.920727299</v>
       </c>
       <c r="C437" t="n">
         <v>79089.97307135744</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>159860.5820202525</v>
+        <v>128871.598309877</v>
       </c>
       <c r="C438" t="n">
         <v>78690.96193769721</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>157637.0226559335</v>
+        <v>127386.3537073478</v>
       </c>
       <c r="C439" t="n">
         <v>78268.22029171212</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>155388.6398617586</v>
+        <v>125868.6101620535</v>
       </c>
       <c r="C440" t="n">
         <v>77820.97651824472</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>153116.1466745297</v>
+        <v>124318.8611002759</v>
       </c>
       <c r="C441" t="n">
         <v>77348.48728113927</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>150820.3204684222</v>
+        <v>122737.6710347976</v>
       </c>
       <c r="C442" t="n">
         <v>76850.04256871084</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>148502.0033180694</v>
+        <v>121125.676225349</v>
       </c>
       <c r="C443" t="n">
         <v>76324.97083454988</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>146162.1021205052</v>
+        <v>119483.5850844984</v>
       </c>
       <c r="C444" t="n">
         <v>75772.64420018629</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>143801.5884653525</v>
+        <v>117812.1783176352</v>
       </c>
       <c r="C445" t="n">
         <v>75192.48368360601</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>141421.4982438265</v>
+        <v>116112.3087869168</v>
       </c>
       <c r="C446" t="n">
         <v>74583.96441531998</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>139022.9309884205</v>
+        <v>114384.9010904016</v>
       </c>
       <c r="C447" t="n">
         <v>73946.62080167052</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>136607.0489365656</v>
+        <v>112630.9508490517</v>
       </c>
       <c r="C448" t="n">
         <v>73280.05159336532</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>134175.0758130696</v>
+        <v>110851.5236958649</v>
       </c>
       <c r="C449" t="n">
         <v>72583.92481589211</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>131728.2953277703</v>
+        <v>109047.7539630682</v>
       </c>
       <c r="C450" t="n">
         <v>71857.982517524</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>129268.0493865403</v>
+        <v>107220.8430650662</v>
       </c>
       <c r="C451" t="n">
         <v>71102.04529010739</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>126795.7360155636</v>
+        <v>105372.0575766785</v>
       </c>
       <c r="C452" t="n">
         <v>70316.0165177602</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -10921,7 +10921,7 @@
         <v>76275.28368667305</v>
       </c>
       <c r="G403" t="n">
-        <v>12089.7657460393</v>
+        <v>13540.53763556403</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>76275.20170832583</v>
       </c>
       <c r="G404" t="n">
-        <v>24246.80420980159</v>
+        <v>27156.42071497781</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>76275.10128240261</v>
       </c>
       <c r="G405" t="n">
-        <v>36469.81408493903</v>
+        <v>40846.19177513176</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>76274.97851648752</v>
       </c>
       <c r="G406" t="n">
-        <v>48757.52866027598</v>
+        <v>54608.43209950915</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>76274.82875685005</v>
       </c>
       <c r="G407" t="n">
-        <v>61108.72037881812</v>
+        <v>68441.76682427636</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>76274.64645274119</v>
       </c>
       <c r="G408" t="n">
-        <v>73522.20539102684</v>
+        <v>82344.87003795014</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>76274.42499924962</v>
       </c>
       <c r="G409" t="n">
-        <v>85996.84808859508</v>
+        <v>96316.46985922658</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>76274.15655587132</v>
       </c>
       <c r="G410" t="n">
-        <v>98531.56560430898</v>
+        <v>110355.3534768262</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11129,7 +11129,7 @@
         <v>76273.83183766856</v>
       </c>
       <c r="G411" t="n">
-        <v>111125.3322629917</v>
+        <v>124460.3721345508</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>76273.43987560899</v>
       </c>
       <c r="G412" t="n">
-        <v>123777.1839677841</v>
+        <v>138630.4460439184</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11181,10 +11181,10 @@
         <v>76272.96774238511</v>
       </c>
       <c r="G413" t="n">
-        <v>123777.1010370028</v>
+        <v>138630.3531614433</v>
       </c>
       <c r="H413" t="n">
-        <v>12105.69345435466</v>
+        <v>13558.37666887723</v>
       </c>
     </row>
     <row r="414">
@@ -11207,10 +11207,10 @@
         <v>76272.4002397226</v>
       </c>
       <c r="G414" t="n">
-        <v>123776.9981227244</v>
+        <v>138630.2378974515</v>
       </c>
       <c r="H414" t="n">
-        <v>24265.08874628396</v>
+        <v>27176.89939583806</v>
       </c>
     </row>
     <row r="415">
@@ -11233,10 +11233,10 @@
         <v>76271.71954290112</v>
       </c>
       <c r="G415" t="n">
-        <v>123776.8706999136</v>
+        <v>138630.0951839034</v>
       </c>
       <c r="H415" t="n">
-        <v>36477.47204061192</v>
+        <v>40854.76868548539</v>
       </c>
     </row>
     <row r="416">
@@ -11259,10 +11259,10 @@
         <v>76270.90479793472</v>
       </c>
       <c r="G416" t="n">
-        <v>123776.7132906774</v>
+        <v>138629.9188855589</v>
       </c>
       <c r="H416" t="n">
-        <v>48742.2048352541</v>
+        <v>54591.26941548465</v>
       </c>
     </row>
     <row r="417">
@@ -11285,10 +11285,10 @@
         <v>76269.93166660443</v>
       </c>
       <c r="G417" t="n">
-        <v>123776.5192804913</v>
+        <v>138629.7015941503</v>
       </c>
       <c r="H417" t="n">
-        <v>61058.72775502451</v>
+        <v>68385.77508562751</v>
       </c>
     </row>
     <row r="418">
@@ -11311,10 +11311,10 @@
         <v>76268.77181430596</v>
       </c>
       <c r="G418" t="n">
-        <v>123776.2807027365</v>
+        <v>138629.4343870651</v>
       </c>
       <c r="H418" t="n">
-        <v>73426.56420726876</v>
+        <v>82237.7519121411</v>
       </c>
     </row>
     <row r="419">
@@ -11337,10 +11337,10 @@
         <v>76267.39233548469</v>
       </c>
       <c r="G419" t="n">
-        <v>123775.987986876</v>
+        <v>138629.1065453013</v>
       </c>
       <c r="H419" t="n">
-        <v>85845.32388254383</v>
+        <v>96146.76274844921</v>
       </c>
     </row>
     <row r="420">
@@ -11363,10 +11363,10 @@
         <v>76265.75511128696</v>
       </c>
       <c r="G420" t="n">
-        <v>123775.6296650588</v>
+        <v>138628.705224866</v>
       </c>
       <c r="H420" t="n">
-        <v>98314.70608288521</v>
+        <v>110112.4708128315</v>
       </c>
     </row>
     <row r="421">
@@ -11389,10 +11389,10 @@
         <v>76263.81609397432</v>
       </c>
       <c r="G421" t="n">
-        <v>123775.1920313862</v>
+        <v>138628.2150751527</v>
       </c>
       <c r="H421" t="n">
-        <v>110834.5028594909</v>
+        <v>124134.64320263</v>
       </c>
     </row>
     <row r="422">
@@ -11415,10 +11415,10 @@
         <v>76261.52451263864</v>
       </c>
       <c r="G422" t="n">
-        <v>123774.6587474786</v>
+        <v>138627.6177971762</v>
       </c>
       <c r="H422" t="n">
-        <v>123404.6019408697</v>
+        <v>138213.1541737743</v>
       </c>
     </row>
     <row r="423">
@@ -11441,10 +11441,10 @@
         <v>76258.82199483519</v>
       </c>
       <c r="G423" t="n">
-        <v>123774.0103873771</v>
+        <v>138626.8916338625</v>
       </c>
       <c r="H423" t="n">
-        <v>136024.9894317101</v>
+        <v>152347.9881635155</v>
       </c>
     </row>
     <row r="424">
@@ -11467,10 +11467,10 @@
         <v>76255.64159893335</v>
       </c>
       <c r="G424" t="n">
-        <v>123773.2239141906</v>
+        <v>138626.0107838936</v>
       </c>
       <c r="H424" t="n">
-        <v>148695.7522618269</v>
+        <v>166539.2425332463</v>
       </c>
     </row>
     <row r="425">
@@ -11493,10 +11493,10 @@
         <v>76251.90675228614</v>
       </c>
       <c r="G425" t="n">
-        <v>123772.2720802798</v>
+        <v>138624.9447299135</v>
       </c>
       <c r="H425" t="n">
-        <v>161417.0803636679</v>
+        <v>180787.1300073083</v>
       </c>
     </row>
     <row r="426">
@@ -11519,10 +11519,10 @@
         <v>76247.53009075567</v>
       </c>
       <c r="G426" t="n">
-        <v>123771.1227421528</v>
+        <v>138623.6574712113</v>
       </c>
       <c r="H426" t="n">
-        <v>174189.2685558568</v>
+        <v>195091.9807825598</v>
       </c>
     </row>
     <row r="427">
@@ -11545,10 +11545,10 @@
         <v>76242.41219572007</v>
       </c>
       <c r="G427" t="n">
-        <v>123769.7380806663</v>
+        <v>138622.1066503464</v>
       </c>
       <c r="H427" t="n">
-        <v>187012.7181092738</v>
+        <v>209454.2442823869</v>
       </c>
     </row>
     <row r="428">
@@ -11571,10 +11571,10 @@
         <v>76236.44022544286</v>
       </c>
       <c r="G428" t="n">
-        <v>123768.0737165742</v>
+        <v>138620.2425625633</v>
       </c>
       <c r="H428" t="n">
-        <v>199887.9379711187</v>
+        <v>223874.4905276532</v>
       </c>
     </row>
     <row r="429">
@@ -11597,10 +11597,10 @@
         <v>76229.48643862341</v>
       </c>
       <c r="G429" t="n">
-        <v>123766.0777109906</v>
+        <v>138618.0070363096</v>
       </c>
       <c r="H429" t="n">
-        <v>212815.5456213012</v>
+        <v>238353.4110958576</v>
       </c>
     </row>
     <row r="430">
@@ -11623,10 +11623,10 @@
         <v>76221.40660908321</v>
       </c>
       <c r="G430" t="n">
-        <v>123763.6894399292</v>
+        <v>138615.3321727209</v>
       </c>
       <c r="H430" t="n">
-        <v>225796.2675344175</v>
+        <v>252891.8196385478</v>
       </c>
     </row>
     <row r="431">
@@ -11649,10 +11649,10 @@
         <v>76212.03833188755</v>
       </c>
       <c r="G431" t="n">
-        <v>123760.8383318012</v>
+        <v>138612.1389316175</v>
       </c>
       <c r="H431" t="n">
-        <v>238830.9392194256</v>
+        <v>267490.6519257569</v>
       </c>
     </row>
     <row r="432">
@@ -11675,10 +11675,10 @@
         <v>76201.19922276771</v>
       </c>
       <c r="G432" t="n">
-        <v>123757.4424566003</v>
+        <v>138608.3355513925</v>
       </c>
       <c r="H432" t="n">
-        <v>251920.5048079945</v>
+        <v>282150.9653849542</v>
       </c>
     </row>
     <row r="433">
@@ -11701,10 +11701,10 @@
         <v>76188.68501450113</v>
       </c>
       <c r="G433" t="n">
-        <v>123753.4069555289</v>
+        <v>138603.8157901925</v>
       </c>
       <c r="H433" t="n">
-        <v>265066.0161613895</v>
+        <v>296873.9381007565</v>
       </c>
     </row>
     <row r="434">
@@ -11727,10 +11727,10 @@
         <v>76174.26755593141</v>
       </c>
       <c r="G434" t="n">
-        <v>123748.6223000423</v>
+        <v>138598.4569760475</v>
       </c>
       <c r="H434" t="n">
-        <v>278268.6314646288</v>
+        <v>311660.8672403846</v>
       </c>
     </row>
     <row r="435">
@@ -11753,10 +11753,10 @@
         <v>76157.69272156621</v>
       </c>
       <c r="G435" t="n">
-        <v>123742.9623697506</v>
+        <v>138592.1178541208</v>
       </c>
       <c r="H435" t="n">
-        <v>291529.6132756146</v>
+        <v>326513.1668686886</v>
       </c>
     </row>
     <row r="436">
@@ -11779,10 +11779,10 @@
         <v>76138.67824217099</v>
       </c>
       <c r="G436" t="n">
-        <v>123736.2823393542</v>
+        <v>138584.6362200768</v>
       </c>
       <c r="H436" t="n">
-        <v>304850.3259959127</v>
+        <v>341432.3651154226</v>
       </c>
     </row>
     <row r="437">
@@ -11805,10 +11805,10 @@
         <v>76116.9114694749</v>
       </c>
       <c r="G437" t="n">
-        <v>123728.4163658378</v>
+        <v>138575.8263297384</v>
       </c>
       <c r="H437" t="n">
-        <v>318232.2327289992</v>
+        <v>356420.1006564795</v>
       </c>
     </row>
     <row r="438">
@@ -11831,10 +11831,10 @@
         <v>76092.04709099964</v>
       </c>
       <c r="G438" t="n">
-        <v>123719.1750685429</v>
+        <v>138565.4760767682</v>
       </c>
       <c r="H438" t="n">
-        <v>331676.8914909705</v>
+        <v>371478.1184698872</v>
       </c>
     </row>
     <row r="439">
@@ -11857,10 +11857,10 @@
         <v>76063.70481409288</v>
       </c>
       <c r="G439" t="n">
-        <v>123708.3427965215</v>
+        <v>138553.3439321042</v>
       </c>
       <c r="H439" t="n">
-        <v>345185.9507381471</v>
+        <v>386608.264826725</v>
       </c>
     </row>
     <row r="440">
@@ -11883,10 +11883,10 @@
         <v>76031.46704146219</v>
       </c>
       <c r="G440" t="n">
-        <v>123695.6746797706</v>
+        <v>138539.1556413432</v>
       </c>
       <c r="H440" t="n">
-        <v>358761.1441755308</v>
+        <v>401812.4814765948</v>
       </c>
     </row>
     <row r="441">
@@ -11909,10 +11909,10 @@
         <v>75994.87656382643</v>
       </c>
       <c r="G441" t="n">
-        <v>123680.8934636005</v>
+        <v>138522.6006792327</v>
       </c>
       <c r="H441" t="n">
-        <v>372404.2848099365</v>
+        <v>417092.7989871294</v>
       </c>
     </row>
     <row r="442">
@@ -11935,10 +11935,10 @@
         <v>75953.43429868214</v>
       </c>
       <c r="G442" t="n">
-        <v>123663.6861285103</v>
+        <v>138503.3284639317</v>
       </c>
       <c r="H442" t="n">
-        <v>386117.2582117026</v>
+        <v>432451.3291971076</v>
       </c>
     </row>
     <row r="443">
@@ -11961,10 +11961,10 @@
         <v>75906.59710756892</v>
       </c>
       <c r="G443" t="n">
-        <v>123643.700301567</v>
+        <v>138480.9443377552</v>
       </c>
       <c r="H443" t="n">
-        <v>399902.0149493192</v>
+        <v>447890.256743238</v>
       </c>
     </row>
     <row r="444">
@@ -11987,10 +11987,10 @@
         <v>75853.77572754977</v>
       </c>
       <c r="G444" t="n">
-        <v>123620.5404694112</v>
+        <v>138455.0053257407</v>
       </c>
       <c r="H444" t="n">
-        <v>413760.5621621659</v>
+        <v>463411.8296216264</v>
       </c>
     </row>
     <row r="445">
@@ -12013,10 +12013,10 @@
         <v>75794.33285582834</v>
       </c>
       <c r="G445" t="n">
-        <v>123593.7640076512</v>
+        <v>138425.0156885694</v>
       </c>
       <c r="H445" t="n">
-        <v>427694.9542378117</v>
+        <v>479018.3487463495</v>
       </c>
     </row>
     <row r="446">
@@ -12039,10 +12039,10 @@
         <v>75727.58142943225</v>
       </c>
       <c r="G446" t="n">
-        <v>123562.8770465491</v>
+        <v>138390.4222921351</v>
       </c>
       <c r="H446" t="n">
-        <v>441707.2825621255</v>
+        <v>494712.1564695811</v>
       </c>
     </row>
     <row r="447">
@@ -12065,10 +12065,10 @@
         <v>75652.78314461626</v>
       </c>
       <c r="G447" t="n">
-        <v>123527.3301985242</v>
+        <v>138350.6098223472</v>
       </c>
       <c r="H447" t="n">
-        <v>455799.6643128043</v>
+        <v>510495.6240303415</v>
       </c>
     </row>
     <row r="448">
@@ -12091,10 +12091,10 @@
         <v>75569.14726299507</v>
       </c>
       <c r="G448" t="n">
-        <v>123486.5141790715</v>
+        <v>138304.8958805603</v>
       </c>
       <c r="H448" t="n">
-        <v>469974.2302699211</v>
+        <v>526371.1379023121</v>
       </c>
     </row>
     <row r="449">
@@ -12117,10 +12117,10 @@
         <v>75475.82975331314</v>
       </c>
       <c r="G449" t="n">
-        <v>123439.7553591593</v>
+        <v>138252.5260022586</v>
       </c>
       <c r="H449" t="n">
-        <v>484233.1116208232</v>
+        <v>542341.0850153227</v>
       </c>
     </row>
     <row r="450">
@@ -12143,10 +12143,10 @@
         <v>75371.93281910621</v>
       </c>
       <c r="G450" t="n">
-        <v>123386.311293967</v>
+        <v>138192.6686492432</v>
       </c>
       <c r="H450" t="n">
-        <v>498578.4257411302</v>
+        <v>558407.8368300665</v>
       </c>
     </row>
     <row r="451">
@@ -12169,10 +12169,10 @@
         <v>75256.50486321305</v>
       </c>
       <c r="G451" t="n">
-        <v>123325.3662798703</v>
+        <v>138124.4102334549</v>
       </c>
       <c r="H451" t="n">
-        <v>513012.2609389403</v>
+        <v>574573.7322516136</v>
       </c>
     </row>
     <row r="452">
@@ -12195,10 +12195,10 @@
         <v>75128.5409400678</v>
       </c>
       <c r="G452" t="n">
-        <v>123256.0269987615</v>
+        <v>138046.750238613</v>
       </c>
       <c r="H452" t="n">
-        <v>527536.6601555102</v>
+        <v>590841.0593741719</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1952.789333408346</v>
+        <v>1562.231466726676</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3936.550948613783</v>
+        <v>3149.240758891025</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5951.819019872233</v>
+        <v>4761.455215897783</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7999.134737616318</v>
+        <v>6399.307790093049</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>10079.04615512657</v>
+        <v>8063.23692410125</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>12192.10801445265</v>
+        <v>9753.68641156211</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>14338.88155074148</v>
+        <v>11471.10524059318</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>16519.93427413138</v>
+        <v>13215.9474193051</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>18735.83972837708</v>
+        <v>14988.67178270165</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>20987.17722538473</v>
+        <v>16789.74178030777</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>23274.53155484689</v>
+        <v>18619.6252438775</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>25598.49266818396</v>
+        <v>20478.79413454716</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>27959.65533602314</v>
+        <v>22367.7242688185</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>30358.61877846942</v>
+        <v>24286.89502277552</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>32795.98626745228</v>
+        <v>26236.78901396181</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>35272.36470046929</v>
+        <v>28217.89176037541</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>37788.36414508281</v>
+        <v>30230.69131606622</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>40344.59735357259</v>
+        <v>32275.67788285805</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>42941.67924719788</v>
+        <v>34353.34339775828</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45580.2263695719</v>
+        <v>36464.18109565748</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>48260.85630871758</v>
+        <v>38608.68504697403</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>50984.18708743298</v>
+        <v>40787.34966994635</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>53750.83652167213</v>
+        <v>43000.66921733767</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>56561.42154671764</v>
+        <v>45249.13723737408</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>59416.55751100808</v>
+        <v>47533.24600880642</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>62316.85743757067</v>
+        <v>49853.48595005651</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>65262.93125310268</v>
+        <v>52210.34500248212</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>68255.38498484595</v>
+        <v>54604.30798787673</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>71294.81992550446</v>
+        <v>57035.85594040353</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>74381.83176656619</v>
+        <v>59505.46541325292</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>77517.00970050532</v>
+        <v>62013.60776040424</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>80700.93549246513</v>
+        <v>64560.74839397206</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>83934.18252214606</v>
+        <v>67147.3460177168</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>87217.3147967562</v>
+        <v>69773.85183740489</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>90550.88593601692</v>
+        <v>72440.70874881347</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>93935.43813035452</v>
+        <v>75148.35050428359</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>97371.50107355113</v>
+        <v>77897.20085884084</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>100859.5908712779</v>
+        <v>80687.67269702231</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>104400.2089270763</v>
+        <v>83520.16714166096</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>107993.8408075042</v>
+        <v>86395.07264600336</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>111640.9550883192</v>
+        <v>89312.76407065539</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>115342.0021837146</v>
+        <v>92273.60174697166</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>119097.4131607829</v>
+        <v>95277.9305286263</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>122907.5985415226</v>
+        <v>98326.07883321805</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>126772.9470948618</v>
+        <v>101418.3576758894</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>130693.8246213045</v>
+        <v>104555.0596970435</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>134670.5727329602</v>
+        <v>107736.4581863681</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>138703.5076318388</v>
+        <v>110962.806105471</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>142792.9188894376</v>
+        <v>114234.33511155</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>146939.0682307571</v>
+        <v>117551.2545846056</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>151142.1883260096</v>
+        <v>120913.7506608076</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>155402.4815933823</v>
+        <v>124321.9852747058</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>159720.1190163205</v>
+        <v>127776.0952130563</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>164095.238978878</v>
+        <v>131276.1911831023</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>168527.9461227604</v>
+        <v>134822.3568982082</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>168494.6962298819</v>
+        <v>134795.7569839054</v>
       </c>
       <c r="C358" t="n">
-        <v>5137.119742678181</v>
+        <v>4109.695794142548</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>168459.1156381147</v>
+        <v>134767.2925104916</v>
       </c>
       <c r="C359" t="n">
-        <v>10342.40127123642</v>
+        <v>8273.921016989143</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>168421.0599186048</v>
+        <v>134736.8479348837</v>
       </c>
       <c r="C360" t="n">
-        <v>15616.00500178217</v>
+        <v>12492.80400142575</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>168380.3771026659</v>
+        <v>134704.3016821326</v>
       </c>
       <c r="C361" t="n">
-        <v>20958.05673314346</v>
+        <v>16766.44538651478</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>168336.9073869899</v>
+        <v>134669.5259095918</v>
       </c>
       <c r="C362" t="n">
-        <v>26368.64687046995</v>
+        <v>21094.91749637598</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>168290.4828342076</v>
+        <v>134632.386267366</v>
       </c>
       <c r="C363" t="n">
-        <v>31847.82970433902</v>
+        <v>25478.26376347123</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>168240.9270692961</v>
+        <v>134592.7416554368</v>
       </c>
       <c r="C364" t="n">
-        <v>37395.62274906331</v>
+        <v>29916.49819925067</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>168188.0549723882</v>
+        <v>134550.4439779105</v>
       </c>
       <c r="C365" t="n">
-        <v>43012.00614375887</v>
+        <v>34409.60491500713</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>168131.6723686079</v>
+        <v>134505.3378948863</v>
       </c>
       <c r="C366" t="n">
-        <v>48696.92211958724</v>
+        <v>38957.53769566982</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>168071.575715622</v>
+        <v>134457.2605724975</v>
       </c>
       <c r="C367" t="n">
-        <v>54450.27453641385</v>
+        <v>43560.21962913113</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>168007.5517896779</v>
+        <v>134406.0414317422</v>
       </c>
       <c r="C368" t="n">
-        <v>60271.92849191</v>
+        <v>48217.54279352803</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>167939.3773709716</v>
+        <v>134351.5018967772</v>
       </c>
       <c r="C369" t="n">
-        <v>66161.71000591213</v>
+        <v>52929.36800472975</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>167866.818929278</v>
+        <v>134293.4551434223</v>
       </c>
       <c r="C370" t="n">
-        <v>72119.40578258388</v>
+        <v>57695.52462606716</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>167789.6323108604</v>
+        <v>134231.7058486882</v>
       </c>
       <c r="C371" t="n">
-        <v>78144.76305265442</v>
+        <v>62515.81044212358</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>167707.5624277726</v>
+        <v>134166.0499422179</v>
       </c>
       <c r="C372" t="n">
-        <v>84237.48949769918</v>
+        <v>67389.99159815939</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>167620.3429507629</v>
+        <v>134096.2743606101</v>
       </c>
       <c r="C373" t="n">
-        <v>84237.00533920672</v>
+        <v>67389.60427136545</v>
       </c>
       <c r="D373" t="n">
-        <v>5210.715032853709</v>
+        <v>4168.572026282972</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>167527.6960070929</v>
+        <v>134022.1568056742</v>
       </c>
       <c r="C374" t="n">
-        <v>84236.44510232229</v>
+        <v>67389.15608185789</v>
       </c>
       <c r="D374" t="n">
-        <v>10477.88461015244</v>
+        <v>8382.307688121962</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>167429.3318846911</v>
+        <v>133943.4655077528</v>
       </c>
       <c r="C375" t="n">
-        <v>84235.79767043235</v>
+        <v>67388.63813634594</v>
       </c>
       <c r="D375" t="n">
-        <v>15801.1708434529</v>
+        <v>12640.93667476234</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>167324.9487441715</v>
+        <v>133859.9589953371</v>
       </c>
       <c r="C376" t="n">
-        <v>84235.05044076257</v>
+        <v>67388.0403526101</v>
       </c>
       <c r="D376" t="n">
-        <v>21180.20410907124</v>
+        <v>16944.16328725701</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>167214.2323403655</v>
+        <v>133771.3858722923</v>
       </c>
       <c r="C377" t="n">
-        <v>84234.18914734124</v>
+        <v>67387.35131787302</v>
       </c>
       <c r="D377" t="n">
-        <v>26614.5834951902</v>
+        <v>21291.66679615218</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>167096.8557551329</v>
+        <v>133677.4846041063</v>
       </c>
       <c r="C378" t="n">
-        <v>84233.19766608722</v>
+        <v>67386.55813286983</v>
       </c>
       <c r="D378" t="n">
-        <v>32103.87733689178</v>
+        <v>25683.10186951345</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>166972.4791433416</v>
+        <v>133577.9833146732</v>
       </c>
       <c r="C379" t="n">
-        <v>84232.05780067135</v>
+        <v>67385.64624053713</v>
       </c>
       <c r="D379" t="n">
-        <v>37647.62383956722</v>
+        <v>30118.0990716538</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>166840.7494940296</v>
+        <v>133472.5995952236</v>
       </c>
       <c r="C380" t="n">
-        <v>84230.74904776107</v>
+        <v>67384.59923820893</v>
       </c>
       <c r="D380" t="n">
-        <v>43245.33179079016</v>
+        <v>34596.26543263216</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>166701.3004088952</v>
+        <v>133361.0403271161</v>
       </c>
       <c r="C381" t="n">
-        <v>84229.2483402283</v>
+        <v>67383.3986721827</v>
       </c>
       <c r="D381" t="n">
-        <v>48896.48136035748</v>
+        <v>39117.18508828602</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>166553.7519003858</v>
+        <v>133243.0015203085</v>
       </c>
       <c r="C382" t="n">
-        <v>84227.52976687819</v>
+        <v>67382.0238135026</v>
       </c>
       <c r="D382" t="n">
-        <v>54600.52498779944</v>
+        <v>43680.41999023959</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>166397.7102117907</v>
+        <v>133118.1681694324</v>
       </c>
       <c r="C383" t="n">
-        <v>84225.5642672508</v>
+        <v>67380.45141380068</v>
       </c>
       <c r="D383" t="n">
-        <v>54600.4227253088</v>
+        <v>43680.33818024708</v>
       </c>
       <c r="E383" t="n">
-        <v>4203.829523570242</v>
+        <v>3363.063618856196</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>166232.7676618716</v>
+        <v>132986.2141294972</v>
       </c>
       <c r="C384" t="n">
-        <v>84223.31930005029</v>
+        <v>67378.65544004031</v>
       </c>
       <c r="D384" t="n">
-        <v>54600.30080856138</v>
+        <v>43680.24064684916</v>
       </c>
       <c r="E384" t="n">
-        <v>8445.443262313976</v>
+        <v>6756.354609851185</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>166058.5025166958</v>
+        <v>132846.8020133565</v>
       </c>
       <c r="C385" t="n">
-        <v>84220.75848378139</v>
+        <v>67376.60678702517</v>
       </c>
       <c r="D385" t="n">
-        <v>54600.15570319811</v>
+        <v>43680.12456255854</v>
       </c>
       <c r="E385" t="n">
-        <v>12724.38768597742</v>
+        <v>10179.51014878194</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>165874.4788914628</v>
+        <v>132699.5831131702</v>
       </c>
       <c r="C386" t="n">
-        <v>84217.84120821017</v>
+        <v>67374.2729665682</v>
       </c>
       <c r="D386" t="n">
-        <v>54599.9832877447</v>
+        <v>43679.98663019581</v>
       </c>
       <c r="E386" t="n">
-        <v>17040.19265246954</v>
+        <v>13632.15412197564</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>165680.2466852426</v>
+        <v>132544.1973481939</v>
       </c>
       <c r="C387" t="n">
-        <v>84214.5222153302</v>
+        <v>67371.61777226422</v>
       </c>
       <c r="D387" t="n">
-        <v>54599.77876525783</v>
+        <v>43679.8230122063</v>
       </c>
       <c r="E387" t="n">
-        <v>21392.3724212495</v>
+        <v>17113.89793699961</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>165475.3415516577</v>
+        <v>132380.2732413261</v>
       </c>
       <c r="C388" t="n">
-        <v>84210.7511485968</v>
+        <v>67368.60091887749</v>
       </c>
       <c r="D388" t="n">
-        <v>54599.53656331964</v>
+        <v>43679.62925065575</v>
       </c>
       <c r="E388" t="n">
-        <v>25780.42672929003</v>
+        <v>20624.34138343203</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>165259.2849086622</v>
+        <v>132207.4279269296</v>
       </c>
       <c r="C389" t="n">
-        <v>84206.47206930345</v>
+        <v>67365.17765544281</v>
       </c>
       <c r="D389" t="n">
-        <v>54599.25022112313</v>
+        <v>43679.40017689853</v>
       </c>
       <c r="E389" t="n">
-        <v>30203.84192768396</v>
+        <v>24163.07354214719</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>165031.5839906667</v>
+        <v>132025.2671925332</v>
       </c>
       <c r="C390" t="n">
-        <v>84201.62293911105</v>
+        <v>67361.2983512889</v>
       </c>
       <c r="D390" t="n">
-        <v>54598.91226230007</v>
+        <v>43679.1298098401</v>
       </c>
       <c r="E390" t="n">
-        <v>34662.0921766606</v>
+        <v>27729.6737413285</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>164791.7319463637</v>
+        <v>131833.3855570908</v>
       </c>
       <c r="C391" t="n">
-        <v>84196.13506790907</v>
+        <v>67356.90805432732</v>
       </c>
       <c r="D391" t="n">
-        <v>54598.51405205369</v>
+        <v>43678.81124164299</v>
       </c>
       <c r="E391" t="n">
-        <v>39154.64069646748</v>
+        <v>31323.71255717401</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>164539.2079856828</v>
+        <v>131631.3663885461</v>
       </c>
       <c r="C392" t="n">
-        <v>84189.93252638694</v>
+        <v>67351.94602110962</v>
       </c>
       <c r="D392" t="n">
-        <v>54598.04563707062</v>
+        <v>43678.43650965654</v>
       </c>
       <c r="E392" t="n">
-        <v>43680.94107126167</v>
+        <v>34944.75285700936</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>164273.4775793824</v>
+        <v>131418.7820635058</v>
       </c>
       <c r="C393" t="n">
-        <v>84182.93152293119</v>
+        <v>67346.34521834501</v>
       </c>
       <c r="D393" t="n">
-        <v>54597.49556660372</v>
+        <v>43677.99645328303</v>
       </c>
       <c r="E393" t="n">
-        <v>43680.88715100308</v>
+        <v>34944.70972080249</v>
       </c>
       <c r="F393" t="n">
-        <v>7400.15216187223</v>
+        <v>5920.121729497791</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>163993.9927148356</v>
+        <v>131195.1941718684</v>
       </c>
       <c r="C394" t="n">
-        <v>84175.03974473318</v>
+        <v>67340.03179578661</v>
       </c>
       <c r="D394" t="n">
-        <v>54596.85069304007</v>
+        <v>43677.48055443209</v>
       </c>
       <c r="E394" t="n">
-        <v>43680.82184478397</v>
+        <v>34944.65747582719</v>
       </c>
       <c r="F394" t="n">
-        <v>14853.290344491</v>
+        <v>11882.63227559281</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>163700.1922116069</v>
+        <v>130960.1537692854</v>
       </c>
       <c r="C395" t="n">
-        <v>84166.1556633052</v>
+        <v>67332.92453064422</v>
       </c>
       <c r="D395" t="n">
-        <v>54596.09595019956</v>
+        <v>43676.87676015969</v>
       </c>
       <c r="E395" t="n">
-        <v>43680.7428985437</v>
+        <v>34944.59431883498</v>
       </c>
       <c r="F395" t="n">
-        <v>22358.49793214454</v>
+        <v>17886.79834571565</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>163391.5021004321</v>
+        <v>130713.2016803457</v>
       </c>
       <c r="C396" t="n">
-        <v>84156.16780495172</v>
+        <v>67324.93424396143</v>
       </c>
       <c r="D396" t="n">
-        <v>54595.21410755238</v>
+        <v>43676.17128604195</v>
       </c>
       <c r="E396" t="n">
-        <v>43680.64764474454</v>
+        <v>34944.51811579565</v>
       </c>
       <c r="F396" t="n">
-        <v>29914.85255474775</v>
+        <v>23931.88204379822</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>163067.3360692103</v>
+        <v>130453.8688553682</v>
       </c>
       <c r="C397" t="n">
-        <v>84144.95398713576</v>
+        <v>67315.96318970867</v>
       </c>
       <c r="D397" t="n">
-        <v>54594.18549849875</v>
+        <v>43675.34839879905</v>
       </c>
       <c r="E397" t="n">
-        <v>43680.53293331113</v>
+        <v>34944.42634664892</v>
       </c>
       <c r="F397" t="n">
-        <v>37521.42865808005</v>
+        <v>30017.14292646407</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>162727.0959795844</v>
+        <v>130181.6767836675</v>
       </c>
       <c r="C398" t="n">
-        <v>84132.38052211388</v>
+        <v>67305.90441769116</v>
       </c>
       <c r="D398" t="n">
-        <v>54592.98772082821</v>
+        <v>43674.39017666261</v>
       </c>
       <c r="E398" t="n">
-        <v>43680.3950523666</v>
+        <v>34944.3160418933</v>
       </c>
       <c r="F398" t="n">
-        <v>45177.30013742846</v>
+        <v>36141.84010994281</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>162370.1724576329</v>
+        <v>129896.1379661062</v>
       </c>
       <c r="C399" t="n">
-        <v>84118.30138969017</v>
+        <v>67294.64111175219</v>
       </c>
       <c r="D399" t="n">
-        <v>54591.59530746799</v>
+        <v>43673.27624597443</v>
       </c>
       <c r="E399" t="n">
-        <v>43680.22963750424</v>
+        <v>34944.18371000342</v>
       </c>
       <c r="F399" t="n">
-        <v>52881.54302814895</v>
+        <v>42305.23442251921</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>161995.9455621057</v>
+        <v>129596.7564496844</v>
       </c>
       <c r="C400" t="n">
-        <v>84102.55738145867</v>
+        <v>67282.04590516699</v>
       </c>
       <c r="D400" t="n">
-        <v>54589.97936564748</v>
+        <v>43671.98349251803</v>
       </c>
       <c r="E400" t="n">
-        <v>43680.03156822209</v>
+        <v>34944.0252545777</v>
       </c>
       <c r="F400" t="n">
-        <v>60633.23824621765</v>
+        <v>48506.59059697417</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>161603.785533523</v>
+        <v>129283.0284268183</v>
       </c>
       <c r="C401" t="n">
-        <v>84084.97521946364</v>
+        <v>67267.98017557096</v>
       </c>
       <c r="D401" t="n">
-        <v>54588.10718264977</v>
+        <v>43670.48574611986</v>
       </c>
       <c r="E401" t="n">
-        <v>43679.79485003232</v>
+        <v>34943.83588002588</v>
       </c>
       <c r="F401" t="n">
-        <v>68431.47437142466</v>
+        <v>54745.17949713978</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>161193.0536273002</v>
+        <v>128954.4429018401</v>
       </c>
       <c r="C402" t="n">
-        <v>84065.36665280716</v>
+        <v>67252.29332224582</v>
       </c>
       <c r="D402" t="n">
-        <v>54585.94179639756</v>
+        <v>43668.75343711807</v>
       </c>
       <c r="E402" t="n">
-        <v>43679.51248064244</v>
+        <v>34943.60998451398</v>
       </c>
       <c r="F402" t="n">
-        <v>76275.35046539016</v>
+        <v>61020.28037231218</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>160763.1030338786</v>
+        <v>128610.4824271028</v>
       </c>
       <c r="C403" t="n">
-        <v>84043.527536372</v>
+        <v>67234.82202909765</v>
       </c>
       <c r="D403" t="n">
-        <v>54583.44152923187</v>
+        <v>43666.75322338553</v>
       </c>
       <c r="E403" t="n">
-        <v>43679.17629849012</v>
+        <v>34943.34103879212</v>
       </c>
       <c r="F403" t="n">
-        <v>76275.28368667305</v>
+        <v>61020.2269493385</v>
       </c>
       <c r="G403" t="n">
-        <v>13540.53763556403</v>
+        <v>16384.05053903248</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>160313.2798886114</v>
+        <v>128250.623910889</v>
       </c>
       <c r="C404" t="n">
-        <v>84019.23689649845</v>
+        <v>67215.38951719881</v>
       </c>
       <c r="D404" t="n">
-        <v>54580.55948339348</v>
+        <v>43664.44758671483</v>
       </c>
       <c r="E404" t="n">
-        <v>43678.77681180136</v>
+        <v>34943.0214494411</v>
       </c>
       <c r="F404" t="n">
-        <v>76275.20170832583</v>
+        <v>61020.16136666074</v>
       </c>
       <c r="G404" t="n">
-        <v>27156.42071497781</v>
+        <v>32859.26906512315</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>159842.9243738934</v>
+        <v>127874.3394991147</v>
       </c>
       <c r="C405" t="n">
-        <v>83992.25598915854</v>
+        <v>67193.8047913269</v>
       </c>
       <c r="D405" t="n">
-        <v>54577.24299691185</v>
+        <v>43661.79439752953</v>
       </c>
       <c r="E405" t="n">
-        <v>43678.30300623603</v>
+        <v>34942.64240498885</v>
       </c>
       <c r="F405" t="n">
-        <v>76275.10128240261</v>
+        <v>61020.08102592215</v>
       </c>
       <c r="G405" t="n">
-        <v>40846.19177513176</v>
+        <v>49423.89204790944</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>159351.3719157148</v>
+        <v>127481.0975325718</v>
       </c>
       <c r="C406" t="n">
-        <v>83962.32735689798</v>
+        <v>67169.86188551843</v>
       </c>
       <c r="D406" t="n">
-        <v>54573.43305884959</v>
+        <v>43658.74644707971</v>
       </c>
       <c r="E406" t="n">
-        <v>43677.74212908612</v>
+        <v>34942.19370326892</v>
       </c>
       <c r="F406" t="n">
-        <v>76274.97851648752</v>
+        <v>61019.98281319009</v>
       </c>
       <c r="G406" t="n">
-        <v>54608.43209950915</v>
+        <v>66076.20284040608</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>158837.9544764677</v>
+        <v>127070.3635811741</v>
       </c>
       <c r="C407" t="n">
-        <v>83929.17389156519</v>
+        <v>67143.33911325222</v>
       </c>
       <c r="D407" t="n">
-        <v>54569.06368314479</v>
+        <v>43655.25094651587</v>
       </c>
       <c r="E407" t="n">
-        <v>43677.07944790594</v>
+        <v>34941.66355832478</v>
       </c>
       <c r="F407" t="n">
-        <v>76274.82875685005</v>
+        <v>61019.8630054801</v>
       </c>
       <c r="G407" t="n">
-        <v>68441.76682427636</v>
+        <v>82814.53785737441</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>158302.0019454468</v>
+        <v>126641.6015563574</v>
       </c>
       <c r="C408" t="n">
-        <v>83892.49791060915</v>
+        <v>67113.99832848737</v>
       </c>
       <c r="D408" t="n">
-        <v>54564.06124064514</v>
+        <v>43651.24899251616</v>
       </c>
       <c r="E408" t="n">
-        <v>43676.29798138251</v>
+        <v>34941.03838510603</v>
       </c>
       <c r="F408" t="n">
-        <v>76274.64645274119</v>
+        <v>61019.71716219302</v>
       </c>
       <c r="G408" t="n">
-        <v>82344.87003795014</v>
+        <v>99637.29274591969</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>157742.8436280431</v>
+        <v>126194.2749024344</v>
       </c>
       <c r="C409" t="n">
-        <v>83851.98025549318</v>
+        <v>67081.5842043946</v>
       </c>
       <c r="D409" t="n">
-        <v>54558.34374933503</v>
+        <v>43646.67499946806</v>
       </c>
       <c r="E409" t="n">
-        <v>43675.37820020271</v>
+        <v>34940.30256016218</v>
       </c>
       <c r="F409" t="n">
-        <v>76274.42499924962</v>
+        <v>61019.53999939977</v>
       </c>
       <c r="G409" t="n">
-        <v>96316.46985922658</v>
+        <v>116542.9285296642</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>157159.8098341517</v>
+        <v>125727.8478673213</v>
       </c>
       <c r="C410" t="n">
-        <v>83807.27942153688</v>
+        <v>67045.82353722956</v>
       </c>
       <c r="D410" t="n">
-        <v>54551.82012322919</v>
+        <v>43641.4560985834</v>
       </c>
       <c r="E410" t="n">
-        <v>43674.29769564601</v>
+        <v>34939.43815651684</v>
       </c>
       <c r="F410" t="n">
-        <v>76274.15655587132</v>
+        <v>61019.32524469714</v>
       </c>
       <c r="G410" t="n">
-        <v>110355.3534768262</v>
+        <v>133529.9777069597</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>156552.2335657879</v>
+        <v>125241.7868526302</v>
       </c>
       <c r="C411" t="n">
-        <v>83758.03072924809</v>
+        <v>67006.42458339852</v>
       </c>
       <c r="D411" t="n">
-        <v>54544.3893809399</v>
+        <v>43635.51150475196</v>
       </c>
       <c r="E411" t="n">
-        <v>43673.03081363318</v>
+        <v>34938.42465090656</v>
       </c>
       <c r="F411" t="n">
-        <v>76273.83183766856</v>
+        <v>61019.0654701349</v>
       </c>
       <c r="G411" t="n">
-        <v>124460.3721345508</v>
+        <v>150597.0502828065</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>155919.4523033344</v>
+        <v>124735.5618426675</v>
       </c>
       <c r="C412" t="n">
-        <v>83703.84554793299</v>
+        <v>66963.07643834644</v>
       </c>
       <c r="D412" t="n">
-        <v>54535.9398155243</v>
+        <v>43628.75185241948</v>
       </c>
       <c r="E412" t="n">
-        <v>43671.54825199596</v>
+        <v>34937.23860159679</v>
       </c>
       <c r="F412" t="n">
-        <v>76273.43987560899</v>
+        <v>61018.75190048727</v>
       </c>
       <c r="G412" t="n">
-        <v>138630.4460439184</v>
+        <v>167742.8397131413</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>155260.8098892341</v>
+        <v>124208.6479113872</v>
       </c>
       <c r="C413" t="n">
-        <v>83644.3105830647</v>
+        <v>66915.44846645182</v>
       </c>
       <c r="D413" t="n">
-        <v>54526.34812788374</v>
+        <v>43621.07850230703</v>
       </c>
       <c r="E413" t="n">
-        <v>43669.81661880841</v>
+        <v>34935.85329504676</v>
       </c>
       <c r="F413" t="n">
-        <v>76272.96774238511</v>
+        <v>61018.37419390815</v>
       </c>
       <c r="G413" t="n">
-        <v>138630.3531614433</v>
+        <v>167742.7273253464</v>
       </c>
       <c r="H413" t="n">
-        <v>13558.37666887723</v>
+        <v>16405.63576934146</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>154575.658507283</v>
+        <v>123660.5268058263</v>
       </c>
       <c r="C414" t="n">
-        <v>83578.98723953296</v>
+        <v>66863.18979162641</v>
       </c>
       <c r="D414" t="n">
-        <v>54515.47852671709</v>
+        <v>43612.38282137371</v>
       </c>
       <c r="E414" t="n">
-        <v>43667.79794973975</v>
+        <v>34934.23835979182</v>
       </c>
       <c r="F414" t="n">
-        <v>76272.4002397226</v>
+        <v>61017.92019177814</v>
       </c>
       <c r="G414" t="n">
-        <v>138630.2378974515</v>
+        <v>167742.5878559164</v>
       </c>
       <c r="H414" t="n">
-        <v>27176.89939583806</v>
+        <v>32884.04826896406</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>153863.3607549933</v>
+        <v>123090.6886039945</v>
       </c>
       <c r="C415" t="n">
-        <v>83507.41107348037</v>
+        <v>66805.92885878435</v>
       </c>
       <c r="D415" t="n">
-        <v>54503.18179882349</v>
+        <v>43602.54543905884</v>
       </c>
       <c r="E415" t="n">
-        <v>43665.44918256083</v>
+        <v>34932.35934604869</v>
       </c>
       <c r="F415" t="n">
-        <v>76271.71954290112</v>
+        <v>61017.37563432097</v>
       </c>
       <c r="G415" t="n">
-        <v>138630.0951839034</v>
+        <v>167742.4151725231</v>
       </c>
       <c r="H415" t="n">
-        <v>40854.76868548539</v>
+        <v>49434.27010943733</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>153123.2918057601</v>
+        <v>122498.633444608</v>
       </c>
       <c r="C416" t="n">
-        <v>83429.09134593932</v>
+        <v>66743.27307675152</v>
       </c>
       <c r="D416" t="n">
-        <v>54489.29435440431</v>
+        <v>43591.43548352349</v>
       </c>
       <c r="E416" t="n">
-        <v>43662.72158716405</v>
+        <v>34930.17726973126</v>
       </c>
       <c r="F416" t="n">
-        <v>76270.90479793472</v>
+        <v>61016.72383834784</v>
       </c>
       <c r="G416" t="n">
-        <v>138629.9188855589</v>
+        <v>167742.2018515263</v>
       </c>
       <c r="H416" t="n">
-        <v>54591.26941548465</v>
+        <v>66055.43599273643</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>152354.8416568105</v>
+        <v>121883.8733254484</v>
       </c>
       <c r="C417" t="n">
-        <v>83343.51069190139</v>
+        <v>66674.80855352116</v>
       </c>
       <c r="D417" t="n">
-        <v>54473.63725292363</v>
+        <v>43578.90980233894</v>
       </c>
       <c r="E417" t="n">
-        <v>43659.56014974841</v>
+        <v>34927.64811979875</v>
       </c>
       <c r="F417" t="n">
-        <v>76269.93166660443</v>
+        <v>61015.94533328361</v>
       </c>
       <c r="G417" t="n">
-        <v>138629.7015941503</v>
+        <v>167741.9389289219</v>
       </c>
       <c r="H417" t="n">
-        <v>68385.77508562751</v>
+        <v>82746.7878536093</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>151557.417458117</v>
+        <v>121245.9339664935</v>
       </c>
       <c r="C418" t="n">
-        <v>83250.12491876919</v>
+        <v>66600.0999350154</v>
       </c>
       <c r="D418" t="n">
-        <v>54456.01521604708</v>
+        <v>43564.81217283771</v>
       </c>
       <c r="E418" t="n">
-        <v>43655.90291018142</v>
+        <v>34924.72232814515</v>
       </c>
       <c r="F418" t="n">
-        <v>76268.77181430596</v>
+        <v>61015.01745144484</v>
       </c>
       <c r="G418" t="n">
-        <v>138629.4343870651</v>
+        <v>167741.6156083488</v>
       </c>
       <c r="H418" t="n">
-        <v>82237.7519121411</v>
+        <v>99507.67981369075</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>150730.4459166483</v>
+        <v>120584.3567333186</v>
       </c>
       <c r="C419" t="n">
-        <v>83148.36294833804</v>
+        <v>66518.69035867047</v>
       </c>
       <c r="D419" t="n">
-        <v>54436.21563518074</v>
+        <v>43548.97250814464</v>
       </c>
       <c r="E419" t="n">
-        <v>43651.68025198347</v>
+        <v>34921.34420158681</v>
       </c>
       <c r="F419" t="n">
-        <v>76267.39233548469</v>
+        <v>61013.91386838783</v>
       </c>
       <c r="G419" t="n">
-        <v>138629.1065453013</v>
+        <v>167741.2189198146</v>
       </c>
       <c r="H419" t="n">
-        <v>96146.76274844921</v>
+        <v>116337.5829256236</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>149873.3757694927</v>
+        <v>119898.7006155941</v>
       </c>
       <c r="C420" t="n">
-        <v>83037.62691652263</v>
+        <v>66430.10153321816</v>
       </c>
       <c r="D420" t="n">
-        <v>54414.00758216721</v>
+        <v>43531.20606573381</v>
       </c>
       <c r="E420" t="n">
-        <v>43646.81414489326</v>
+        <v>34917.45131591463</v>
       </c>
       <c r="F420" t="n">
-        <v>76265.75511128696</v>
+        <v>61012.60408902964</v>
       </c>
       <c r="G420" t="n">
-        <v>138628.705224866</v>
+        <v>167740.7333220879</v>
       </c>
       <c r="H420" t="n">
-        <v>110112.4708128315</v>
+        <v>133236.0896835262</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>148985.6803185426</v>
+        <v>119188.544254834</v>
       </c>
       <c r="C421" t="n">
-        <v>82917.29244496537</v>
+        <v>66333.83395597234</v>
       </c>
       <c r="D421" t="n">
-        <v>54389.14083275303</v>
+        <v>43511.31266620247</v>
       </c>
       <c r="E421" t="n">
-        <v>43641.21734056772</v>
+        <v>34912.9738724542</v>
       </c>
       <c r="F421" t="n">
-        <v>76263.81609397432</v>
+        <v>61011.05287517953</v>
       </c>
       <c r="G421" t="n">
-        <v>138628.2150751527</v>
+        <v>167740.1402409348</v>
       </c>
       <c r="H421" t="n">
-        <v>124134.64320263</v>
+        <v>150202.9182751823</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>148066.8600185754</v>
+        <v>118453.4880148602</v>
       </c>
       <c r="C422" t="n">
-        <v>82786.7090984251</v>
+        <v>66229.36727874013</v>
       </c>
       <c r="D422" t="n">
-        <v>54361.34491350774</v>
+        <v>43489.07593080623</v>
       </c>
       <c r="E422" t="n">
-        <v>43634.79252265207</v>
+        <v>34907.83401812168</v>
       </c>
       <c r="F422" t="n">
-        <v>76261.52451263864</v>
+        <v>61009.21961011099</v>
       </c>
       <c r="G422" t="n">
-        <v>138627.6177971762</v>
+        <v>167739.4175345832</v>
       </c>
       <c r="H422" t="n">
-        <v>138213.1541737743</v>
+        <v>167237.9165502669</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>147116.4451097105</v>
+        <v>117693.1560877683</v>
       </c>
       <c r="C423" t="n">
-        <v>82645.20104143671</v>
+        <v>66116.16083314942</v>
       </c>
       <c r="D423" t="n">
-        <v>54330.32818393396</v>
+        <v>43464.26254714721</v>
       </c>
       <c r="E423" t="n">
-        <v>43627.43141322341</v>
+        <v>34901.94513057875</v>
       </c>
       <c r="F423" t="n">
-        <v>76258.82199483519</v>
+        <v>61007.05759586821</v>
       </c>
       <c r="G423" t="n">
-        <v>138626.8916338625</v>
+        <v>167738.5388769736</v>
       </c>
       <c r="H423" t="n">
-        <v>152347.9881635155</v>
+        <v>184341.0656778538</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>146133.9982843742</v>
+        <v>116907.1986274993</v>
       </c>
       <c r="C424" t="n">
-        <v>82492.06790714082</v>
+        <v>65993.65432571271</v>
       </c>
       <c r="D424" t="n">
-        <v>54295.77696654609</v>
+        <v>43436.62157323692</v>
       </c>
       <c r="E424" t="n">
-        <v>43619.01383846971</v>
+        <v>34895.21107077579</v>
       </c>
       <c r="F424" t="n">
-        <v>76255.64159893335</v>
+        <v>61004.51327914675</v>
       </c>
       <c r="G424" t="n">
-        <v>138626.0107838936</v>
+        <v>167737.4730485113</v>
       </c>
       <c r="H424" t="n">
-        <v>166539.2425332463</v>
+        <v>201512.4834652281</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>145119.1173780735</v>
+        <v>116095.2939024587</v>
       </c>
       <c r="C425" t="n">
-        <v>82326.58589039868</v>
+        <v>65861.268712319</v>
       </c>
       <c r="D425" t="n">
-        <v>54257.35473869115</v>
+        <v>43405.88379095297</v>
       </c>
       <c r="E425" t="n">
-        <v>43609.40675740982</v>
+        <v>34887.52540592788</v>
       </c>
       <c r="F425" t="n">
-        <v>76251.90675228614</v>
+        <v>61001.52540182899</v>
       </c>
       <c r="G425" t="n">
-        <v>138624.9447299135</v>
+        <v>167736.1831231954</v>
       </c>
       <c r="H425" t="n">
-        <v>180787.1300073083</v>
+        <v>218752.427308843</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>144071.4380724704</v>
+        <v>115257.1504579763</v>
       </c>
       <c r="C426" t="n">
-        <v>82148.00907632476</v>
+        <v>65718.40726105985</v>
       </c>
       <c r="D426" t="n">
-        <v>54214.70140082133</v>
+        <v>43371.7611206571</v>
       </c>
       <c r="E426" t="n">
-        <v>43598.46325848997</v>
+        <v>34878.77060679199</v>
       </c>
       <c r="F426" t="n">
-        <v>76247.53009075567</v>
+        <v>60998.0240726046</v>
       </c>
       <c r="G426" t="n">
-        <v>138623.6574712113</v>
+        <v>167734.6255401657</v>
       </c>
       <c r="H426" t="n">
-        <v>195091.9807825598</v>
+        <v>236061.2967468974</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>142990.6365984699</v>
+        <v>114392.5092787759</v>
       </c>
       <c r="C427" t="n">
-        <v>81955.57101417858</v>
+        <v>65564.45681134294</v>
       </c>
       <c r="D427" t="n">
-        <v>54167.43263678229</v>
+        <v>43333.94610942587</v>
       </c>
       <c r="E427" t="n">
-        <v>43586.02153000052</v>
+        <v>34868.81722400044</v>
       </c>
       <c r="F427" t="n">
-        <v>76242.41219572007</v>
+        <v>60993.92975657612</v>
       </c>
       <c r="G427" t="n">
-        <v>138622.1066503464</v>
+        <v>167732.7490469191</v>
       </c>
       <c r="H427" t="n">
-        <v>209454.2442823869</v>
+        <v>253439.6355816882</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>141876.4324263028</v>
+        <v>113501.1459410422</v>
       </c>
       <c r="C428" t="n">
-        <v>81748.48654515899</v>
+        <v>65398.78923612724</v>
       </c>
       <c r="D428" t="n">
-        <v>54115.13938243142</v>
+        <v>43292.11150594518</v>
       </c>
       <c r="E428" t="n">
-        <v>43571.90381143888</v>
+        <v>34857.52304915113</v>
       </c>
       <c r="F428" t="n">
-        <v>76236.44022544286</v>
+        <v>60989.15218035436</v>
       </c>
       <c r="G428" t="n">
-        <v>138620.2425625633</v>
+        <v>167730.4935007016</v>
       </c>
       <c r="H428" t="n">
-        <v>223874.4905276532</v>
+        <v>270888.1335384605</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>140728.590928895</v>
+        <v>112582.8727431159</v>
       </c>
       <c r="C429" t="n">
-        <v>81525.9538910323</v>
+        <v>65220.76311282588</v>
       </c>
       <c r="D429" t="n">
-        <v>54057.38741952364</v>
+        <v>43245.90993561896</v>
       </c>
       <c r="E429" t="n">
-        <v>43555.91533418832</v>
+        <v>34844.73226735068</v>
       </c>
       <c r="F429" t="n">
-        <v>76229.48643862341</v>
+        <v>60983.5891508988</v>
       </c>
       <c r="G429" t="n">
-        <v>138618.0070363096</v>
+        <v>167727.7885139347</v>
       </c>
       <c r="H429" t="n">
-        <v>238353.4110958576</v>
+        <v>288407.6274259877</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>139546.9260041906</v>
+        <v>111637.5408033524</v>
       </c>
       <c r="C430" t="n">
-        <v>81287.15700870847</v>
+        <v>65029.72560696684</v>
       </c>
       <c r="D430" t="n">
-        <v>53993.71711227485</v>
+        <v>43194.97368981993</v>
       </c>
       <c r="E430" t="n">
-        <v>43537.84326117889</v>
+        <v>34830.27460894314</v>
       </c>
       <c r="F430" t="n">
-        <v>76221.40660908321</v>
+        <v>60977.12528726663</v>
       </c>
       <c r="G430" t="n">
-        <v>138615.3321727209</v>
+        <v>167724.5519289923</v>
       </c>
       <c r="H430" t="n">
-        <v>252891.8196385478</v>
+        <v>305999.101762643</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>138331.3026415377</v>
+        <v>110665.0421132301</v>
       </c>
       <c r="C431" t="n">
-        <v>81031.26821385427</v>
+        <v>64825.01457108347</v>
       </c>
       <c r="D431" t="n">
-        <v>53923.64330431191</v>
+        <v>43138.91464344956</v>
       </c>
       <c r="E431" t="n">
-        <v>43517.45563652847</v>
+        <v>34813.96450922279</v>
       </c>
       <c r="F431" t="n">
-        <v>76212.03833188755</v>
+        <v>60969.63066551011</v>
       </c>
       <c r="G431" t="n">
-        <v>138612.1389316175</v>
+        <v>167720.6881072572</v>
       </c>
       <c r="H431" t="n">
-        <v>267490.6519257569</v>
+        <v>323663.688830166</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>137081.6394167654</v>
+        <v>109665.3115334122</v>
       </c>
       <c r="C432" t="n">
-        <v>80757.45107441377</v>
+        <v>64605.96085953107</v>
       </c>
       <c r="D432" t="n">
-        <v>53846.65539381761</v>
+        <v>43077.32431505413</v>
       </c>
       <c r="E432" t="n">
-        <v>43494.50035751301</v>
+        <v>34795.60028601043</v>
       </c>
       <c r="F432" t="n">
-        <v>76201.19922276771</v>
+        <v>60960.95937821425</v>
       </c>
       <c r="G432" t="n">
-        <v>138608.3355513925</v>
+        <v>167716.0860171849</v>
       </c>
       <c r="H432" t="n">
-        <v>282150.9653849542</v>
+        <v>341402.6681157945</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>135797.910900186</v>
+        <v>108638.3287201487</v>
       </c>
       <c r="C433" t="n">
-        <v>80464.86357250344</v>
+        <v>64371.89085800281</v>
       </c>
       <c r="D433" t="n">
-        <v>53762.21760456023</v>
+        <v>43009.77408364823</v>
       </c>
       <c r="E433" t="n">
-        <v>43468.70418256569</v>
+        <v>34774.96334605257</v>
       </c>
       <c r="F433" t="n">
-        <v>76188.68501450113</v>
+        <v>60950.94801160097</v>
       </c>
       <c r="G433" t="n">
-        <v>138603.8157901925</v>
+        <v>167710.6171061329</v>
       </c>
       <c r="H433" t="n">
-        <v>296873.9381007565</v>
+        <v>359217.4651019155</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>134480.1499614579</v>
+        <v>107584.1199691662</v>
       </c>
       <c r="C434" t="n">
-        <v>80152.661530574</v>
+        <v>64122.12922445927</v>
       </c>
       <c r="D434" t="n">
-        <v>53669.76947013417</v>
+        <v>42935.81557610738</v>
       </c>
       <c r="E434" t="n">
-        <v>43439.77179033011</v>
+        <v>34751.81743226411</v>
       </c>
       <c r="F434" t="n">
-        <v>76174.26755593141</v>
+        <v>60939.41404474519</v>
       </c>
       <c r="G434" t="n">
-        <v>138598.4569760475</v>
+        <v>167704.1329410175</v>
       </c>
       <c r="H434" t="n">
-        <v>311660.8672403846</v>
+        <v>377109.6493608654</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>133128.4499550469</v>
+        <v>106502.7599640375</v>
       </c>
       <c r="C435" t="n">
-        <v>79820.00229500835</v>
+        <v>63856.00183600673</v>
       </c>
       <c r="D435" t="n">
-        <v>53568.72654811558</v>
+        <v>42854.98123849251</v>
       </c>
       <c r="E435" t="n">
-        <v>43407.3849060701</v>
+        <v>34725.9079248561</v>
       </c>
       <c r="F435" t="n">
-        <v>76157.69272156621</v>
+        <v>60926.15417725305</v>
       </c>
       <c r="G435" t="n">
-        <v>138592.1178541208</v>
+        <v>167696.4626034862</v>
       </c>
       <c r="H435" t="n">
-        <v>326513.1668686886</v>
+        <v>395080.9319111132</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>131742.9667699408</v>
+        <v>105394.3734159526</v>
       </c>
       <c r="C436" t="n">
-        <v>79466.04866746961</v>
+        <v>63572.83893397574</v>
       </c>
       <c r="D436" t="n">
-        <v>53458.48137993438</v>
+        <v>42766.78510394754</v>
       </c>
       <c r="E436" t="n">
-        <v>43371.20151293809</v>
+        <v>34696.96121035049</v>
       </c>
       <c r="F436" t="n">
-        <v>76138.67824217099</v>
+        <v>60910.94259373687</v>
       </c>
       <c r="G436" t="n">
-        <v>138584.6362200768</v>
+        <v>167687.409826293</v>
       </c>
       <c r="H436" t="n">
-        <v>341432.3651154226</v>
+        <v>413133.1617896613</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>130323.920727299</v>
+        <v>104259.1365818391</v>
       </c>
       <c r="C437" t="n">
-        <v>79089.97307135744</v>
+        <v>63271.97845708601</v>
       </c>
       <c r="D437" t="n">
-        <v>53338.40471106841</v>
+        <v>42670.72376885477</v>
       </c>
       <c r="E437" t="n">
-        <v>43330.85516669702</v>
+        <v>34664.68413335762</v>
       </c>
       <c r="F437" t="n">
-        <v>76116.9114694749</v>
+        <v>60893.52917557998</v>
       </c>
       <c r="G437" t="n">
-        <v>138575.8263297384</v>
+        <v>167676.7498589835</v>
       </c>
       <c r="H437" t="n">
-        <v>356420.1006564795</v>
+        <v>431268.3217943402</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>128871.598309877</v>
+        <v>103097.2786479016</v>
       </c>
       <c r="C438" t="n">
-        <v>78690.96193769721</v>
+        <v>62952.76955015783</v>
       </c>
       <c r="D438" t="n">
-        <v>53207.84698466698</v>
+        <v>42566.27758773362</v>
       </c>
       <c r="E438" t="n">
-        <v>43285.95443344493</v>
+        <v>34628.76354675596</v>
       </c>
       <c r="F438" t="n">
-        <v>76092.04709099964</v>
+        <v>60873.63767279976</v>
       </c>
       <c r="G438" t="n">
-        <v>138565.4760767682</v>
+        <v>167664.2260528895</v>
       </c>
       <c r="H438" t="n">
-        <v>371478.1184698872</v>
+        <v>449488.5233485636</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>127386.3537073478</v>
+        <v>101909.0829658781</v>
       </c>
       <c r="C439" t="n">
-        <v>78268.22029171212</v>
+        <v>62614.57623336976</v>
       </c>
       <c r="D439" t="n">
-        <v>53066.14011990002</v>
+        <v>42452.91209592006</v>
       </c>
       <c r="E439" t="n">
-        <v>43236.08247067497</v>
+        <v>34588.86597654</v>
       </c>
       <c r="F439" t="n">
-        <v>76063.70481409288</v>
+        <v>60850.96385127436</v>
       </c>
       <c r="G439" t="n">
-        <v>138553.3439321042</v>
+        <v>167649.5461578461</v>
       </c>
       <c r="H439" t="n">
-        <v>386608.264826725</v>
+        <v>467796.0004403373</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>125868.6101620535</v>
+        <v>100694.8881296427</v>
       </c>
       <c r="C440" t="n">
-        <v>77820.97651824472</v>
+        <v>62256.78121459582</v>
       </c>
       <c r="D440" t="n">
-        <v>52912.59958420633</v>
+        <v>42330.07966736511</v>
       </c>
       <c r="E440" t="n">
-        <v>43180.79677258119</v>
+        <v>34544.63741806497</v>
       </c>
       <c r="F440" t="n">
-        <v>76031.46704146219</v>
+        <v>60825.1736331698</v>
       </c>
       <c r="G440" t="n">
-        <v>138539.1556413432</v>
+        <v>167632.3783260253</v>
       </c>
       <c r="H440" t="n">
-        <v>401812.4814765948</v>
+        <v>486193.1025866797</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>124318.8611002759</v>
+        <v>99455.08888022065</v>
       </c>
       <c r="C441" t="n">
-        <v>77348.48728113927</v>
+        <v>61878.78982491146</v>
       </c>
       <c r="D441" t="n">
-        <v>52746.52676618034</v>
+        <v>42197.22141294432</v>
       </c>
       <c r="E441" t="n">
-        <v>43119.62910086067</v>
+        <v>34495.70328068855</v>
       </c>
       <c r="F441" t="n">
-        <v>75994.87656382643</v>
+        <v>60795.90125106121</v>
       </c>
       <c r="G441" t="n">
-        <v>138522.6006792327</v>
+        <v>167612.3468218716</v>
       </c>
       <c r="H441" t="n">
-        <v>417092.7989871294</v>
+        <v>504682.2867744266</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>122737.6710347976</v>
+        <v>98190.13682783804</v>
       </c>
       <c r="C442" t="n">
-        <v>76850.04256871084</v>
+        <v>61480.0340549687</v>
       </c>
       <c r="D442" t="n">
-        <v>52567.2116531005</v>
+        <v>42053.76932248044</v>
       </c>
       <c r="E442" t="n">
-        <v>43052.08562233035</v>
+        <v>34441.66849786431</v>
       </c>
       <c r="F442" t="n">
-        <v>75953.43429868214</v>
+        <v>60762.74743894577</v>
       </c>
       <c r="G442" t="n">
-        <v>138503.3284639317</v>
+        <v>167589.0274413573</v>
       </c>
       <c r="H442" t="n">
-        <v>432451.3291971076</v>
+        <v>523266.1083284999</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>121125.676225349</v>
+        <v>96900.5409802791</v>
       </c>
       <c r="C443" t="n">
-        <v>76324.97083454988</v>
+        <v>61059.97666763997</v>
       </c>
       <c r="D443" t="n">
-        <v>52373.93581407737</v>
+        <v>41899.14865126194</v>
       </c>
       <c r="E443" t="n">
-        <v>42977.64727444131</v>
+        <v>34382.11781955307</v>
       </c>
       <c r="F443" t="n">
-        <v>75906.59710756892</v>
+        <v>60725.2776860552</v>
       </c>
       <c r="G443" t="n">
-        <v>138480.9443377552</v>
+        <v>167561.9426486838</v>
       </c>
       <c r="H443" t="n">
-        <v>447890.256743238</v>
+        <v>541947.2106593181</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>119483.5850844984</v>
+        <v>95586.8680675987</v>
       </c>
       <c r="C444" t="n">
-        <v>75772.64420018629</v>
+        <v>60618.11536014908</v>
       </c>
       <c r="D444" t="n">
-        <v>52165.97568650607</v>
+        <v>41732.7805492049</v>
       </c>
       <c r="E444" t="n">
-        <v>42895.77037920427</v>
+        <v>34316.61630336344</v>
       </c>
       <c r="F444" t="n">
-        <v>75853.77572754977</v>
+        <v>60683.02058203988</v>
       </c>
       <c r="G444" t="n">
-        <v>138455.0053257407</v>
+        <v>167530.5564441462</v>
       </c>
       <c r="H444" t="n">
-        <v>463411.8296216264</v>
+        <v>560728.3138421678</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>117812.1783176352</v>
+        <v>94249.74265410809</v>
       </c>
       <c r="C445" t="n">
-        <v>75192.48368360601</v>
+        <v>60153.98694688486</v>
       </c>
       <c r="D445" t="n">
-        <v>51942.60615997018</v>
+        <v>41554.08492797618</v>
       </c>
       <c r="E445" t="n">
-        <v>42805.88752511155</v>
+        <v>34244.71002008926</v>
       </c>
       <c r="F445" t="n">
-        <v>75794.33285582834</v>
+        <v>60635.46628466273</v>
       </c>
       <c r="G445" t="n">
-        <v>138425.0156885694</v>
+        <v>167494.2689831691</v>
       </c>
       <c r="H445" t="n">
-        <v>479018.3487463495</v>
+        <v>579612.2019830828</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>116112.3087869168</v>
+        <v>92889.84702953332</v>
       </c>
       <c r="C446" t="n">
-        <v>74583.96441531998</v>
+        <v>59667.17153225604</v>
       </c>
       <c r="D446" t="n">
-        <v>51703.10444799783</v>
+        <v>41362.4835583983</v>
       </c>
       <c r="E446" t="n">
-        <v>42707.40873532853</v>
+        <v>34165.92698826284</v>
       </c>
       <c r="F446" t="n">
-        <v>75727.58142943225</v>
+        <v>60582.06514354584</v>
       </c>
       <c r="G446" t="n">
-        <v>138390.4222921351</v>
+        <v>167452.4109734835</v>
       </c>
       <c r="H446" t="n">
-        <v>494712.1564695811</v>
+        <v>598601.7093281932</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>114384.9010904016</v>
+        <v>91507.92087232119</v>
       </c>
       <c r="C447" t="n">
-        <v>73946.62080167052</v>
+        <v>59157.29664133646</v>
       </c>
       <c r="D447" t="n">
-        <v>51446.75423414995</v>
+        <v>41157.40338732</v>
       </c>
       <c r="E447" t="n">
-        <v>42599.72293871509</v>
+        <v>34079.7783509721</v>
       </c>
       <c r="F447" t="n">
-        <v>75652.78314461626</v>
+        <v>60522.22651569307</v>
       </c>
       <c r="G447" t="n">
-        <v>138350.6098223472</v>
+        <v>167404.2378850401</v>
       </c>
       <c r="H447" t="n">
-        <v>510495.6240303415</v>
+        <v>617699.7050767132</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>112630.9508490517</v>
+        <v>90104.7606792413</v>
       </c>
       <c r="C448" t="n">
-        <v>73280.05159336532</v>
+        <v>58624.0412746923</v>
       </c>
       <c r="D448" t="n">
-        <v>51172.85007487299</v>
+        <v>40938.28005989843</v>
       </c>
       <c r="E448" t="n">
-        <v>42482.19975811146</v>
+        <v>33985.75980648919</v>
       </c>
       <c r="F448" t="n">
-        <v>75569.14726299507</v>
+        <v>60455.31781039613</v>
       </c>
       <c r="G448" t="n">
-        <v>138304.8958805603</v>
+        <v>167348.9240154779</v>
       </c>
       <c r="H448" t="n">
-        <v>526371.1379023121</v>
+        <v>636909.0768617976</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>110851.5236958649</v>
+        <v>88681.21895669188</v>
       </c>
       <c r="C449" t="n">
-        <v>72583.92481589211</v>
+        <v>58067.13985271372</v>
       </c>
       <c r="D449" t="n">
-        <v>50880.70203742156</v>
+        <v>40704.56162993728</v>
       </c>
       <c r="E449" t="n">
-        <v>42354.19162777641</v>
+        <v>33883.35330222116</v>
       </c>
       <c r="F449" t="n">
-        <v>75475.82975331314</v>
+        <v>60380.66380265058</v>
       </c>
       <c r="G449" t="n">
-        <v>138252.5260022586</v>
+        <v>167285.5564627329</v>
       </c>
       <c r="H449" t="n">
-        <v>542341.0850153227</v>
+        <v>656232.7128685403</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>109047.7539630682</v>
+        <v>87238.20317045442</v>
       </c>
       <c r="C450" t="n">
-        <v>71857.982517524</v>
+        <v>57486.38601401923</v>
       </c>
       <c r="D450" t="n">
-        <v>50569.64054700578</v>
+        <v>40455.71243760466</v>
       </c>
       <c r="E450" t="n">
-        <v>42215.036248903</v>
+        <v>33772.02899912242</v>
       </c>
       <c r="F450" t="n">
-        <v>75371.93281910621</v>
+        <v>60297.54625528502</v>
       </c>
       <c r="G450" t="n">
-        <v>138192.6686492432</v>
+        <v>167213.1290655843</v>
       </c>
       <c r="H450" t="n">
-        <v>558407.8368300665</v>
+        <v>675673.4825643805</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>107220.8430650662</v>
+        <v>85776.67445205295</v>
       </c>
       <c r="C451" t="n">
-        <v>71102.04529010739</v>
+        <v>56881.63623208596</v>
       </c>
       <c r="D451" t="n">
-        <v>50239.02141320385</v>
+        <v>40191.21713056312</v>
       </c>
       <c r="E451" t="n">
-        <v>42064.05938876257</v>
+        <v>33651.24751101009</v>
       </c>
       <c r="F451" t="n">
-        <v>75256.50486321305</v>
+        <v>60205.2038905705</v>
       </c>
       <c r="G451" t="n">
-        <v>138124.4102334549</v>
+        <v>167130.5363824804</v>
       </c>
       <c r="H451" t="n">
-        <v>574573.7322516136</v>
+        <v>695234.2160244528</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>105372.0575766785</v>
+        <v>84297.64606134276</v>
       </c>
       <c r="C452" t="n">
-        <v>70316.0165177602</v>
+        <v>56252.81321420821</v>
       </c>
       <c r="D452" t="n">
-        <v>49888.23100166293</v>
+        <v>39910.58480133039</v>
       </c>
       <c r="E452" t="n">
-        <v>41900.57802526435</v>
+        <v>33520.46242021151</v>
       </c>
       <c r="F452" t="n">
-        <v>75128.5409400678</v>
+        <v>60102.83275205432</v>
       </c>
       <c r="G452" t="n">
-        <v>138046.750238613</v>
+        <v>167036.5677887218</v>
       </c>
       <c r="H452" t="n">
-        <v>590841.0593741719</v>
+        <v>714917.6818427478</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1562.231466726676</v>
+        <v>1952.789333408346</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3149.240758891025</v>
+        <v>3936.550948613783</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4761.455215897783</v>
+        <v>5951.819019872233</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6399.307790093049</v>
+        <v>7999.134737616318</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8063.23692410125</v>
+        <v>10079.04615512657</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>9753.68641156211</v>
+        <v>12192.10801445265</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>11471.10524059318</v>
+        <v>14338.88155074148</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>13215.9474193051</v>
+        <v>16519.93427413138</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>14988.67178270165</v>
+        <v>18735.83972837708</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>16789.74178030777</v>
+        <v>20987.17722538473</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>18619.6252438775</v>
+        <v>23274.53155484689</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>20478.79413454716</v>
+        <v>25598.49266818396</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>22367.7242688185</v>
+        <v>27959.65533602314</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>24286.89502277552</v>
+        <v>30358.61877846942</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>26236.78901396181</v>
+        <v>32795.98626745228</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>28217.89176037541</v>
+        <v>35272.36470046929</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>30230.69131606622</v>
+        <v>37788.36414508281</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>32275.67788285805</v>
+        <v>40344.59735357259</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>34353.34339775828</v>
+        <v>42941.67924719788</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>36464.18109565748</v>
+        <v>45580.2263695719</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>38608.68504697403</v>
+        <v>48260.85630871758</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>40787.34966994635</v>
+        <v>50984.18708743298</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>43000.66921733767</v>
+        <v>53750.83652167213</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>45249.13723737408</v>
+        <v>56561.42154671764</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>47533.24600880642</v>
+        <v>59416.55751100808</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>49853.48595005651</v>
+        <v>62316.85743757067</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>52210.34500248212</v>
+        <v>65262.93125310268</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>54604.30798787673</v>
+        <v>68255.38498484595</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>57035.85594040353</v>
+        <v>71294.81992550446</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>59505.46541325292</v>
+        <v>74381.83176656619</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>62013.60776040424</v>
+        <v>77517.00970050532</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>64560.74839397206</v>
+        <v>80700.93549246513</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>67147.3460177168</v>
+        <v>83934.18252214606</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>69773.85183740489</v>
+        <v>87217.3147967562</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>72440.70874881347</v>
+        <v>90550.88593601692</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>75148.35050428359</v>
+        <v>93935.43813035452</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>77897.20085884084</v>
+        <v>97371.50107355113</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>80687.67269702231</v>
+        <v>100859.5908712779</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>83520.16714166096</v>
+        <v>104400.2089270763</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>86395.07264600336</v>
+        <v>107993.8408075042</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>89312.76407065539</v>
+        <v>111640.9550883192</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>92273.60174697166</v>
+        <v>115342.0021837146</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>95277.9305286263</v>
+        <v>119097.4131607829</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>98326.07883321805</v>
+        <v>122907.5985415226</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>101418.3576758894</v>
+        <v>126772.9470948618</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>104555.0596970435</v>
+        <v>130693.8246213045</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>107736.4581863681</v>
+        <v>134670.5727329602</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>110962.806105471</v>
+        <v>138703.5076318388</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>114234.33511155</v>
+        <v>142792.9188894376</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>117551.2545846056</v>
+        <v>146939.0682307571</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>120913.7506608076</v>
+        <v>151142.1883260096</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>124321.9852747058</v>
+        <v>155402.4815933823</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>127776.0952130563</v>
+        <v>159720.1190163205</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>131276.1911831023</v>
+        <v>164095.238978878</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>134822.3568982082</v>
+        <v>168527.9461227604</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>134795.7569839054</v>
+        <v>168494.6962298819</v>
       </c>
       <c r="C358" t="n">
-        <v>4109.695794142548</v>
+        <v>5137.119742678181</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>134767.2925104916</v>
+        <v>168459.1156381147</v>
       </c>
       <c r="C359" t="n">
-        <v>8273.921016989143</v>
+        <v>10342.40127123642</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>134736.8479348837</v>
+        <v>168421.0599186048</v>
       </c>
       <c r="C360" t="n">
-        <v>12492.80400142575</v>
+        <v>15616.00500178217</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>134704.3016821326</v>
+        <v>168380.3771026659</v>
       </c>
       <c r="C361" t="n">
-        <v>16766.44538651478</v>
+        <v>20958.05673314346</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>134669.5259095918</v>
+        <v>168336.9073869899</v>
       </c>
       <c r="C362" t="n">
-        <v>21094.91749637598</v>
+        <v>26368.64687046995</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>134632.386267366</v>
+        <v>168290.4828342076</v>
       </c>
       <c r="C363" t="n">
-        <v>25478.26376347123</v>
+        <v>31847.82970433902</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>134592.7416554368</v>
+        <v>168240.9270692961</v>
       </c>
       <c r="C364" t="n">
-        <v>29916.49819925067</v>
+        <v>37395.62274906331</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>134550.4439779105</v>
+        <v>168188.0549723882</v>
       </c>
       <c r="C365" t="n">
-        <v>34409.60491500713</v>
+        <v>43012.00614375887</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>134505.3378948863</v>
+        <v>168131.6723686079</v>
       </c>
       <c r="C366" t="n">
-        <v>38957.53769566982</v>
+        <v>48696.92211958724</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>134457.2605724975</v>
+        <v>168071.575715622</v>
       </c>
       <c r="C367" t="n">
-        <v>43560.21962913113</v>
+        <v>54450.27453641385</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>134406.0414317422</v>
+        <v>168007.5517896779</v>
       </c>
       <c r="C368" t="n">
-        <v>48217.54279352803</v>
+        <v>60271.92849191</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>134351.5018967772</v>
+        <v>167939.3773709716</v>
       </c>
       <c r="C369" t="n">
-        <v>52929.36800472975</v>
+        <v>66161.71000591213</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>134293.4551434223</v>
+        <v>167866.818929278</v>
       </c>
       <c r="C370" t="n">
-        <v>57695.52462606716</v>
+        <v>72119.40578258388</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>134231.7058486882</v>
+        <v>167789.6323108604</v>
       </c>
       <c r="C371" t="n">
-        <v>62515.81044212358</v>
+        <v>78144.76305265442</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>134166.0499422179</v>
+        <v>167707.5624277726</v>
       </c>
       <c r="C372" t="n">
-        <v>67389.99159815939</v>
+        <v>84237.48949769918</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>134096.2743606101</v>
+        <v>167620.3429507629</v>
       </c>
       <c r="C373" t="n">
-        <v>67389.60427136545</v>
+        <v>84237.00533920672</v>
       </c>
       <c r="D373" t="n">
-        <v>4168.572026282972</v>
+        <v>5210.715032853709</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>134022.1568056742</v>
+        <v>167527.6960070929</v>
       </c>
       <c r="C374" t="n">
-        <v>67389.15608185789</v>
+        <v>84236.44510232229</v>
       </c>
       <c r="D374" t="n">
-        <v>8382.307688121962</v>
+        <v>10477.88461015244</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>133943.4655077528</v>
+        <v>167429.3318846911</v>
       </c>
       <c r="C375" t="n">
-        <v>67388.63813634594</v>
+        <v>84235.79767043235</v>
       </c>
       <c r="D375" t="n">
-        <v>12640.93667476234</v>
+        <v>15801.1708434529</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>133859.9589953371</v>
+        <v>167324.9487441715</v>
       </c>
       <c r="C376" t="n">
-        <v>67388.0403526101</v>
+        <v>84235.05044076257</v>
       </c>
       <c r="D376" t="n">
-        <v>16944.16328725701</v>
+        <v>21180.20410907124</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>133771.3858722923</v>
+        <v>167214.2323403655</v>
       </c>
       <c r="C377" t="n">
-        <v>67387.35131787302</v>
+        <v>84234.18914734124</v>
       </c>
       <c r="D377" t="n">
-        <v>21291.66679615218</v>
+        <v>26614.5834951902</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>133677.4846041063</v>
+        <v>167096.8557551329</v>
       </c>
       <c r="C378" t="n">
-        <v>67386.55813286983</v>
+        <v>84233.19766608722</v>
       </c>
       <c r="D378" t="n">
-        <v>25683.10186951345</v>
+        <v>32103.87733689178</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>133577.9833146732</v>
+        <v>166972.4791433416</v>
       </c>
       <c r="C379" t="n">
-        <v>67385.64624053713</v>
+        <v>84232.05780067135</v>
       </c>
       <c r="D379" t="n">
-        <v>30118.0990716538</v>
+        <v>37647.62383956722</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>133472.5995952236</v>
+        <v>166840.7494940296</v>
       </c>
       <c r="C380" t="n">
-        <v>67384.59923820893</v>
+        <v>84230.74904776107</v>
       </c>
       <c r="D380" t="n">
-        <v>34596.26543263216</v>
+        <v>43245.33179079016</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>133361.0403271161</v>
+        <v>166701.3004088952</v>
       </c>
       <c r="C381" t="n">
-        <v>67383.3986721827</v>
+        <v>84229.2483402283</v>
       </c>
       <c r="D381" t="n">
-        <v>39117.18508828602</v>
+        <v>48896.48136035748</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>133243.0015203085</v>
+        <v>166553.7519003858</v>
       </c>
       <c r="C382" t="n">
-        <v>67382.0238135026</v>
+        <v>84227.52976687819</v>
       </c>
       <c r="D382" t="n">
-        <v>43680.41999023959</v>
+        <v>54600.52498779944</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>133118.1681694324</v>
+        <v>166397.7102117907</v>
       </c>
       <c r="C383" t="n">
-        <v>67380.45141380068</v>
+        <v>84225.5642672508</v>
       </c>
       <c r="D383" t="n">
-        <v>43680.33818024708</v>
+        <v>54600.4227253088</v>
       </c>
       <c r="E383" t="n">
-        <v>3363.063618856196</v>
+        <v>4203.829523570242</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>132986.2141294972</v>
+        <v>166232.7676618716</v>
       </c>
       <c r="C384" t="n">
-        <v>67378.65544004031</v>
+        <v>84223.31930005029</v>
       </c>
       <c r="D384" t="n">
-        <v>43680.24064684916</v>
+        <v>54600.30080856138</v>
       </c>
       <c r="E384" t="n">
-        <v>6756.354609851185</v>
+        <v>8445.443262313976</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>132846.8020133565</v>
+        <v>166058.5025166958</v>
       </c>
       <c r="C385" t="n">
-        <v>67376.60678702517</v>
+        <v>84220.75848378139</v>
       </c>
       <c r="D385" t="n">
-        <v>43680.12456255854</v>
+        <v>54600.15570319811</v>
       </c>
       <c r="E385" t="n">
-        <v>10179.51014878194</v>
+        <v>12724.38768597742</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>132699.5831131702</v>
+        <v>165874.4788914628</v>
       </c>
       <c r="C386" t="n">
-        <v>67374.2729665682</v>
+        <v>84217.84120821017</v>
       </c>
       <c r="D386" t="n">
-        <v>43679.98663019581</v>
+        <v>54599.9832877447</v>
       </c>
       <c r="E386" t="n">
-        <v>13632.15412197564</v>
+        <v>17040.19265246954</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>132544.1973481939</v>
+        <v>165680.2466852426</v>
       </c>
       <c r="C387" t="n">
-        <v>67371.61777226422</v>
+        <v>84214.5222153302</v>
       </c>
       <c r="D387" t="n">
-        <v>43679.8230122063</v>
+        <v>54599.77876525783</v>
       </c>
       <c r="E387" t="n">
-        <v>17113.89793699961</v>
+        <v>21392.3724212495</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>132380.2732413261</v>
+        <v>165475.3415516577</v>
       </c>
       <c r="C388" t="n">
-        <v>67368.60091887749</v>
+        <v>84210.7511485968</v>
       </c>
       <c r="D388" t="n">
-        <v>43679.62925065575</v>
+        <v>54599.53656331964</v>
       </c>
       <c r="E388" t="n">
-        <v>20624.34138343203</v>
+        <v>25780.42672929003</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>132207.4279269296</v>
+        <v>165259.2849086622</v>
       </c>
       <c r="C389" t="n">
-        <v>67365.17765544281</v>
+        <v>84206.47206930345</v>
       </c>
       <c r="D389" t="n">
-        <v>43679.40017689853</v>
+        <v>54599.25022112313</v>
       </c>
       <c r="E389" t="n">
-        <v>24163.07354214719</v>
+        <v>30203.84192768396</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>132025.2671925332</v>
+        <v>165031.5839906667</v>
       </c>
       <c r="C390" t="n">
-        <v>67361.2983512889</v>
+        <v>84201.62293911105</v>
       </c>
       <c r="D390" t="n">
-        <v>43679.1298098401</v>
+        <v>54598.91226230007</v>
       </c>
       <c r="E390" t="n">
-        <v>27729.6737413285</v>
+        <v>34662.0921766606</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>131833.3855570908</v>
+        <v>164791.7319463637</v>
       </c>
       <c r="C391" t="n">
-        <v>67356.90805432732</v>
+        <v>84196.13506790907</v>
       </c>
       <c r="D391" t="n">
-        <v>43678.81124164299</v>
+        <v>54598.51405205369</v>
       </c>
       <c r="E391" t="n">
-        <v>31323.71255717401</v>
+        <v>39154.64069646748</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>131631.3663885461</v>
+        <v>164539.2079856828</v>
       </c>
       <c r="C392" t="n">
-        <v>67351.94602110962</v>
+        <v>84189.93252638694</v>
       </c>
       <c r="D392" t="n">
-        <v>43678.43650965654</v>
+        <v>54598.04563707062</v>
       </c>
       <c r="E392" t="n">
-        <v>34944.75285700936</v>
+        <v>43680.94107126167</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>131418.7820635058</v>
+        <v>164273.4775793824</v>
       </c>
       <c r="C393" t="n">
-        <v>67346.34521834501</v>
+        <v>84182.93152293119</v>
       </c>
       <c r="D393" t="n">
-        <v>43677.99645328303</v>
+        <v>54597.49556660372</v>
       </c>
       <c r="E393" t="n">
-        <v>34944.70972080249</v>
+        <v>43680.88715100308</v>
       </c>
       <c r="F393" t="n">
-        <v>5920.121729497791</v>
+        <v>7400.15216187223</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>131195.1941718684</v>
+        <v>163993.9927148356</v>
       </c>
       <c r="C394" t="n">
-        <v>67340.03179578661</v>
+        <v>84175.03974473318</v>
       </c>
       <c r="D394" t="n">
-        <v>43677.48055443209</v>
+        <v>54596.85069304007</v>
       </c>
       <c r="E394" t="n">
-        <v>34944.65747582719</v>
+        <v>43680.82184478397</v>
       </c>
       <c r="F394" t="n">
-        <v>11882.63227559281</v>
+        <v>14853.290344491</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>130960.1537692854</v>
+        <v>163700.1922116069</v>
       </c>
       <c r="C395" t="n">
-        <v>67332.92453064422</v>
+        <v>84166.1556633052</v>
       </c>
       <c r="D395" t="n">
-        <v>43676.87676015969</v>
+        <v>54596.09595019956</v>
       </c>
       <c r="E395" t="n">
-        <v>34944.59431883498</v>
+        <v>43680.7428985437</v>
       </c>
       <c r="F395" t="n">
-        <v>17886.79834571565</v>
+        <v>22358.49793214454</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>130713.2016803457</v>
+        <v>163391.5021004321</v>
       </c>
       <c r="C396" t="n">
-        <v>67324.93424396143</v>
+        <v>84156.16780495172</v>
       </c>
       <c r="D396" t="n">
-        <v>43676.17128604195</v>
+        <v>54595.21410755238</v>
       </c>
       <c r="E396" t="n">
-        <v>34944.51811579565</v>
+        <v>43680.64764474454</v>
       </c>
       <c r="F396" t="n">
-        <v>23931.88204379822</v>
+        <v>29914.85255474775</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>130453.8688553682</v>
+        <v>163067.3360692103</v>
       </c>
       <c r="C397" t="n">
-        <v>67315.96318970867</v>
+        <v>84144.95398713576</v>
       </c>
       <c r="D397" t="n">
-        <v>43675.34839879905</v>
+        <v>54594.18549849875</v>
       </c>
       <c r="E397" t="n">
-        <v>34944.42634664892</v>
+        <v>43680.53293331113</v>
       </c>
       <c r="F397" t="n">
-        <v>30017.14292646407</v>
+        <v>37521.42865808005</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>130181.6767836675</v>
+        <v>162727.0959795844</v>
       </c>
       <c r="C398" t="n">
-        <v>67305.90441769116</v>
+        <v>84132.38052211388</v>
       </c>
       <c r="D398" t="n">
-        <v>43674.39017666261</v>
+        <v>54592.98772082821</v>
       </c>
       <c r="E398" t="n">
-        <v>34944.3160418933</v>
+        <v>43680.3950523666</v>
       </c>
       <c r="F398" t="n">
-        <v>36141.84010994281</v>
+        <v>45177.30013742846</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>129896.1379661062</v>
+        <v>162370.1724576329</v>
       </c>
       <c r="C399" t="n">
-        <v>67294.64111175219</v>
+        <v>84118.30138969017</v>
       </c>
       <c r="D399" t="n">
-        <v>43673.27624597443</v>
+        <v>54591.59530746799</v>
       </c>
       <c r="E399" t="n">
-        <v>34944.18371000342</v>
+        <v>43680.22963750424</v>
       </c>
       <c r="F399" t="n">
-        <v>42305.23442251921</v>
+        <v>52881.54302814895</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>129596.7564496844</v>
+        <v>161995.9455621057</v>
       </c>
       <c r="C400" t="n">
-        <v>67282.04590516699</v>
+        <v>84102.55738145867</v>
       </c>
       <c r="D400" t="n">
-        <v>43671.98349251803</v>
+        <v>54589.97936564748</v>
       </c>
       <c r="E400" t="n">
-        <v>34944.0252545777</v>
+        <v>43680.03156822209</v>
       </c>
       <c r="F400" t="n">
-        <v>48506.59059697417</v>
+        <v>60633.23824621765</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>129283.0284268183</v>
+        <v>161603.785533523</v>
       </c>
       <c r="C401" t="n">
-        <v>67267.98017557096</v>
+        <v>84084.97521946364</v>
       </c>
       <c r="D401" t="n">
-        <v>43670.48574611986</v>
+        <v>54588.10718264977</v>
       </c>
       <c r="E401" t="n">
-        <v>34943.83588002588</v>
+        <v>43679.79485003232</v>
       </c>
       <c r="F401" t="n">
-        <v>54745.17949713978</v>
+        <v>68431.47437142466</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>128954.4429018401</v>
+        <v>161193.0536273002</v>
       </c>
       <c r="C402" t="n">
-        <v>67252.29332224582</v>
+        <v>84065.36665280716</v>
       </c>
       <c r="D402" t="n">
-        <v>43668.75343711807</v>
+        <v>54585.94179639756</v>
       </c>
       <c r="E402" t="n">
-        <v>34943.60998451398</v>
+        <v>43679.51248064244</v>
       </c>
       <c r="F402" t="n">
-        <v>61020.28037231218</v>
+        <v>76275.35046539016</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>128610.4824271028</v>
+        <v>160763.1030338786</v>
       </c>
       <c r="C403" t="n">
-        <v>67234.82202909765</v>
+        <v>84043.527536372</v>
       </c>
       <c r="D403" t="n">
-        <v>43666.75322338553</v>
+        <v>54583.44152923187</v>
       </c>
       <c r="E403" t="n">
-        <v>34943.34103879212</v>
+        <v>43679.17629849012</v>
       </c>
       <c r="F403" t="n">
-        <v>61020.2269493385</v>
+        <v>76275.28368667305</v>
       </c>
       <c r="G403" t="n">
-        <v>16384.05053903248</v>
+        <v>12089.7657460393</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>128250.623910889</v>
+        <v>160313.2798886114</v>
       </c>
       <c r="C404" t="n">
-        <v>67215.38951719881</v>
+        <v>84019.23689649845</v>
       </c>
       <c r="D404" t="n">
-        <v>43664.44758671483</v>
+        <v>54580.55948339348</v>
       </c>
       <c r="E404" t="n">
-        <v>34943.0214494411</v>
+        <v>43678.77681180136</v>
       </c>
       <c r="F404" t="n">
-        <v>61020.16136666074</v>
+        <v>76275.20170832583</v>
       </c>
       <c r="G404" t="n">
-        <v>32859.26906512315</v>
+        <v>24246.80420980159</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>127874.3394991147</v>
+        <v>159842.9243738934</v>
       </c>
       <c r="C405" t="n">
-        <v>67193.8047913269</v>
+        <v>83992.25598915854</v>
       </c>
       <c r="D405" t="n">
-        <v>43661.79439752953</v>
+        <v>54577.24299691185</v>
       </c>
       <c r="E405" t="n">
-        <v>34942.64240498885</v>
+        <v>43678.30300623603</v>
       </c>
       <c r="F405" t="n">
-        <v>61020.08102592215</v>
+        <v>76275.10128240261</v>
       </c>
       <c r="G405" t="n">
-        <v>49423.89204790944</v>
+        <v>36469.81408493903</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>127481.0975325718</v>
+        <v>159351.3719157148</v>
       </c>
       <c r="C406" t="n">
-        <v>67169.86188551843</v>
+        <v>83962.32735689798</v>
       </c>
       <c r="D406" t="n">
-        <v>43658.74644707971</v>
+        <v>54573.43305884959</v>
       </c>
       <c r="E406" t="n">
-        <v>34942.19370326892</v>
+        <v>43677.74212908612</v>
       </c>
       <c r="F406" t="n">
-        <v>61019.98281319009</v>
+        <v>76274.97851648752</v>
       </c>
       <c r="G406" t="n">
-        <v>66076.20284040608</v>
+        <v>48757.52866027598</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>127070.3635811741</v>
+        <v>158837.9544764677</v>
       </c>
       <c r="C407" t="n">
-        <v>67143.33911325222</v>
+        <v>83929.17389156519</v>
       </c>
       <c r="D407" t="n">
-        <v>43655.25094651587</v>
+        <v>54569.06368314479</v>
       </c>
       <c r="E407" t="n">
-        <v>34941.66355832478</v>
+        <v>43677.07944790594</v>
       </c>
       <c r="F407" t="n">
-        <v>61019.8630054801</v>
+        <v>76274.82875685005</v>
       </c>
       <c r="G407" t="n">
-        <v>82814.53785737441</v>
+        <v>61108.72037881812</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>126641.6015563574</v>
+        <v>158302.0019454468</v>
       </c>
       <c r="C408" t="n">
-        <v>67113.99832848737</v>
+        <v>83892.49791060915</v>
       </c>
       <c r="D408" t="n">
-        <v>43651.24899251616</v>
+        <v>54564.06124064514</v>
       </c>
       <c r="E408" t="n">
-        <v>34941.03838510603</v>
+        <v>43676.29798138251</v>
       </c>
       <c r="F408" t="n">
-        <v>61019.71716219302</v>
+        <v>76274.64645274119</v>
       </c>
       <c r="G408" t="n">
-        <v>99637.29274591969</v>
+        <v>73522.20539102684</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>126194.2749024344</v>
+        <v>157742.8436280431</v>
       </c>
       <c r="C409" t="n">
-        <v>67081.5842043946</v>
+        <v>83851.98025549318</v>
       </c>
       <c r="D409" t="n">
-        <v>43646.67499946806</v>
+        <v>54558.34374933503</v>
       </c>
       <c r="E409" t="n">
-        <v>34940.30256016218</v>
+        <v>43675.37820020271</v>
       </c>
       <c r="F409" t="n">
-        <v>61019.53999939977</v>
+        <v>76274.42499924962</v>
       </c>
       <c r="G409" t="n">
-        <v>116542.9285296642</v>
+        <v>85996.84808859508</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>125727.8478673213</v>
+        <v>157159.8098341517</v>
       </c>
       <c r="C410" t="n">
-        <v>67045.82353722956</v>
+        <v>83807.27942153688</v>
       </c>
       <c r="D410" t="n">
-        <v>43641.4560985834</v>
+        <v>54551.82012322919</v>
       </c>
       <c r="E410" t="n">
-        <v>34939.43815651684</v>
+        <v>43674.29769564601</v>
       </c>
       <c r="F410" t="n">
-        <v>61019.32524469714</v>
+        <v>76274.15655587132</v>
       </c>
       <c r="G410" t="n">
-        <v>133529.9777069597</v>
+        <v>98531.56560430898</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>125241.7868526302</v>
+        <v>156552.2335657879</v>
       </c>
       <c r="C411" t="n">
-        <v>67006.42458339852</v>
+        <v>83758.03072924809</v>
       </c>
       <c r="D411" t="n">
-        <v>43635.51150475196</v>
+        <v>54544.3893809399</v>
       </c>
       <c r="E411" t="n">
-        <v>34938.42465090656</v>
+        <v>43673.03081363318</v>
       </c>
       <c r="F411" t="n">
-        <v>61019.0654701349</v>
+        <v>76273.83183766856</v>
       </c>
       <c r="G411" t="n">
-        <v>150597.0502828065</v>
+        <v>111125.3322629917</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>124735.5618426675</v>
+        <v>155919.4523033344</v>
       </c>
       <c r="C412" t="n">
-        <v>66963.07643834644</v>
+        <v>83703.84554793299</v>
       </c>
       <c r="D412" t="n">
-        <v>43628.75185241948</v>
+        <v>54535.9398155243</v>
       </c>
       <c r="E412" t="n">
-        <v>34937.23860159679</v>
+        <v>43671.54825199596</v>
       </c>
       <c r="F412" t="n">
-        <v>61018.75190048727</v>
+        <v>76273.43987560899</v>
       </c>
       <c r="G412" t="n">
-        <v>167742.8397131413</v>
+        <v>123777.1839677841</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>124208.6479113872</v>
+        <v>155260.8098892341</v>
       </c>
       <c r="C413" t="n">
-        <v>66915.44846645182</v>
+        <v>83644.3105830647</v>
       </c>
       <c r="D413" t="n">
-        <v>43621.07850230703</v>
+        <v>54526.34812788374</v>
       </c>
       <c r="E413" t="n">
-        <v>34935.85329504676</v>
+        <v>43669.81661880841</v>
       </c>
       <c r="F413" t="n">
-        <v>61018.37419390815</v>
+        <v>76272.96774238511</v>
       </c>
       <c r="G413" t="n">
-        <v>167742.7273253464</v>
+        <v>123777.1010370028</v>
       </c>
       <c r="H413" t="n">
-        <v>16405.63576934146</v>
+        <v>12105.69345435466</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>123660.5268058263</v>
+        <v>154575.658507283</v>
       </c>
       <c r="C414" t="n">
-        <v>66863.18979162641</v>
+        <v>83578.98723953296</v>
       </c>
       <c r="D414" t="n">
-        <v>43612.38282137371</v>
+        <v>54515.47852671709</v>
       </c>
       <c r="E414" t="n">
-        <v>34934.23835979182</v>
+        <v>43667.79794973975</v>
       </c>
       <c r="F414" t="n">
-        <v>61017.92019177814</v>
+        <v>76272.4002397226</v>
       </c>
       <c r="G414" t="n">
-        <v>167742.5878559164</v>
+        <v>123776.9981227244</v>
       </c>
       <c r="H414" t="n">
-        <v>32884.04826896406</v>
+        <v>24265.08874628396</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>123090.6886039945</v>
+        <v>153863.3607549933</v>
       </c>
       <c r="C415" t="n">
-        <v>66805.92885878435</v>
+        <v>83507.41107348037</v>
       </c>
       <c r="D415" t="n">
-        <v>43602.54543905884</v>
+        <v>54503.18179882349</v>
       </c>
       <c r="E415" t="n">
-        <v>34932.35934604869</v>
+        <v>43665.44918256083</v>
       </c>
       <c r="F415" t="n">
-        <v>61017.37563432097</v>
+        <v>76271.71954290112</v>
       </c>
       <c r="G415" t="n">
-        <v>167742.4151725231</v>
+        <v>123776.8706999136</v>
       </c>
       <c r="H415" t="n">
-        <v>49434.27010943733</v>
+        <v>36477.47204061192</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>122498.633444608</v>
+        <v>153123.2918057601</v>
       </c>
       <c r="C416" t="n">
-        <v>66743.27307675152</v>
+        <v>83429.09134593932</v>
       </c>
       <c r="D416" t="n">
-        <v>43591.43548352349</v>
+        <v>54489.29435440431</v>
       </c>
       <c r="E416" t="n">
-        <v>34930.17726973126</v>
+        <v>43662.72158716405</v>
       </c>
       <c r="F416" t="n">
-        <v>61016.72383834784</v>
+        <v>76270.90479793472</v>
       </c>
       <c r="G416" t="n">
-        <v>167742.2018515263</v>
+        <v>123776.7132906774</v>
       </c>
       <c r="H416" t="n">
-        <v>66055.43599273643</v>
+        <v>48742.2048352541</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>121883.8733254484</v>
+        <v>152354.8416568105</v>
       </c>
       <c r="C417" t="n">
-        <v>66674.80855352116</v>
+        <v>83343.51069190139</v>
       </c>
       <c r="D417" t="n">
-        <v>43578.90980233894</v>
+        <v>54473.63725292363</v>
       </c>
       <c r="E417" t="n">
-        <v>34927.64811979875</v>
+        <v>43659.56014974841</v>
       </c>
       <c r="F417" t="n">
-        <v>61015.94533328361</v>
+        <v>76269.93166660443</v>
       </c>
       <c r="G417" t="n">
-        <v>167741.9389289219</v>
+        <v>123776.5192804913</v>
       </c>
       <c r="H417" t="n">
-        <v>82746.7878536093</v>
+        <v>61058.72775502451</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>121245.9339664935</v>
+        <v>151557.417458117</v>
       </c>
       <c r="C418" t="n">
-        <v>66600.0999350154</v>
+        <v>83250.12491876919</v>
       </c>
       <c r="D418" t="n">
-        <v>43564.81217283771</v>
+        <v>54456.01521604708</v>
       </c>
       <c r="E418" t="n">
-        <v>34924.72232814515</v>
+        <v>43655.90291018142</v>
       </c>
       <c r="F418" t="n">
-        <v>61015.01745144484</v>
+        <v>76268.77181430596</v>
       </c>
       <c r="G418" t="n">
-        <v>167741.6156083488</v>
+        <v>123776.2807027365</v>
       </c>
       <c r="H418" t="n">
-        <v>99507.67981369075</v>
+        <v>73426.56420726876</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>120584.3567333186</v>
+        <v>150730.4459166483</v>
       </c>
       <c r="C419" t="n">
-        <v>66518.69035867047</v>
+        <v>83148.36294833804</v>
       </c>
       <c r="D419" t="n">
-        <v>43548.97250814464</v>
+        <v>54436.21563518074</v>
       </c>
       <c r="E419" t="n">
-        <v>34921.34420158681</v>
+        <v>43651.68025198347</v>
       </c>
       <c r="F419" t="n">
-        <v>61013.91386838783</v>
+        <v>76267.39233548469</v>
       </c>
       <c r="G419" t="n">
-        <v>167741.2189198146</v>
+        <v>123775.987986876</v>
       </c>
       <c r="H419" t="n">
-        <v>116337.5829256236</v>
+        <v>85845.32388254383</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>119898.7006155941</v>
+        <v>149873.3757694927</v>
       </c>
       <c r="C420" t="n">
-        <v>66430.10153321816</v>
+        <v>83037.62691652263</v>
       </c>
       <c r="D420" t="n">
-        <v>43531.20606573381</v>
+        <v>54414.00758216721</v>
       </c>
       <c r="E420" t="n">
-        <v>34917.45131591463</v>
+        <v>43646.81414489326</v>
       </c>
       <c r="F420" t="n">
-        <v>61012.60408902964</v>
+        <v>76265.75511128696</v>
       </c>
       <c r="G420" t="n">
-        <v>167740.7333220879</v>
+        <v>123775.6296650588</v>
       </c>
       <c r="H420" t="n">
-        <v>133236.0896835262</v>
+        <v>98314.70608288521</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>119188.544254834</v>
+        <v>148985.6803185426</v>
       </c>
       <c r="C421" t="n">
-        <v>66333.83395597234</v>
+        <v>82917.29244496537</v>
       </c>
       <c r="D421" t="n">
-        <v>43511.31266620247</v>
+        <v>54389.14083275303</v>
       </c>
       <c r="E421" t="n">
-        <v>34912.9738724542</v>
+        <v>43641.21734056772</v>
       </c>
       <c r="F421" t="n">
-        <v>61011.05287517953</v>
+        <v>76263.81609397432</v>
       </c>
       <c r="G421" t="n">
-        <v>167740.1402409348</v>
+        <v>123775.1920313862</v>
       </c>
       <c r="H421" t="n">
-        <v>150202.9182751823</v>
+        <v>110834.5028594909</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>118453.4880148602</v>
+        <v>148066.8600185754</v>
       </c>
       <c r="C422" t="n">
-        <v>66229.36727874013</v>
+        <v>82786.7090984251</v>
       </c>
       <c r="D422" t="n">
-        <v>43489.07593080623</v>
+        <v>54361.34491350774</v>
       </c>
       <c r="E422" t="n">
-        <v>34907.83401812168</v>
+        <v>43634.79252265207</v>
       </c>
       <c r="F422" t="n">
-        <v>61009.21961011099</v>
+        <v>76261.52451263864</v>
       </c>
       <c r="G422" t="n">
-        <v>167739.4175345832</v>
+        <v>123774.6587474786</v>
       </c>
       <c r="H422" t="n">
-        <v>167237.9165502669</v>
+        <v>123404.6019408697</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>117693.1560877683</v>
+        <v>147116.4451097105</v>
       </c>
       <c r="C423" t="n">
-        <v>66116.16083314942</v>
+        <v>82645.20104143671</v>
       </c>
       <c r="D423" t="n">
-        <v>43464.26254714721</v>
+        <v>54330.32818393396</v>
       </c>
       <c r="E423" t="n">
-        <v>34901.94513057875</v>
+        <v>43627.43141322341</v>
       </c>
       <c r="F423" t="n">
-        <v>61007.05759586821</v>
+        <v>76258.82199483519</v>
       </c>
       <c r="G423" t="n">
-        <v>167738.5388769736</v>
+        <v>123774.0103873771</v>
       </c>
       <c r="H423" t="n">
-        <v>184341.0656778538</v>
+        <v>136024.9894317101</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>116907.1986274993</v>
+        <v>146133.9982843742</v>
       </c>
       <c r="C424" t="n">
-        <v>65993.65432571271</v>
+        <v>82492.06790714082</v>
       </c>
       <c r="D424" t="n">
-        <v>43436.62157323692</v>
+        <v>54295.77696654609</v>
       </c>
       <c r="E424" t="n">
-        <v>34895.21107077579</v>
+        <v>43619.01383846971</v>
       </c>
       <c r="F424" t="n">
-        <v>61004.51327914675</v>
+        <v>76255.64159893335</v>
       </c>
       <c r="G424" t="n">
-        <v>167737.4730485113</v>
+        <v>123773.2239141906</v>
       </c>
       <c r="H424" t="n">
-        <v>201512.4834652281</v>
+        <v>148695.7522618269</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>116095.2939024587</v>
+        <v>145119.1173780735</v>
       </c>
       <c r="C425" t="n">
-        <v>65861.268712319</v>
+        <v>82326.58589039868</v>
       </c>
       <c r="D425" t="n">
-        <v>43405.88379095297</v>
+        <v>54257.35473869115</v>
       </c>
       <c r="E425" t="n">
-        <v>34887.52540592788</v>
+        <v>43609.40675740982</v>
       </c>
       <c r="F425" t="n">
-        <v>61001.52540182899</v>
+        <v>76251.90675228614</v>
       </c>
       <c r="G425" t="n">
-        <v>167736.1831231954</v>
+        <v>123772.2720802798</v>
       </c>
       <c r="H425" t="n">
-        <v>218752.427308843</v>
+        <v>161417.0803636679</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>115257.1504579763</v>
+        <v>144071.4380724704</v>
       </c>
       <c r="C426" t="n">
-        <v>65718.40726105985</v>
+        <v>82148.00907632476</v>
       </c>
       <c r="D426" t="n">
-        <v>43371.7611206571</v>
+        <v>54214.70140082133</v>
       </c>
       <c r="E426" t="n">
-        <v>34878.77060679199</v>
+        <v>43598.46325848997</v>
       </c>
       <c r="F426" t="n">
-        <v>60998.0240726046</v>
+        <v>76247.53009075567</v>
       </c>
       <c r="G426" t="n">
-        <v>167734.6255401657</v>
+        <v>123771.1227421528</v>
       </c>
       <c r="H426" t="n">
-        <v>236061.2967468974</v>
+        <v>174189.2685558568</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>114392.5092787759</v>
+        <v>142990.6365984699</v>
       </c>
       <c r="C427" t="n">
-        <v>65564.45681134294</v>
+        <v>81955.57101417858</v>
       </c>
       <c r="D427" t="n">
-        <v>43333.94610942587</v>
+        <v>54167.43263678229</v>
       </c>
       <c r="E427" t="n">
-        <v>34868.81722400044</v>
+        <v>43586.02153000052</v>
       </c>
       <c r="F427" t="n">
-        <v>60993.92975657612</v>
+        <v>76242.41219572007</v>
       </c>
       <c r="G427" t="n">
-        <v>167732.7490469191</v>
+        <v>123769.7380806663</v>
       </c>
       <c r="H427" t="n">
-        <v>253439.6355816882</v>
+        <v>187012.7181092738</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>113501.1459410422</v>
+        <v>141876.4324263028</v>
       </c>
       <c r="C428" t="n">
-        <v>65398.78923612724</v>
+        <v>81748.48654515899</v>
       </c>
       <c r="D428" t="n">
-        <v>43292.11150594518</v>
+        <v>54115.13938243142</v>
       </c>
       <c r="E428" t="n">
-        <v>34857.52304915113</v>
+        <v>43571.90381143888</v>
       </c>
       <c r="F428" t="n">
-        <v>60989.15218035436</v>
+        <v>76236.44022544286</v>
       </c>
       <c r="G428" t="n">
-        <v>167730.4935007016</v>
+        <v>123768.0737165742</v>
       </c>
       <c r="H428" t="n">
-        <v>270888.1335384605</v>
+        <v>199887.9379711187</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>112582.8727431159</v>
+        <v>140728.590928895</v>
       </c>
       <c r="C429" t="n">
-        <v>65220.76311282588</v>
+        <v>81525.9538910323</v>
       </c>
       <c r="D429" t="n">
-        <v>43245.90993561896</v>
+        <v>54057.38741952364</v>
       </c>
       <c r="E429" t="n">
-        <v>34844.73226735068</v>
+        <v>43555.91533418832</v>
       </c>
       <c r="F429" t="n">
-        <v>60983.5891508988</v>
+        <v>76229.48643862341</v>
       </c>
       <c r="G429" t="n">
-        <v>167727.7885139347</v>
+        <v>123766.0777109906</v>
       </c>
       <c r="H429" t="n">
-        <v>288407.6274259877</v>
+        <v>212815.5456213012</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>111637.5408033524</v>
+        <v>139546.9260041906</v>
       </c>
       <c r="C430" t="n">
-        <v>65029.72560696684</v>
+        <v>81287.15700870847</v>
       </c>
       <c r="D430" t="n">
-        <v>43194.97368981993</v>
+        <v>53993.71711227485</v>
       </c>
       <c r="E430" t="n">
-        <v>34830.27460894314</v>
+        <v>43537.84326117889</v>
       </c>
       <c r="F430" t="n">
-        <v>60977.12528726663</v>
+        <v>76221.40660908321</v>
       </c>
       <c r="G430" t="n">
-        <v>167724.5519289923</v>
+        <v>123763.6894399292</v>
       </c>
       <c r="H430" t="n">
-        <v>305999.101762643</v>
+        <v>225796.2675344175</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>110665.0421132301</v>
+        <v>138331.3026415377</v>
       </c>
       <c r="C431" t="n">
-        <v>64825.01457108347</v>
+        <v>81031.26821385427</v>
       </c>
       <c r="D431" t="n">
-        <v>43138.91464344956</v>
+        <v>53923.64330431191</v>
       </c>
       <c r="E431" t="n">
-        <v>34813.96450922279</v>
+        <v>43517.45563652847</v>
       </c>
       <c r="F431" t="n">
-        <v>60969.63066551011</v>
+        <v>76212.03833188755</v>
       </c>
       <c r="G431" t="n">
-        <v>167720.6881072572</v>
+        <v>123760.8383318012</v>
       </c>
       <c r="H431" t="n">
-        <v>323663.688830166</v>
+        <v>238830.9392194256</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>109665.3115334122</v>
+        <v>137081.6394167654</v>
       </c>
       <c r="C432" t="n">
-        <v>64605.96085953107</v>
+        <v>80757.45107441377</v>
       </c>
       <c r="D432" t="n">
-        <v>43077.32431505413</v>
+        <v>53846.65539381761</v>
       </c>
       <c r="E432" t="n">
-        <v>34795.60028601043</v>
+        <v>43494.50035751301</v>
       </c>
       <c r="F432" t="n">
-        <v>60960.95937821425</v>
+        <v>76201.19922276771</v>
       </c>
       <c r="G432" t="n">
-        <v>167716.0860171849</v>
+        <v>123757.4424566003</v>
       </c>
       <c r="H432" t="n">
-        <v>341402.6681157945</v>
+        <v>251920.5048079945</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>108638.3287201487</v>
+        <v>135797.910900186</v>
       </c>
       <c r="C433" t="n">
-        <v>64371.89085800281</v>
+        <v>80464.86357250344</v>
       </c>
       <c r="D433" t="n">
-        <v>43009.77408364823</v>
+        <v>53762.21760456023</v>
       </c>
       <c r="E433" t="n">
-        <v>34774.96334605257</v>
+        <v>43468.70418256569</v>
       </c>
       <c r="F433" t="n">
-        <v>60950.94801160097</v>
+        <v>76188.68501450113</v>
       </c>
       <c r="G433" t="n">
-        <v>167710.6171061329</v>
+        <v>123753.4069555289</v>
       </c>
       <c r="H433" t="n">
-        <v>359217.4651019155</v>
+        <v>265066.0161613895</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>107584.1199691662</v>
+        <v>134480.1499614579</v>
       </c>
       <c r="C434" t="n">
-        <v>64122.12922445927</v>
+        <v>80152.661530574</v>
       </c>
       <c r="D434" t="n">
-        <v>42935.81557610738</v>
+        <v>53669.76947013417</v>
       </c>
       <c r="E434" t="n">
-        <v>34751.81743226411</v>
+        <v>43439.77179033011</v>
       </c>
       <c r="F434" t="n">
-        <v>60939.41404474519</v>
+        <v>76174.26755593141</v>
       </c>
       <c r="G434" t="n">
-        <v>167704.1329410175</v>
+        <v>123748.6223000423</v>
       </c>
       <c r="H434" t="n">
-        <v>377109.6493608654</v>
+        <v>278268.6314646288</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>106502.7599640375</v>
+        <v>133128.4499550469</v>
       </c>
       <c r="C435" t="n">
-        <v>63856.00183600673</v>
+        <v>79820.00229500835</v>
       </c>
       <c r="D435" t="n">
-        <v>42854.98123849251</v>
+        <v>53568.72654811558</v>
       </c>
       <c r="E435" t="n">
-        <v>34725.9079248561</v>
+        <v>43407.3849060701</v>
       </c>
       <c r="F435" t="n">
-        <v>60926.15417725305</v>
+        <v>76157.69272156621</v>
       </c>
       <c r="G435" t="n">
-        <v>167696.4626034862</v>
+        <v>123742.9623697506</v>
       </c>
       <c r="H435" t="n">
-        <v>395080.9319111132</v>
+        <v>291529.6132756146</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>105394.3734159526</v>
+        <v>131742.9667699408</v>
       </c>
       <c r="C436" t="n">
-        <v>63572.83893397574</v>
+        <v>79466.04866746961</v>
       </c>
       <c r="D436" t="n">
-        <v>42766.78510394754</v>
+        <v>53458.48137993438</v>
       </c>
       <c r="E436" t="n">
-        <v>34696.96121035049</v>
+        <v>43371.20151293809</v>
       </c>
       <c r="F436" t="n">
-        <v>60910.94259373687</v>
+        <v>76138.67824217099</v>
       </c>
       <c r="G436" t="n">
-        <v>167687.409826293</v>
+        <v>123736.2823393542</v>
       </c>
       <c r="H436" t="n">
-        <v>413133.1617896613</v>
+        <v>304850.3259959127</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>104259.1365818391</v>
+        <v>130323.920727299</v>
       </c>
       <c r="C437" t="n">
-        <v>63271.97845708601</v>
+        <v>79089.97307135744</v>
       </c>
       <c r="D437" t="n">
-        <v>42670.72376885477</v>
+        <v>53338.40471106841</v>
       </c>
       <c r="E437" t="n">
-        <v>34664.68413335762</v>
+        <v>43330.85516669702</v>
       </c>
       <c r="F437" t="n">
-        <v>60893.52917557998</v>
+        <v>76116.9114694749</v>
       </c>
       <c r="G437" t="n">
-        <v>167676.7498589835</v>
+        <v>123728.4163658378</v>
       </c>
       <c r="H437" t="n">
-        <v>431268.3217943402</v>
+        <v>318232.2327289992</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>103097.2786479016</v>
+        <v>128871.598309877</v>
       </c>
       <c r="C438" t="n">
-        <v>62952.76955015783</v>
+        <v>78690.96193769721</v>
       </c>
       <c r="D438" t="n">
-        <v>42566.27758773362</v>
+        <v>53207.84698466698</v>
       </c>
       <c r="E438" t="n">
-        <v>34628.76354675596</v>
+        <v>43285.95443344493</v>
       </c>
       <c r="F438" t="n">
-        <v>60873.63767279976</v>
+        <v>76092.04709099964</v>
       </c>
       <c r="G438" t="n">
-        <v>167664.2260528895</v>
+        <v>123719.1750685429</v>
       </c>
       <c r="H438" t="n">
-        <v>449488.5233485636</v>
+        <v>331676.8914909705</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>101909.0829658781</v>
+        <v>127386.3537073478</v>
       </c>
       <c r="C439" t="n">
-        <v>62614.57623336976</v>
+        <v>78268.22029171212</v>
       </c>
       <c r="D439" t="n">
-        <v>42452.91209592006</v>
+        <v>53066.14011990002</v>
       </c>
       <c r="E439" t="n">
-        <v>34588.86597654</v>
+        <v>43236.08247067497</v>
       </c>
       <c r="F439" t="n">
-        <v>60850.96385127436</v>
+        <v>76063.70481409288</v>
       </c>
       <c r="G439" t="n">
-        <v>167649.5461578461</v>
+        <v>123708.3427965215</v>
       </c>
       <c r="H439" t="n">
-        <v>467796.0004403373</v>
+        <v>345185.9507381471</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>100694.8881296427</v>
+        <v>125868.6101620535</v>
       </c>
       <c r="C440" t="n">
-        <v>62256.78121459582</v>
+        <v>77820.97651824472</v>
       </c>
       <c r="D440" t="n">
-        <v>42330.07966736511</v>
+        <v>52912.59958420633</v>
       </c>
       <c r="E440" t="n">
-        <v>34544.63741806497</v>
+        <v>43180.79677258119</v>
       </c>
       <c r="F440" t="n">
-        <v>60825.1736331698</v>
+        <v>76031.46704146219</v>
       </c>
       <c r="G440" t="n">
-        <v>167632.3783260253</v>
+        <v>123695.6746797706</v>
       </c>
       <c r="H440" t="n">
-        <v>486193.1025866797</v>
+        <v>358761.1441755308</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>99455.08888022065</v>
+        <v>124318.8611002759</v>
       </c>
       <c r="C441" t="n">
-        <v>61878.78982491146</v>
+        <v>77348.48728113927</v>
       </c>
       <c r="D441" t="n">
-        <v>42197.22141294432</v>
+        <v>52746.52676618034</v>
       </c>
       <c r="E441" t="n">
-        <v>34495.70328068855</v>
+        <v>43119.62910086067</v>
       </c>
       <c r="F441" t="n">
-        <v>60795.90125106121</v>
+        <v>75994.87656382643</v>
       </c>
       <c r="G441" t="n">
-        <v>167612.3468218716</v>
+        <v>123680.8934636005</v>
       </c>
       <c r="H441" t="n">
-        <v>504682.2867744266</v>
+        <v>372404.2848099365</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>98190.13682783804</v>
+        <v>122737.6710347976</v>
       </c>
       <c r="C442" t="n">
-        <v>61480.0340549687</v>
+        <v>76850.04256871084</v>
       </c>
       <c r="D442" t="n">
-        <v>42053.76932248044</v>
+        <v>52567.2116531005</v>
       </c>
       <c r="E442" t="n">
-        <v>34441.66849786431</v>
+        <v>43052.08562233035</v>
       </c>
       <c r="F442" t="n">
-        <v>60762.74743894577</v>
+        <v>75953.43429868214</v>
       </c>
       <c r="G442" t="n">
-        <v>167589.0274413573</v>
+        <v>123663.6861285103</v>
       </c>
       <c r="H442" t="n">
-        <v>523266.1083284999</v>
+        <v>386117.2582117026</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>96900.5409802791</v>
+        <v>121125.676225349</v>
       </c>
       <c r="C443" t="n">
-        <v>61059.97666763997</v>
+        <v>76324.97083454988</v>
       </c>
       <c r="D443" t="n">
-        <v>41899.14865126194</v>
+        <v>52373.93581407737</v>
       </c>
       <c r="E443" t="n">
-        <v>34382.11781955307</v>
+        <v>42977.64727444131</v>
       </c>
       <c r="F443" t="n">
-        <v>60725.2776860552</v>
+        <v>75906.59710756892</v>
       </c>
       <c r="G443" t="n">
-        <v>167561.9426486838</v>
+        <v>123643.700301567</v>
       </c>
       <c r="H443" t="n">
-        <v>541947.2106593181</v>
+        <v>399902.0149493192</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>95586.8680675987</v>
+        <v>119483.5850844984</v>
       </c>
       <c r="C444" t="n">
-        <v>60618.11536014908</v>
+        <v>75772.64420018629</v>
       </c>
       <c r="D444" t="n">
-        <v>41732.7805492049</v>
+        <v>52165.97568650607</v>
       </c>
       <c r="E444" t="n">
-        <v>34316.61630336344</v>
+        <v>42895.77037920427</v>
       </c>
       <c r="F444" t="n">
-        <v>60683.02058203988</v>
+        <v>75853.77572754977</v>
       </c>
       <c r="G444" t="n">
-        <v>167530.5564441462</v>
+        <v>123620.5404694112</v>
       </c>
       <c r="H444" t="n">
-        <v>560728.3138421678</v>
+        <v>413760.5621621659</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>94249.74265410809</v>
+        <v>117812.1783176352</v>
       </c>
       <c r="C445" t="n">
-        <v>60153.98694688486</v>
+        <v>75192.48368360601</v>
       </c>
       <c r="D445" t="n">
-        <v>41554.08492797618</v>
+        <v>51942.60615997018</v>
       </c>
       <c r="E445" t="n">
-        <v>34244.71002008926</v>
+        <v>42805.88752511155</v>
       </c>
       <c r="F445" t="n">
-        <v>60635.46628466273</v>
+        <v>75794.33285582834</v>
       </c>
       <c r="G445" t="n">
-        <v>167494.2689831691</v>
+        <v>123593.7640076512</v>
       </c>
       <c r="H445" t="n">
-        <v>579612.2019830828</v>
+        <v>427694.9542378117</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>92889.84702953332</v>
+        <v>116112.3087869168</v>
       </c>
       <c r="C446" t="n">
-        <v>59667.17153225604</v>
+        <v>74583.96441531998</v>
       </c>
       <c r="D446" t="n">
-        <v>41362.4835583983</v>
+        <v>51703.10444799783</v>
       </c>
       <c r="E446" t="n">
-        <v>34165.92698826284</v>
+        <v>42707.40873532853</v>
       </c>
       <c r="F446" t="n">
-        <v>60582.06514354584</v>
+        <v>75727.58142943225</v>
       </c>
       <c r="G446" t="n">
-        <v>167452.4109734835</v>
+        <v>123562.8770465491</v>
       </c>
       <c r="H446" t="n">
-        <v>598601.7093281932</v>
+        <v>441707.2825621255</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>91507.92087232119</v>
+        <v>114384.9010904016</v>
       </c>
       <c r="C447" t="n">
-        <v>59157.29664133646</v>
+        <v>73946.62080167052</v>
       </c>
       <c r="D447" t="n">
-        <v>41157.40338732</v>
+        <v>51446.75423414995</v>
       </c>
       <c r="E447" t="n">
-        <v>34079.7783509721</v>
+        <v>42599.72293871509</v>
       </c>
       <c r="F447" t="n">
-        <v>60522.22651569307</v>
+        <v>75652.78314461626</v>
       </c>
       <c r="G447" t="n">
-        <v>167404.2378850401</v>
+        <v>123527.3301985242</v>
       </c>
       <c r="H447" t="n">
-        <v>617699.7050767132</v>
+        <v>455799.6643128043</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>90104.7606792413</v>
+        <v>112630.9508490517</v>
       </c>
       <c r="C448" t="n">
-        <v>58624.0412746923</v>
+        <v>73280.05159336532</v>
       </c>
       <c r="D448" t="n">
-        <v>40938.28005989843</v>
+        <v>51172.85007487299</v>
       </c>
       <c r="E448" t="n">
-        <v>33985.75980648919</v>
+        <v>42482.19975811146</v>
       </c>
       <c r="F448" t="n">
-        <v>60455.31781039613</v>
+        <v>75569.14726299507</v>
       </c>
       <c r="G448" t="n">
-        <v>167348.9240154779</v>
+        <v>123486.5141790715</v>
       </c>
       <c r="H448" t="n">
-        <v>636909.0768617976</v>
+        <v>469974.2302699211</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>88681.21895669188</v>
+        <v>110851.5236958649</v>
       </c>
       <c r="C449" t="n">
-        <v>58067.13985271372</v>
+        <v>72583.92481589211</v>
       </c>
       <c r="D449" t="n">
-        <v>40704.56162993728</v>
+        <v>50880.70203742156</v>
       </c>
       <c r="E449" t="n">
-        <v>33883.35330222116</v>
+        <v>42354.19162777641</v>
       </c>
       <c r="F449" t="n">
-        <v>60380.66380265058</v>
+        <v>75475.82975331314</v>
       </c>
       <c r="G449" t="n">
-        <v>167285.5564627329</v>
+        <v>123439.7553591593</v>
       </c>
       <c r="H449" t="n">
-        <v>656232.7128685403</v>
+        <v>484233.1116208232</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>87238.20317045442</v>
+        <v>109047.7539630682</v>
       </c>
       <c r="C450" t="n">
-        <v>57486.38601401923</v>
+        <v>71857.982517524</v>
       </c>
       <c r="D450" t="n">
-        <v>40455.71243760466</v>
+        <v>50569.64054700578</v>
       </c>
       <c r="E450" t="n">
-        <v>33772.02899912242</v>
+        <v>42215.036248903</v>
       </c>
       <c r="F450" t="n">
-        <v>60297.54625528502</v>
+        <v>75371.93281910621</v>
       </c>
       <c r="G450" t="n">
-        <v>167213.1290655843</v>
+        <v>123386.311293967</v>
       </c>
       <c r="H450" t="n">
-        <v>675673.4825643805</v>
+        <v>498578.4257411302</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>85776.67445205295</v>
+        <v>107220.8430650662</v>
       </c>
       <c r="C451" t="n">
-        <v>56881.63623208596</v>
+        <v>71102.04529010739</v>
       </c>
       <c r="D451" t="n">
-        <v>40191.21713056312</v>
+        <v>50239.02141320385</v>
       </c>
       <c r="E451" t="n">
-        <v>33651.24751101009</v>
+        <v>42064.05938876257</v>
       </c>
       <c r="F451" t="n">
-        <v>60205.2038905705</v>
+        <v>75256.50486321305</v>
       </c>
       <c r="G451" t="n">
-        <v>167130.5363824804</v>
+        <v>123325.3662798703</v>
       </c>
       <c r="H451" t="n">
-        <v>695234.2160244528</v>
+        <v>513012.2609389403</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>84297.64606134276</v>
+        <v>105372.0575766785</v>
       </c>
       <c r="C452" t="n">
-        <v>56252.81321420821</v>
+        <v>70316.0165177602</v>
       </c>
       <c r="D452" t="n">
-        <v>39910.58480133039</v>
+        <v>49888.23100166293</v>
       </c>
       <c r="E452" t="n">
-        <v>33520.46242021151</v>
+        <v>41900.57802526435</v>
       </c>
       <c r="F452" t="n">
-        <v>60102.83275205432</v>
+        <v>75128.5409400678</v>
       </c>
       <c r="G452" t="n">
-        <v>167036.5677887218</v>
+        <v>123256.0269987615</v>
       </c>
       <c r="H452" t="n">
-        <v>714917.6818427478</v>
+        <v>527536.6601555102</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1952.789333408346</v>
+        <v>1562.231466726676</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3936.550948613783</v>
+        <v>3149.240758891025</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>5951.819019872233</v>
+        <v>4761.455215897783</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7999.134737616318</v>
+        <v>6399.307790093049</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>10079.04615512657</v>
+        <v>8063.23692410125</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>12192.10801445265</v>
+        <v>9753.68641156211</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>14338.88155074148</v>
+        <v>11471.10524059318</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>16519.93427413138</v>
+        <v>13215.9474193051</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>18735.83972837708</v>
+        <v>14988.67178270165</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>20987.17722538473</v>
+        <v>16789.74178030777</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>23274.53155484689</v>
+        <v>18619.6252438775</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>25598.49266818396</v>
+        <v>20478.79413454716</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>27959.65533602314</v>
+        <v>22367.7242688185</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>30358.61877846942</v>
+        <v>24286.89502277552</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>32795.98626745228</v>
+        <v>26236.78901396181</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>35272.36470046929</v>
+        <v>28217.89176037541</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>37788.36414508281</v>
+        <v>30230.69131606622</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>40344.59735357259</v>
+        <v>32275.67788285805</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>42941.67924719788</v>
+        <v>34353.34339775828</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45580.2263695719</v>
+        <v>36464.18109565748</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>48260.85630871758</v>
+        <v>38608.68504697403</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>50984.18708743298</v>
+        <v>40787.34966994635</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>53750.83652167213</v>
+        <v>43000.66921733767</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>56561.42154671764</v>
+        <v>45249.13723737408</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>59416.55751100808</v>
+        <v>47533.24600880642</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>62316.85743757067</v>
+        <v>49853.48595005651</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>65262.93125310268</v>
+        <v>52210.34500248212</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>68255.38498484595</v>
+        <v>54604.30798787673</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>71294.81992550446</v>
+        <v>57035.85594040353</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>74381.83176656619</v>
+        <v>59505.46541325292</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>77517.00970050532</v>
+        <v>62013.60776040424</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>80700.93549246513</v>
+        <v>64560.74839397206</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>83934.18252214606</v>
+        <v>67147.3460177168</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>87217.3147967562</v>
+        <v>69773.85183740489</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>90550.88593601692</v>
+        <v>72440.70874881347</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>93935.43813035452</v>
+        <v>75148.35050428359</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>97371.50107355113</v>
+        <v>77897.20085884084</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>100859.5908712779</v>
+        <v>80687.67269702231</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>104400.2089270763</v>
+        <v>83520.16714166096</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>107993.8408075042</v>
+        <v>86395.07264600336</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>111640.9550883192</v>
+        <v>89312.76407065539</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>115342.0021837146</v>
+        <v>92273.60174697166</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>119097.4131607829</v>
+        <v>95277.9305286263</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>122907.5985415226</v>
+        <v>98326.07883321805</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>126772.9470948618</v>
+        <v>101418.3576758894</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>130693.8246213045</v>
+        <v>104555.0596970435</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>134670.5727329602</v>
+        <v>107736.4581863681</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>138703.5076318388</v>
+        <v>110962.806105471</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>142792.9188894376</v>
+        <v>114234.33511155</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>146939.0682307571</v>
+        <v>117551.2545846056</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>151142.1883260096</v>
+        <v>120913.7506608076</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>155402.4815933823</v>
+        <v>124321.9852747058</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>159720.1190163205</v>
+        <v>127776.0952130563</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>164095.238978878</v>
+        <v>131276.1911831023</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>168527.9461227604</v>
+        <v>134822.3568982082</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>168494.6962298819</v>
+        <v>134795.7569839054</v>
       </c>
       <c r="C358" t="n">
-        <v>5137.119742678181</v>
+        <v>4109.695794142548</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>168459.1156381147</v>
+        <v>134767.2925104916</v>
       </c>
       <c r="C359" t="n">
-        <v>10342.40127123642</v>
+        <v>8273.921016989143</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>168421.0599186048</v>
+        <v>134736.8479348837</v>
       </c>
       <c r="C360" t="n">
-        <v>15616.00500178217</v>
+        <v>12492.80400142575</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>168380.3771026659</v>
+        <v>134704.3016821326</v>
       </c>
       <c r="C361" t="n">
-        <v>20958.05673314346</v>
+        <v>16766.44538651478</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>168336.9073869899</v>
+        <v>134669.5259095918</v>
       </c>
       <c r="C362" t="n">
-        <v>26368.64687046995</v>
+        <v>21094.91749637598</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>168290.4828342076</v>
+        <v>134632.386267366</v>
       </c>
       <c r="C363" t="n">
-        <v>31847.82970433902</v>
+        <v>25478.26376347123</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>168240.9270692961</v>
+        <v>134592.7416554368</v>
       </c>
       <c r="C364" t="n">
-        <v>37395.62274906331</v>
+        <v>29916.49819925067</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>168188.0549723882</v>
+        <v>134550.4439779105</v>
       </c>
       <c r="C365" t="n">
-        <v>43012.00614375887</v>
+        <v>34409.60491500713</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>168131.6723686079</v>
+        <v>134505.3378948863</v>
       </c>
       <c r="C366" t="n">
-        <v>48696.92211958724</v>
+        <v>38957.53769566982</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>168071.575715622</v>
+        <v>134457.2605724975</v>
       </c>
       <c r="C367" t="n">
-        <v>54450.27453641385</v>
+        <v>43560.21962913113</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>168007.5517896779</v>
+        <v>134406.0414317422</v>
       </c>
       <c r="C368" t="n">
-        <v>60271.92849191</v>
+        <v>48217.54279352803</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>167939.3773709716</v>
+        <v>134351.5018967772</v>
       </c>
       <c r="C369" t="n">
-        <v>66161.71000591213</v>
+        <v>52929.36800472975</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>167866.818929278</v>
+        <v>134293.4551434223</v>
       </c>
       <c r="C370" t="n">
-        <v>72119.40578258388</v>
+        <v>57695.52462606716</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>167789.6323108604</v>
+        <v>134231.7058486882</v>
       </c>
       <c r="C371" t="n">
-        <v>78144.76305265442</v>
+        <v>62515.81044212358</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>167707.5624277726</v>
+        <v>134166.0499422179</v>
       </c>
       <c r="C372" t="n">
-        <v>84237.48949769918</v>
+        <v>67389.99159815939</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>167620.3429507629</v>
+        <v>134096.2743606101</v>
       </c>
       <c r="C373" t="n">
-        <v>84237.00533920672</v>
+        <v>67389.60427136545</v>
       </c>
       <c r="D373" t="n">
-        <v>5210.715032853709</v>
+        <v>4168.572026282972</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>167527.6960070929</v>
+        <v>134022.1568056742</v>
       </c>
       <c r="C374" t="n">
-        <v>84236.44510232229</v>
+        <v>67389.15608185789</v>
       </c>
       <c r="D374" t="n">
-        <v>10477.88461015244</v>
+        <v>8382.307688121962</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>167429.3318846911</v>
+        <v>133943.4655077528</v>
       </c>
       <c r="C375" t="n">
-        <v>84235.79767043235</v>
+        <v>67388.63813634594</v>
       </c>
       <c r="D375" t="n">
-        <v>15801.1708434529</v>
+        <v>12640.93667476234</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>167324.9487441715</v>
+        <v>133859.9589953371</v>
       </c>
       <c r="C376" t="n">
-        <v>84235.05044076257</v>
+        <v>67388.0403526101</v>
       </c>
       <c r="D376" t="n">
-        <v>21180.20410907124</v>
+        <v>16944.16328725701</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>167214.2323403655</v>
+        <v>133771.3858722923</v>
       </c>
       <c r="C377" t="n">
-        <v>84234.18914734124</v>
+        <v>67387.35131787302</v>
       </c>
       <c r="D377" t="n">
-        <v>26614.5834951902</v>
+        <v>21291.66679615218</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>167096.8557551329</v>
+        <v>133677.4846041063</v>
       </c>
       <c r="C378" t="n">
-        <v>84233.19766608722</v>
+        <v>67386.55813286983</v>
       </c>
       <c r="D378" t="n">
-        <v>32103.87733689178</v>
+        <v>25683.10186951345</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>166972.4791433416</v>
+        <v>133577.9833146732</v>
       </c>
       <c r="C379" t="n">
-        <v>84232.05780067135</v>
+        <v>67385.64624053713</v>
       </c>
       <c r="D379" t="n">
-        <v>37647.62383956722</v>
+        <v>30118.0990716538</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>166840.7494940296</v>
+        <v>133472.5995952236</v>
       </c>
       <c r="C380" t="n">
-        <v>84230.74904776107</v>
+        <v>67384.59923820893</v>
       </c>
       <c r="D380" t="n">
-        <v>43245.33179079016</v>
+        <v>34596.26543263216</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>166701.3004088952</v>
+        <v>133361.0403271161</v>
       </c>
       <c r="C381" t="n">
-        <v>84229.2483402283</v>
+        <v>67383.3986721827</v>
       </c>
       <c r="D381" t="n">
-        <v>48896.48136035748</v>
+        <v>39117.18508828602</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>166553.7519003858</v>
+        <v>133243.0015203085</v>
       </c>
       <c r="C382" t="n">
-        <v>84227.52976687819</v>
+        <v>67382.0238135026</v>
       </c>
       <c r="D382" t="n">
-        <v>54600.52498779944</v>
+        <v>43680.41999023959</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>166397.7102117907</v>
+        <v>133118.1681694324</v>
       </c>
       <c r="C383" t="n">
-        <v>84225.5642672508</v>
+        <v>67380.45141380068</v>
       </c>
       <c r="D383" t="n">
-        <v>54600.4227253088</v>
+        <v>43680.33818024708</v>
       </c>
       <c r="E383" t="n">
-        <v>4203.829523570242</v>
+        <v>3363.063618856196</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>166232.7676618716</v>
+        <v>132986.2141294972</v>
       </c>
       <c r="C384" t="n">
-        <v>84223.31930005029</v>
+        <v>67378.65544004031</v>
       </c>
       <c r="D384" t="n">
-        <v>54600.30080856138</v>
+        <v>43680.24064684916</v>
       </c>
       <c r="E384" t="n">
-        <v>8445.443262313976</v>
+        <v>6756.354609851185</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>166058.5025166958</v>
+        <v>132846.8020133565</v>
       </c>
       <c r="C385" t="n">
-        <v>84220.75848378139</v>
+        <v>67376.60678702517</v>
       </c>
       <c r="D385" t="n">
-        <v>54600.15570319811</v>
+        <v>43680.12456255854</v>
       </c>
       <c r="E385" t="n">
-        <v>12724.38768597742</v>
+        <v>10179.51014878194</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>165874.4788914628</v>
+        <v>132699.5831131702</v>
       </c>
       <c r="C386" t="n">
-        <v>84217.84120821017</v>
+        <v>67374.2729665682</v>
       </c>
       <c r="D386" t="n">
-        <v>54599.9832877447</v>
+        <v>43679.98663019581</v>
       </c>
       <c r="E386" t="n">
-        <v>17040.19265246954</v>
+        <v>13632.15412197564</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>165680.2466852426</v>
+        <v>132544.1973481939</v>
       </c>
       <c r="C387" t="n">
-        <v>84214.5222153302</v>
+        <v>67371.61777226422</v>
       </c>
       <c r="D387" t="n">
-        <v>54599.77876525783</v>
+        <v>43679.8230122063</v>
       </c>
       <c r="E387" t="n">
-        <v>21392.3724212495</v>
+        <v>17113.89793699961</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>165475.3415516577</v>
+        <v>132380.2732413261</v>
       </c>
       <c r="C388" t="n">
-        <v>84210.7511485968</v>
+        <v>67368.60091887749</v>
       </c>
       <c r="D388" t="n">
-        <v>54599.53656331964</v>
+        <v>43679.62925065575</v>
       </c>
       <c r="E388" t="n">
-        <v>25780.42672929003</v>
+        <v>20624.34138343203</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>165259.2849086622</v>
+        <v>132207.4279269296</v>
       </c>
       <c r="C389" t="n">
-        <v>84206.47206930345</v>
+        <v>67365.17765544281</v>
       </c>
       <c r="D389" t="n">
-        <v>54599.25022112313</v>
+        <v>43679.40017689853</v>
       </c>
       <c r="E389" t="n">
-        <v>30203.84192768396</v>
+        <v>24163.07354214719</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>165031.5839906667</v>
+        <v>132025.2671925332</v>
       </c>
       <c r="C390" t="n">
-        <v>84201.62293911105</v>
+        <v>67361.2983512889</v>
       </c>
       <c r="D390" t="n">
-        <v>54598.91226230007</v>
+        <v>43679.1298098401</v>
       </c>
       <c r="E390" t="n">
-        <v>34662.0921766606</v>
+        <v>27729.6737413285</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>164791.7319463637</v>
+        <v>131833.3855570908</v>
       </c>
       <c r="C391" t="n">
-        <v>84196.13506790907</v>
+        <v>67356.90805432732</v>
       </c>
       <c r="D391" t="n">
-        <v>54598.51405205369</v>
+        <v>43678.81124164299</v>
       </c>
       <c r="E391" t="n">
-        <v>39154.64069646748</v>
+        <v>31323.71255717401</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>164539.2079856828</v>
+        <v>131631.3663885461</v>
       </c>
       <c r="C392" t="n">
-        <v>84189.93252638694</v>
+        <v>67351.94602110962</v>
       </c>
       <c r="D392" t="n">
-        <v>54598.04563707062</v>
+        <v>43678.43650965654</v>
       </c>
       <c r="E392" t="n">
-        <v>43680.94107126167</v>
+        <v>34944.75285700936</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>164273.4775793824</v>
+        <v>131418.7820635058</v>
       </c>
       <c r="C393" t="n">
-        <v>84182.93152293119</v>
+        <v>67346.34521834501</v>
       </c>
       <c r="D393" t="n">
-        <v>54597.49556660372</v>
+        <v>43677.99645328303</v>
       </c>
       <c r="E393" t="n">
-        <v>43680.88715100308</v>
+        <v>34944.70972080249</v>
       </c>
       <c r="F393" t="n">
-        <v>7400.15216187223</v>
+        <v>5920.121729497791</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>163993.9927148356</v>
+        <v>131195.1941718684</v>
       </c>
       <c r="C394" t="n">
-        <v>84175.03974473318</v>
+        <v>67340.03179578661</v>
       </c>
       <c r="D394" t="n">
-        <v>54596.85069304007</v>
+        <v>43677.48055443209</v>
       </c>
       <c r="E394" t="n">
-        <v>43680.82184478397</v>
+        <v>34944.65747582719</v>
       </c>
       <c r="F394" t="n">
-        <v>14853.290344491</v>
+        <v>11882.63227559281</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>163700.1922116069</v>
+        <v>130960.1537692854</v>
       </c>
       <c r="C395" t="n">
-        <v>84166.1556633052</v>
+        <v>67332.92453064422</v>
       </c>
       <c r="D395" t="n">
-        <v>54596.09595019956</v>
+        <v>43676.87676015969</v>
       </c>
       <c r="E395" t="n">
-        <v>43680.7428985437</v>
+        <v>34944.59431883498</v>
       </c>
       <c r="F395" t="n">
-        <v>22358.49793214454</v>
+        <v>17886.79834571565</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>163391.5021004321</v>
+        <v>130713.2016803457</v>
       </c>
       <c r="C396" t="n">
-        <v>84156.16780495172</v>
+        <v>67324.93424396143</v>
       </c>
       <c r="D396" t="n">
-        <v>54595.21410755238</v>
+        <v>43676.17128604195</v>
       </c>
       <c r="E396" t="n">
-        <v>43680.64764474454</v>
+        <v>34944.51811579565</v>
       </c>
       <c r="F396" t="n">
-        <v>29914.85255474775</v>
+        <v>23931.88204379822</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>163067.3360692103</v>
+        <v>130453.8688553682</v>
       </c>
       <c r="C397" t="n">
-        <v>84144.95398713576</v>
+        <v>67315.96318970867</v>
       </c>
       <c r="D397" t="n">
-        <v>54594.18549849875</v>
+        <v>43675.34839879905</v>
       </c>
       <c r="E397" t="n">
-        <v>43680.53293331113</v>
+        <v>34944.42634664892</v>
       </c>
       <c r="F397" t="n">
-        <v>37521.42865808005</v>
+        <v>30017.14292646407</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>162727.0959795844</v>
+        <v>130181.6767836675</v>
       </c>
       <c r="C398" t="n">
-        <v>84132.38052211388</v>
+        <v>67305.90441769116</v>
       </c>
       <c r="D398" t="n">
-        <v>54592.98772082821</v>
+        <v>43674.39017666261</v>
       </c>
       <c r="E398" t="n">
-        <v>43680.3950523666</v>
+        <v>34944.3160418933</v>
       </c>
       <c r="F398" t="n">
-        <v>45177.30013742846</v>
+        <v>36141.84010994281</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>162370.1724576329</v>
+        <v>129896.1379661062</v>
       </c>
       <c r="C399" t="n">
-        <v>84118.30138969017</v>
+        <v>67294.64111175219</v>
       </c>
       <c r="D399" t="n">
-        <v>54591.59530746799</v>
+        <v>43673.27624597443</v>
       </c>
       <c r="E399" t="n">
-        <v>43680.22963750424</v>
+        <v>34944.18371000342</v>
       </c>
       <c r="F399" t="n">
-        <v>52881.54302814895</v>
+        <v>42305.23442251921</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>161995.9455621057</v>
+        <v>129596.7564496844</v>
       </c>
       <c r="C400" t="n">
-        <v>84102.55738145867</v>
+        <v>67282.04590516699</v>
       </c>
       <c r="D400" t="n">
-        <v>54589.97936564748</v>
+        <v>43671.98349251803</v>
       </c>
       <c r="E400" t="n">
-        <v>43680.03156822209</v>
+        <v>34944.0252545777</v>
       </c>
       <c r="F400" t="n">
-        <v>60633.23824621765</v>
+        <v>48506.59059697417</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>161603.785533523</v>
+        <v>129283.0284268183</v>
       </c>
       <c r="C401" t="n">
-        <v>84084.97521946364</v>
+        <v>67267.98017557096</v>
       </c>
       <c r="D401" t="n">
-        <v>54588.10718264977</v>
+        <v>43670.48574611986</v>
       </c>
       <c r="E401" t="n">
-        <v>43679.79485003232</v>
+        <v>34943.83588002588</v>
       </c>
       <c r="F401" t="n">
-        <v>68431.47437142466</v>
+        <v>54745.17949713978</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>161193.0536273002</v>
+        <v>128954.4429018401</v>
       </c>
       <c r="C402" t="n">
-        <v>84065.36665280716</v>
+        <v>67252.29332224582</v>
       </c>
       <c r="D402" t="n">
-        <v>54585.94179639756</v>
+        <v>43668.75343711807</v>
       </c>
       <c r="E402" t="n">
-        <v>43679.51248064244</v>
+        <v>34943.60998451398</v>
       </c>
       <c r="F402" t="n">
-        <v>76275.35046539016</v>
+        <v>61020.28037231218</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>160763.1030338786</v>
+        <v>128610.4824271028</v>
       </c>
       <c r="C403" t="n">
-        <v>84043.527536372</v>
+        <v>67234.82202909765</v>
       </c>
       <c r="D403" t="n">
-        <v>54583.44152923187</v>
+        <v>43666.75322338553</v>
       </c>
       <c r="E403" t="n">
-        <v>43679.17629849012</v>
+        <v>34943.34103879212</v>
       </c>
       <c r="F403" t="n">
-        <v>76275.28368667305</v>
+        <v>61020.2269493385</v>
       </c>
       <c r="G403" t="n">
-        <v>12089.7657460393</v>
+        <v>16384.05053903248</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>160313.2798886114</v>
+        <v>128250.623910889</v>
       </c>
       <c r="C404" t="n">
-        <v>84019.23689649845</v>
+        <v>67215.38951719881</v>
       </c>
       <c r="D404" t="n">
-        <v>54580.55948339348</v>
+        <v>43664.44758671483</v>
       </c>
       <c r="E404" t="n">
-        <v>43678.77681180136</v>
+        <v>34943.0214494411</v>
       </c>
       <c r="F404" t="n">
-        <v>76275.20170832583</v>
+        <v>61020.16136666074</v>
       </c>
       <c r="G404" t="n">
-        <v>24246.80420980159</v>
+        <v>32859.26906512315</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>159842.9243738934</v>
+        <v>127874.3394991147</v>
       </c>
       <c r="C405" t="n">
-        <v>83992.25598915854</v>
+        <v>67193.8047913269</v>
       </c>
       <c r="D405" t="n">
-        <v>54577.24299691185</v>
+        <v>43661.79439752953</v>
       </c>
       <c r="E405" t="n">
-        <v>43678.30300623603</v>
+        <v>34942.64240498885</v>
       </c>
       <c r="F405" t="n">
-        <v>76275.10128240261</v>
+        <v>61020.08102592215</v>
       </c>
       <c r="G405" t="n">
-        <v>36469.81408493903</v>
+        <v>49423.89204790944</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>159351.3719157148</v>
+        <v>127481.0975325718</v>
       </c>
       <c r="C406" t="n">
-        <v>83962.32735689798</v>
+        <v>67169.86188551843</v>
       </c>
       <c r="D406" t="n">
-        <v>54573.43305884959</v>
+        <v>43658.74644707971</v>
       </c>
       <c r="E406" t="n">
-        <v>43677.74212908612</v>
+        <v>34942.19370326892</v>
       </c>
       <c r="F406" t="n">
-        <v>76274.97851648752</v>
+        <v>61019.98281319009</v>
       </c>
       <c r="G406" t="n">
-        <v>48757.52866027598</v>
+        <v>66076.20284040608</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>158837.9544764677</v>
+        <v>127070.3635811741</v>
       </c>
       <c r="C407" t="n">
-        <v>83929.17389156519</v>
+        <v>67143.33911325222</v>
       </c>
       <c r="D407" t="n">
-        <v>54569.06368314479</v>
+        <v>43655.25094651587</v>
       </c>
       <c r="E407" t="n">
-        <v>43677.07944790594</v>
+        <v>34941.66355832478</v>
       </c>
       <c r="F407" t="n">
-        <v>76274.82875685005</v>
+        <v>61019.8630054801</v>
       </c>
       <c r="G407" t="n">
-        <v>61108.72037881812</v>
+        <v>82814.53785737441</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>158302.0019454468</v>
+        <v>126641.6015563574</v>
       </c>
       <c r="C408" t="n">
-        <v>83892.49791060915</v>
+        <v>67113.99832848737</v>
       </c>
       <c r="D408" t="n">
-        <v>54564.06124064514</v>
+        <v>43651.24899251616</v>
       </c>
       <c r="E408" t="n">
-        <v>43676.29798138251</v>
+        <v>34941.03838510603</v>
       </c>
       <c r="F408" t="n">
-        <v>76274.64645274119</v>
+        <v>61019.71716219302</v>
       </c>
       <c r="G408" t="n">
-        <v>73522.20539102684</v>
+        <v>99637.29274591969</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>157742.8436280431</v>
+        <v>126194.2749024344</v>
       </c>
       <c r="C409" t="n">
-        <v>83851.98025549318</v>
+        <v>67081.5842043946</v>
       </c>
       <c r="D409" t="n">
-        <v>54558.34374933503</v>
+        <v>43646.67499946806</v>
       </c>
       <c r="E409" t="n">
-        <v>43675.37820020271</v>
+        <v>34940.30256016218</v>
       </c>
       <c r="F409" t="n">
-        <v>76274.42499924962</v>
+        <v>61019.53999939977</v>
       </c>
       <c r="G409" t="n">
-        <v>85996.84808859508</v>
+        <v>116542.9285296642</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>157159.8098341517</v>
+        <v>125727.8478673213</v>
       </c>
       <c r="C410" t="n">
-        <v>83807.27942153688</v>
+        <v>67045.82353722956</v>
       </c>
       <c r="D410" t="n">
-        <v>54551.82012322919</v>
+        <v>43641.4560985834</v>
       </c>
       <c r="E410" t="n">
-        <v>43674.29769564601</v>
+        <v>34939.43815651684</v>
       </c>
       <c r="F410" t="n">
-        <v>76274.15655587132</v>
+        <v>61019.32524469714</v>
       </c>
       <c r="G410" t="n">
-        <v>98531.56560430898</v>
+        <v>133529.9777069597</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>156552.2335657879</v>
+        <v>125241.7868526302</v>
       </c>
       <c r="C411" t="n">
-        <v>83758.03072924809</v>
+        <v>67006.42458339852</v>
       </c>
       <c r="D411" t="n">
-        <v>54544.3893809399</v>
+        <v>43635.51150475196</v>
       </c>
       <c r="E411" t="n">
-        <v>43673.03081363318</v>
+        <v>34938.42465090656</v>
       </c>
       <c r="F411" t="n">
-        <v>76273.83183766856</v>
+        <v>61019.0654701349</v>
       </c>
       <c r="G411" t="n">
-        <v>111125.3322629917</v>
+        <v>150597.0502828065</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>155919.4523033344</v>
+        <v>124735.5618426675</v>
       </c>
       <c r="C412" t="n">
-        <v>83703.84554793299</v>
+        <v>66963.07643834644</v>
       </c>
       <c r="D412" t="n">
-        <v>54535.9398155243</v>
+        <v>43628.75185241948</v>
       </c>
       <c r="E412" t="n">
-        <v>43671.54825199596</v>
+        <v>34937.23860159679</v>
       </c>
       <c r="F412" t="n">
-        <v>76273.43987560899</v>
+        <v>61018.75190048727</v>
       </c>
       <c r="G412" t="n">
-        <v>123777.1839677841</v>
+        <v>167742.8397131413</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>155260.8098892341</v>
+        <v>124208.6479113872</v>
       </c>
       <c r="C413" t="n">
-        <v>83644.3105830647</v>
+        <v>66915.44846645182</v>
       </c>
       <c r="D413" t="n">
-        <v>54526.34812788374</v>
+        <v>43621.07850230703</v>
       </c>
       <c r="E413" t="n">
-        <v>43669.81661880841</v>
+        <v>34935.85329504676</v>
       </c>
       <c r="F413" t="n">
-        <v>76272.96774238511</v>
+        <v>61018.37419390815</v>
       </c>
       <c r="G413" t="n">
-        <v>123777.1010370028</v>
+        <v>167742.7273253464</v>
       </c>
       <c r="H413" t="n">
-        <v>12105.69345435466</v>
+        <v>16405.63576934146</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>154575.658507283</v>
+        <v>123660.5268058263</v>
       </c>
       <c r="C414" t="n">
-        <v>83578.98723953296</v>
+        <v>66863.18979162641</v>
       </c>
       <c r="D414" t="n">
-        <v>54515.47852671709</v>
+        <v>43612.38282137371</v>
       </c>
       <c r="E414" t="n">
-        <v>43667.79794973975</v>
+        <v>34934.23835979182</v>
       </c>
       <c r="F414" t="n">
-        <v>76272.4002397226</v>
+        <v>61017.92019177814</v>
       </c>
       <c r="G414" t="n">
-        <v>123776.9981227244</v>
+        <v>167742.5878559164</v>
       </c>
       <c r="H414" t="n">
-        <v>24265.08874628396</v>
+        <v>32884.04826896406</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>153863.3607549933</v>
+        <v>123090.6886039945</v>
       </c>
       <c r="C415" t="n">
-        <v>83507.41107348037</v>
+        <v>66805.92885878435</v>
       </c>
       <c r="D415" t="n">
-        <v>54503.18179882349</v>
+        <v>43602.54543905884</v>
       </c>
       <c r="E415" t="n">
-        <v>43665.44918256083</v>
+        <v>34932.35934604869</v>
       </c>
       <c r="F415" t="n">
-        <v>76271.71954290112</v>
+        <v>61017.37563432097</v>
       </c>
       <c r="G415" t="n">
-        <v>123776.8706999136</v>
+        <v>167742.4151725231</v>
       </c>
       <c r="H415" t="n">
-        <v>36477.47204061192</v>
+        <v>49434.27010943733</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>153123.2918057601</v>
+        <v>122498.633444608</v>
       </c>
       <c r="C416" t="n">
-        <v>83429.09134593932</v>
+        <v>66743.27307675152</v>
       </c>
       <c r="D416" t="n">
-        <v>54489.29435440431</v>
+        <v>43591.43548352349</v>
       </c>
       <c r="E416" t="n">
-        <v>43662.72158716405</v>
+        <v>34930.17726973126</v>
       </c>
       <c r="F416" t="n">
-        <v>76270.90479793472</v>
+        <v>61016.72383834784</v>
       </c>
       <c r="G416" t="n">
-        <v>123776.7132906774</v>
+        <v>167742.2018515263</v>
       </c>
       <c r="H416" t="n">
-        <v>48742.2048352541</v>
+        <v>66055.43599273643</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>152354.8416568105</v>
+        <v>121883.8733254484</v>
       </c>
       <c r="C417" t="n">
-        <v>83343.51069190139</v>
+        <v>66674.80855352116</v>
       </c>
       <c r="D417" t="n">
-        <v>54473.63725292363</v>
+        <v>43578.90980233894</v>
       </c>
       <c r="E417" t="n">
-        <v>43659.56014974841</v>
+        <v>34927.64811979875</v>
       </c>
       <c r="F417" t="n">
-        <v>76269.93166660443</v>
+        <v>61015.94533328361</v>
       </c>
       <c r="G417" t="n">
-        <v>123776.5192804913</v>
+        <v>167741.9389289219</v>
       </c>
       <c r="H417" t="n">
-        <v>61058.72775502451</v>
+        <v>82746.7878536093</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>151557.417458117</v>
+        <v>121245.9339664935</v>
       </c>
       <c r="C418" t="n">
-        <v>83250.12491876919</v>
+        <v>66600.0999350154</v>
       </c>
       <c r="D418" t="n">
-        <v>54456.01521604708</v>
+        <v>43564.81217283771</v>
       </c>
       <c r="E418" t="n">
-        <v>43655.90291018142</v>
+        <v>34924.72232814515</v>
       </c>
       <c r="F418" t="n">
-        <v>76268.77181430596</v>
+        <v>61015.01745144484</v>
       </c>
       <c r="G418" t="n">
-        <v>123776.2807027365</v>
+        <v>167741.6156083488</v>
       </c>
       <c r="H418" t="n">
-        <v>73426.56420726876</v>
+        <v>99507.67981369075</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>150730.4459166483</v>
+        <v>120584.3567333186</v>
       </c>
       <c r="C419" t="n">
-        <v>83148.36294833804</v>
+        <v>66518.69035867047</v>
       </c>
       <c r="D419" t="n">
-        <v>54436.21563518074</v>
+        <v>43548.97250814464</v>
       </c>
       <c r="E419" t="n">
-        <v>43651.68025198347</v>
+        <v>34921.34420158681</v>
       </c>
       <c r="F419" t="n">
-        <v>76267.39233548469</v>
+        <v>61013.91386838783</v>
       </c>
       <c r="G419" t="n">
-        <v>123775.987986876</v>
+        <v>167741.2189198146</v>
       </c>
       <c r="H419" t="n">
-        <v>85845.32388254383</v>
+        <v>116337.5829256236</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>149873.3757694927</v>
+        <v>119898.7006155941</v>
       </c>
       <c r="C420" t="n">
-        <v>83037.62691652263</v>
+        <v>66430.10153321816</v>
       </c>
       <c r="D420" t="n">
-        <v>54414.00758216721</v>
+        <v>43531.20606573381</v>
       </c>
       <c r="E420" t="n">
-        <v>43646.81414489326</v>
+        <v>34917.45131591463</v>
       </c>
       <c r="F420" t="n">
-        <v>76265.75511128696</v>
+        <v>61012.60408902964</v>
       </c>
       <c r="G420" t="n">
-        <v>123775.6296650588</v>
+        <v>167740.7333220879</v>
       </c>
       <c r="H420" t="n">
-        <v>98314.70608288521</v>
+        <v>133236.0896835262</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>148985.6803185426</v>
+        <v>119188.544254834</v>
       </c>
       <c r="C421" t="n">
-        <v>82917.29244496537</v>
+        <v>66333.83395597234</v>
       </c>
       <c r="D421" t="n">
-        <v>54389.14083275303</v>
+        <v>43511.31266620247</v>
       </c>
       <c r="E421" t="n">
-        <v>43641.21734056772</v>
+        <v>34912.9738724542</v>
       </c>
       <c r="F421" t="n">
-        <v>76263.81609397432</v>
+        <v>61011.05287517953</v>
       </c>
       <c r="G421" t="n">
-        <v>123775.1920313862</v>
+        <v>167740.1402409348</v>
       </c>
       <c r="H421" t="n">
-        <v>110834.5028594909</v>
+        <v>150202.9182751823</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>148066.8600185754</v>
+        <v>118453.4880148602</v>
       </c>
       <c r="C422" t="n">
-        <v>82786.7090984251</v>
+        <v>66229.36727874013</v>
       </c>
       <c r="D422" t="n">
-        <v>54361.34491350774</v>
+        <v>43489.07593080623</v>
       </c>
       <c r="E422" t="n">
-        <v>43634.79252265207</v>
+        <v>34907.83401812168</v>
       </c>
       <c r="F422" t="n">
-        <v>76261.52451263864</v>
+        <v>61009.21961011099</v>
       </c>
       <c r="G422" t="n">
-        <v>123774.6587474786</v>
+        <v>167739.4175345832</v>
       </c>
       <c r="H422" t="n">
-        <v>123404.6019408697</v>
+        <v>167237.9165502669</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>147116.4451097105</v>
+        <v>117693.1560877683</v>
       </c>
       <c r="C423" t="n">
-        <v>82645.20104143671</v>
+        <v>66116.16083314942</v>
       </c>
       <c r="D423" t="n">
-        <v>54330.32818393396</v>
+        <v>43464.26254714721</v>
       </c>
       <c r="E423" t="n">
-        <v>43627.43141322341</v>
+        <v>34901.94513057875</v>
       </c>
       <c r="F423" t="n">
-        <v>76258.82199483519</v>
+        <v>61007.05759586821</v>
       </c>
       <c r="G423" t="n">
-        <v>123774.0103873771</v>
+        <v>167738.5388769736</v>
       </c>
       <c r="H423" t="n">
-        <v>136024.9894317101</v>
+        <v>184341.0656778538</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>146133.9982843742</v>
+        <v>116907.1986274993</v>
       </c>
       <c r="C424" t="n">
-        <v>82492.06790714082</v>
+        <v>65993.65432571271</v>
       </c>
       <c r="D424" t="n">
-        <v>54295.77696654609</v>
+        <v>43436.62157323692</v>
       </c>
       <c r="E424" t="n">
-        <v>43619.01383846971</v>
+        <v>34895.21107077579</v>
       </c>
       <c r="F424" t="n">
-        <v>76255.64159893335</v>
+        <v>61004.51327914675</v>
       </c>
       <c r="G424" t="n">
-        <v>123773.2239141906</v>
+        <v>167737.4730485113</v>
       </c>
       <c r="H424" t="n">
-        <v>148695.7522618269</v>
+        <v>201512.4834652281</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>145119.1173780735</v>
+        <v>116095.2939024587</v>
       </c>
       <c r="C425" t="n">
-        <v>82326.58589039868</v>
+        <v>65861.268712319</v>
       </c>
       <c r="D425" t="n">
-        <v>54257.35473869115</v>
+        <v>43405.88379095297</v>
       </c>
       <c r="E425" t="n">
-        <v>43609.40675740982</v>
+        <v>34887.52540592788</v>
       </c>
       <c r="F425" t="n">
-        <v>76251.90675228614</v>
+        <v>61001.52540182899</v>
       </c>
       <c r="G425" t="n">
-        <v>123772.2720802798</v>
+        <v>167736.1831231954</v>
       </c>
       <c r="H425" t="n">
-        <v>161417.0803636679</v>
+        <v>218752.427308843</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>144071.4380724704</v>
+        <v>115257.1504579763</v>
       </c>
       <c r="C426" t="n">
-        <v>82148.00907632476</v>
+        <v>65718.40726105985</v>
       </c>
       <c r="D426" t="n">
-        <v>54214.70140082133</v>
+        <v>43371.7611206571</v>
       </c>
       <c r="E426" t="n">
-        <v>43598.46325848997</v>
+        <v>34878.77060679199</v>
       </c>
       <c r="F426" t="n">
-        <v>76247.53009075567</v>
+        <v>60998.0240726046</v>
       </c>
       <c r="G426" t="n">
-        <v>123771.1227421528</v>
+        <v>167734.6255401657</v>
       </c>
       <c r="H426" t="n">
-        <v>174189.2685558568</v>
+        <v>236061.2967468974</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>142990.6365984699</v>
+        <v>114392.5092787759</v>
       </c>
       <c r="C427" t="n">
-        <v>81955.57101417858</v>
+        <v>65564.45681134294</v>
       </c>
       <c r="D427" t="n">
-        <v>54167.43263678229</v>
+        <v>43333.94610942587</v>
       </c>
       <c r="E427" t="n">
-        <v>43586.02153000052</v>
+        <v>34868.81722400044</v>
       </c>
       <c r="F427" t="n">
-        <v>76242.41219572007</v>
+        <v>60993.92975657612</v>
       </c>
       <c r="G427" t="n">
-        <v>123769.7380806663</v>
+        <v>167732.7490469191</v>
       </c>
       <c r="H427" t="n">
-        <v>187012.7181092738</v>
+        <v>253439.6355816882</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>141876.4324263028</v>
+        <v>113501.1459410422</v>
       </c>
       <c r="C428" t="n">
-        <v>81748.48654515899</v>
+        <v>65398.78923612724</v>
       </c>
       <c r="D428" t="n">
-        <v>54115.13938243142</v>
+        <v>43292.11150594518</v>
       </c>
       <c r="E428" t="n">
-        <v>43571.90381143888</v>
+        <v>34857.52304915113</v>
       </c>
       <c r="F428" t="n">
-        <v>76236.44022544286</v>
+        <v>60989.15218035436</v>
       </c>
       <c r="G428" t="n">
-        <v>123768.0737165742</v>
+        <v>167730.4935007016</v>
       </c>
       <c r="H428" t="n">
-        <v>199887.9379711187</v>
+        <v>270888.1335384605</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>140728.590928895</v>
+        <v>112582.8727431159</v>
       </c>
       <c r="C429" t="n">
-        <v>81525.9538910323</v>
+        <v>65220.76311282588</v>
       </c>
       <c r="D429" t="n">
-        <v>54057.38741952364</v>
+        <v>43245.90993561896</v>
       </c>
       <c r="E429" t="n">
-        <v>43555.91533418832</v>
+        <v>34844.73226735068</v>
       </c>
       <c r="F429" t="n">
-        <v>76229.48643862341</v>
+        <v>60983.5891508988</v>
       </c>
       <c r="G429" t="n">
-        <v>123766.0777109906</v>
+        <v>167727.7885139347</v>
       </c>
       <c r="H429" t="n">
-        <v>212815.5456213012</v>
+        <v>288407.6274259877</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>139546.9260041906</v>
+        <v>111637.5408033524</v>
       </c>
       <c r="C430" t="n">
-        <v>81287.15700870847</v>
+        <v>65029.72560696684</v>
       </c>
       <c r="D430" t="n">
-        <v>53993.71711227485</v>
+        <v>43194.97368981993</v>
       </c>
       <c r="E430" t="n">
-        <v>43537.84326117889</v>
+        <v>34830.27460894314</v>
       </c>
       <c r="F430" t="n">
-        <v>76221.40660908321</v>
+        <v>60977.12528726663</v>
       </c>
       <c r="G430" t="n">
-        <v>123763.6894399292</v>
+        <v>167724.5519289923</v>
       </c>
       <c r="H430" t="n">
-        <v>225796.2675344175</v>
+        <v>305999.101762643</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>138331.3026415377</v>
+        <v>110665.0421132301</v>
       </c>
       <c r="C431" t="n">
-        <v>81031.26821385427</v>
+        <v>64825.01457108347</v>
       </c>
       <c r="D431" t="n">
-        <v>53923.64330431191</v>
+        <v>43138.91464344956</v>
       </c>
       <c r="E431" t="n">
-        <v>43517.45563652847</v>
+        <v>34813.96450922279</v>
       </c>
       <c r="F431" t="n">
-        <v>76212.03833188755</v>
+        <v>60969.63066551011</v>
       </c>
       <c r="G431" t="n">
-        <v>123760.8383318012</v>
+        <v>167720.6881072572</v>
       </c>
       <c r="H431" t="n">
-        <v>238830.9392194256</v>
+        <v>323663.688830166</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>137081.6394167654</v>
+        <v>109665.3115334122</v>
       </c>
       <c r="C432" t="n">
-        <v>80757.45107441377</v>
+        <v>64605.96085953107</v>
       </c>
       <c r="D432" t="n">
-        <v>53846.65539381761</v>
+        <v>43077.32431505413</v>
       </c>
       <c r="E432" t="n">
-        <v>43494.50035751301</v>
+        <v>34795.60028601043</v>
       </c>
       <c r="F432" t="n">
-        <v>76201.19922276771</v>
+        <v>60960.95937821425</v>
       </c>
       <c r="G432" t="n">
-        <v>123757.4424566003</v>
+        <v>167716.0860171849</v>
       </c>
       <c r="H432" t="n">
-        <v>251920.5048079945</v>
+        <v>341402.6681157945</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>135797.910900186</v>
+        <v>108638.3287201487</v>
       </c>
       <c r="C433" t="n">
-        <v>80464.86357250344</v>
+        <v>64371.89085800281</v>
       </c>
       <c r="D433" t="n">
-        <v>53762.21760456023</v>
+        <v>43009.77408364823</v>
       </c>
       <c r="E433" t="n">
-        <v>43468.70418256569</v>
+        <v>34774.96334605257</v>
       </c>
       <c r="F433" t="n">
-        <v>76188.68501450113</v>
+        <v>60950.94801160097</v>
       </c>
       <c r="G433" t="n">
-        <v>123753.4069555289</v>
+        <v>167710.6171061329</v>
       </c>
       <c r="H433" t="n">
-        <v>265066.0161613895</v>
+        <v>359217.4651019155</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>134480.1499614579</v>
+        <v>107584.1199691662</v>
       </c>
       <c r="C434" t="n">
-        <v>80152.661530574</v>
+        <v>64122.12922445927</v>
       </c>
       <c r="D434" t="n">
-        <v>53669.76947013417</v>
+        <v>42935.81557610738</v>
       </c>
       <c r="E434" t="n">
-        <v>43439.77179033011</v>
+        <v>34751.81743226411</v>
       </c>
       <c r="F434" t="n">
-        <v>76174.26755593141</v>
+        <v>60939.41404474519</v>
       </c>
       <c r="G434" t="n">
-        <v>123748.6223000423</v>
+        <v>167704.1329410175</v>
       </c>
       <c r="H434" t="n">
-        <v>278268.6314646288</v>
+        <v>377109.6493608654</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>133128.4499550469</v>
+        <v>106502.7599640375</v>
       </c>
       <c r="C435" t="n">
-        <v>79820.00229500835</v>
+        <v>63856.00183600673</v>
       </c>
       <c r="D435" t="n">
-        <v>53568.72654811558</v>
+        <v>42854.98123849251</v>
       </c>
       <c r="E435" t="n">
-        <v>43407.3849060701</v>
+        <v>34725.9079248561</v>
       </c>
       <c r="F435" t="n">
-        <v>76157.69272156621</v>
+        <v>60926.15417725305</v>
       </c>
       <c r="G435" t="n">
-        <v>123742.9623697506</v>
+        <v>167696.4626034862</v>
       </c>
       <c r="H435" t="n">
-        <v>291529.6132756146</v>
+        <v>395080.9319111132</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>131742.9667699408</v>
+        <v>105394.3734159526</v>
       </c>
       <c r="C436" t="n">
-        <v>79466.04866746961</v>
+        <v>63572.83893397574</v>
       </c>
       <c r="D436" t="n">
-        <v>53458.48137993438</v>
+        <v>42766.78510394754</v>
       </c>
       <c r="E436" t="n">
-        <v>43371.20151293809</v>
+        <v>34696.96121035049</v>
       </c>
       <c r="F436" t="n">
-        <v>76138.67824217099</v>
+        <v>60910.94259373687</v>
       </c>
       <c r="G436" t="n">
-        <v>123736.2823393542</v>
+        <v>167687.409826293</v>
       </c>
       <c r="H436" t="n">
-        <v>304850.3259959127</v>
+        <v>413133.1617896613</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>130323.920727299</v>
+        <v>104259.1365818391</v>
       </c>
       <c r="C437" t="n">
-        <v>79089.97307135744</v>
+        <v>63271.97845708601</v>
       </c>
       <c r="D437" t="n">
-        <v>53338.40471106841</v>
+        <v>42670.72376885477</v>
       </c>
       <c r="E437" t="n">
-        <v>43330.85516669702</v>
+        <v>34664.68413335762</v>
       </c>
       <c r="F437" t="n">
-        <v>76116.9114694749</v>
+        <v>60893.52917557998</v>
       </c>
       <c r="G437" t="n">
-        <v>123728.4163658378</v>
+        <v>167676.7498589835</v>
       </c>
       <c r="H437" t="n">
-        <v>318232.2327289992</v>
+        <v>431268.3217943402</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>128871.598309877</v>
+        <v>103097.2786479016</v>
       </c>
       <c r="C438" t="n">
-        <v>78690.96193769721</v>
+        <v>62952.76955015783</v>
       </c>
       <c r="D438" t="n">
-        <v>53207.84698466698</v>
+        <v>42566.27758773362</v>
       </c>
       <c r="E438" t="n">
-        <v>43285.95443344493</v>
+        <v>34628.76354675596</v>
       </c>
       <c r="F438" t="n">
-        <v>76092.04709099964</v>
+        <v>60873.63767279976</v>
       </c>
       <c r="G438" t="n">
-        <v>123719.1750685429</v>
+        <v>167664.2260528895</v>
       </c>
       <c r="H438" t="n">
-        <v>331676.8914909705</v>
+        <v>449488.5233485636</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>127386.3537073478</v>
+        <v>101909.0829658781</v>
       </c>
       <c r="C439" t="n">
-        <v>78268.22029171212</v>
+        <v>62614.57623336976</v>
       </c>
       <c r="D439" t="n">
-        <v>53066.14011990002</v>
+        <v>42452.91209592006</v>
       </c>
       <c r="E439" t="n">
-        <v>43236.08247067497</v>
+        <v>34588.86597654</v>
       </c>
       <c r="F439" t="n">
-        <v>76063.70481409288</v>
+        <v>60850.96385127436</v>
       </c>
       <c r="G439" t="n">
-        <v>123708.3427965215</v>
+        <v>167649.5461578461</v>
       </c>
       <c r="H439" t="n">
-        <v>345185.9507381471</v>
+        <v>467796.0004403373</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>125868.6101620535</v>
+        <v>100694.8881296427</v>
       </c>
       <c r="C440" t="n">
-        <v>77820.97651824472</v>
+        <v>62256.78121459582</v>
       </c>
       <c r="D440" t="n">
-        <v>52912.59958420633</v>
+        <v>42330.07966736511</v>
       </c>
       <c r="E440" t="n">
-        <v>43180.79677258119</v>
+        <v>34544.63741806497</v>
       </c>
       <c r="F440" t="n">
-        <v>76031.46704146219</v>
+        <v>60825.1736331698</v>
       </c>
       <c r="G440" t="n">
-        <v>123695.6746797706</v>
+        <v>167632.3783260253</v>
       </c>
       <c r="H440" t="n">
-        <v>358761.1441755308</v>
+        <v>486193.1025866797</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>124318.8611002759</v>
+        <v>99455.08888022065</v>
       </c>
       <c r="C441" t="n">
-        <v>77348.48728113927</v>
+        <v>61878.78982491146</v>
       </c>
       <c r="D441" t="n">
-        <v>52746.52676618034</v>
+        <v>42197.22141294432</v>
       </c>
       <c r="E441" t="n">
-        <v>43119.62910086067</v>
+        <v>34495.70328068855</v>
       </c>
       <c r="F441" t="n">
-        <v>75994.87656382643</v>
+        <v>60795.90125106121</v>
       </c>
       <c r="G441" t="n">
-        <v>123680.8934636005</v>
+        <v>167612.3468218716</v>
       </c>
       <c r="H441" t="n">
-        <v>372404.2848099365</v>
+        <v>504682.2867744266</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>122737.6710347976</v>
+        <v>98190.13682783804</v>
       </c>
       <c r="C442" t="n">
-        <v>76850.04256871084</v>
+        <v>61480.0340549687</v>
       </c>
       <c r="D442" t="n">
-        <v>52567.2116531005</v>
+        <v>42053.76932248044</v>
       </c>
       <c r="E442" t="n">
-        <v>43052.08562233035</v>
+        <v>34441.66849786431</v>
       </c>
       <c r="F442" t="n">
-        <v>75953.43429868214</v>
+        <v>60762.74743894577</v>
       </c>
       <c r="G442" t="n">
-        <v>123663.6861285103</v>
+        <v>167589.0274413573</v>
       </c>
       <c r="H442" t="n">
-        <v>386117.2582117026</v>
+        <v>523266.1083284999</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>121125.676225349</v>
+        <v>96900.5409802791</v>
       </c>
       <c r="C443" t="n">
-        <v>76324.97083454988</v>
+        <v>61059.97666763997</v>
       </c>
       <c r="D443" t="n">
-        <v>52373.93581407737</v>
+        <v>41899.14865126194</v>
       </c>
       <c r="E443" t="n">
-        <v>42977.64727444131</v>
+        <v>34382.11781955307</v>
       </c>
       <c r="F443" t="n">
-        <v>75906.59710756892</v>
+        <v>60725.2776860552</v>
       </c>
       <c r="G443" t="n">
-        <v>123643.700301567</v>
+        <v>167561.9426486838</v>
       </c>
       <c r="H443" t="n">
-        <v>399902.0149493192</v>
+        <v>541947.2106593181</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>119483.5850844984</v>
+        <v>95586.8680675987</v>
       </c>
       <c r="C444" t="n">
-        <v>75772.64420018629</v>
+        <v>60618.11536014908</v>
       </c>
       <c r="D444" t="n">
-        <v>52165.97568650607</v>
+        <v>41732.7805492049</v>
       </c>
       <c r="E444" t="n">
-        <v>42895.77037920427</v>
+        <v>34316.61630336344</v>
       </c>
       <c r="F444" t="n">
-        <v>75853.77572754977</v>
+        <v>60683.02058203988</v>
       </c>
       <c r="G444" t="n">
-        <v>123620.5404694112</v>
+        <v>167530.5564441462</v>
       </c>
       <c r="H444" t="n">
-        <v>413760.5621621659</v>
+        <v>560728.3138421678</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>117812.1783176352</v>
+        <v>94249.74265410809</v>
       </c>
       <c r="C445" t="n">
-        <v>75192.48368360601</v>
+        <v>60153.98694688486</v>
       </c>
       <c r="D445" t="n">
-        <v>51942.60615997018</v>
+        <v>41554.08492797618</v>
       </c>
       <c r="E445" t="n">
-        <v>42805.88752511155</v>
+        <v>34244.71002008926</v>
       </c>
       <c r="F445" t="n">
-        <v>75794.33285582834</v>
+        <v>60635.46628466273</v>
       </c>
       <c r="G445" t="n">
-        <v>123593.7640076512</v>
+        <v>167494.2689831691</v>
       </c>
       <c r="H445" t="n">
-        <v>427694.9542378117</v>
+        <v>579612.2019830828</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>116112.3087869168</v>
+        <v>92889.84702953332</v>
       </c>
       <c r="C446" t="n">
-        <v>74583.96441531998</v>
+        <v>59667.17153225604</v>
       </c>
       <c r="D446" t="n">
-        <v>51703.10444799783</v>
+        <v>41362.4835583983</v>
       </c>
       <c r="E446" t="n">
-        <v>42707.40873532853</v>
+        <v>34165.92698826284</v>
       </c>
       <c r="F446" t="n">
-        <v>75727.58142943225</v>
+        <v>60582.06514354584</v>
       </c>
       <c r="G446" t="n">
-        <v>123562.8770465491</v>
+        <v>167452.4109734835</v>
       </c>
       <c r="H446" t="n">
-        <v>441707.2825621255</v>
+        <v>598601.7093281932</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>114384.9010904016</v>
+        <v>91507.92087232119</v>
       </c>
       <c r="C447" t="n">
-        <v>73946.62080167052</v>
+        <v>59157.29664133646</v>
       </c>
       <c r="D447" t="n">
-        <v>51446.75423414995</v>
+        <v>41157.40338732</v>
       </c>
       <c r="E447" t="n">
-        <v>42599.72293871509</v>
+        <v>34079.7783509721</v>
       </c>
       <c r="F447" t="n">
-        <v>75652.78314461626</v>
+        <v>60522.22651569307</v>
       </c>
       <c r="G447" t="n">
-        <v>123527.3301985242</v>
+        <v>167404.2378850401</v>
       </c>
       <c r="H447" t="n">
-        <v>455799.6643128043</v>
+        <v>617699.7050767132</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>112630.9508490517</v>
+        <v>90104.7606792413</v>
       </c>
       <c r="C448" t="n">
-        <v>73280.05159336532</v>
+        <v>58624.0412746923</v>
       </c>
       <c r="D448" t="n">
-        <v>51172.85007487299</v>
+        <v>40938.28005989843</v>
       </c>
       <c r="E448" t="n">
-        <v>42482.19975811146</v>
+        <v>33985.75980648919</v>
       </c>
       <c r="F448" t="n">
-        <v>75569.14726299507</v>
+        <v>60455.31781039613</v>
       </c>
       <c r="G448" t="n">
-        <v>123486.5141790715</v>
+        <v>167348.9240154779</v>
       </c>
       <c r="H448" t="n">
-        <v>469974.2302699211</v>
+        <v>636909.0768617976</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>110851.5236958649</v>
+        <v>88681.21895669188</v>
       </c>
       <c r="C449" t="n">
-        <v>72583.92481589211</v>
+        <v>58067.13985271372</v>
       </c>
       <c r="D449" t="n">
-        <v>50880.70203742156</v>
+        <v>40704.56162993728</v>
       </c>
       <c r="E449" t="n">
-        <v>42354.19162777641</v>
+        <v>33883.35330222116</v>
       </c>
       <c r="F449" t="n">
-        <v>75475.82975331314</v>
+        <v>60380.66380265058</v>
       </c>
       <c r="G449" t="n">
-        <v>123439.7553591593</v>
+        <v>167285.5564627329</v>
       </c>
       <c r="H449" t="n">
-        <v>484233.1116208232</v>
+        <v>656232.7128685403</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>109047.7539630682</v>
+        <v>87238.20317045442</v>
       </c>
       <c r="C450" t="n">
-        <v>71857.982517524</v>
+        <v>57486.38601401923</v>
       </c>
       <c r="D450" t="n">
-        <v>50569.64054700578</v>
+        <v>40455.71243760466</v>
       </c>
       <c r="E450" t="n">
-        <v>42215.036248903</v>
+        <v>33772.02899912242</v>
       </c>
       <c r="F450" t="n">
-        <v>75371.93281910621</v>
+        <v>60297.54625528502</v>
       </c>
       <c r="G450" t="n">
-        <v>123386.311293967</v>
+        <v>167213.1290655843</v>
       </c>
       <c r="H450" t="n">
-        <v>498578.4257411302</v>
+        <v>675673.4825643805</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>107220.8430650662</v>
+        <v>85776.67445205295</v>
       </c>
       <c r="C451" t="n">
-        <v>71102.04529010739</v>
+        <v>56881.63623208596</v>
       </c>
       <c r="D451" t="n">
-        <v>50239.02141320385</v>
+        <v>40191.21713056312</v>
       </c>
       <c r="E451" t="n">
-        <v>42064.05938876257</v>
+        <v>33651.24751101009</v>
       </c>
       <c r="F451" t="n">
-        <v>75256.50486321305</v>
+        <v>60205.2038905705</v>
       </c>
       <c r="G451" t="n">
-        <v>123325.3662798703</v>
+        <v>167130.5363824804</v>
       </c>
       <c r="H451" t="n">
-        <v>513012.2609389403</v>
+        <v>695234.2160244528</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>105372.0575766785</v>
+        <v>84297.64606134276</v>
       </c>
       <c r="C452" t="n">
-        <v>70316.0165177602</v>
+        <v>56252.81321420821</v>
       </c>
       <c r="D452" t="n">
-        <v>49888.23100166293</v>
+        <v>39910.58480133039</v>
       </c>
       <c r="E452" t="n">
-        <v>41900.57802526435</v>
+        <v>33520.46242021151</v>
       </c>
       <c r="F452" t="n">
-        <v>75128.5409400678</v>
+        <v>60102.83275205432</v>
       </c>
       <c r="G452" t="n">
-        <v>123256.0269987615</v>
+        <v>167036.5677887218</v>
       </c>
       <c r="H452" t="n">
-        <v>527536.6601555102</v>
+        <v>714917.6818427478</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_AB.xlsx
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1562.231466726676</v>
+        <v>1562.231466733744</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3149.240758891025</v>
+        <v>3149.240758904888</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4761.455215897783</v>
+        <v>4761.455215918181</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6399.307790093049</v>
+        <v>6399.307790119704</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8063.23692410125</v>
+        <v>8063.236924133869</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>9753.68641156211</v>
+        <v>9753.686411600434</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>11471.10524059318</v>
+        <v>11471.1052406369</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>13215.9474193051</v>
+        <v>13215.94741935389</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>14988.67178270165</v>
+        <v>14988.67178275522</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>16789.74178030777</v>
+        <v>16789.74178036587</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>18619.6252438775</v>
+        <v>18619.62524393976</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>20478.79413454716</v>
+        <v>20478.79413461327</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>22367.7242688185</v>
+        <v>22367.72426888812</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>24286.89502277552</v>
+        <v>24286.89502284833</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>26236.78901396181</v>
+        <v>26236.7890140375</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>28217.89176037541</v>
+        <v>28217.89176045362</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>30230.69131606622</v>
+        <v>30230.69131614656</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>32275.67788285805</v>
+        <v>32275.67788294021</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>34353.34339775828</v>
+        <v>34353.34339784191</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>36464.18109565748</v>
+        <v>36464.18109574218</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>38608.68504697403</v>
+        <v>38608.68504705941</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>40787.34966994635</v>
+        <v>40787.34967003208</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>43000.66921733767</v>
+        <v>43000.66921742335</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>45249.13723737408</v>
+        <v>45249.13723745929</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>47533.24600880642</v>
+        <v>47533.24600889081</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>49853.48595005651</v>
+        <v>49853.48595013964</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>52210.34500248212</v>
+        <v>52210.34500256364</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>54604.30798787673</v>
+        <v>54604.30798795613</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>57035.85594040353</v>
+        <v>57035.85594048043</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>59505.46541325292</v>
+        <v>59505.46541332697</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>62013.60776040424</v>
+        <v>62013.60776047495</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>64560.74839397206</v>
+        <v>64560.74839403899</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>67147.3460177168</v>
+        <v>67147.34601777955</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>69773.85183740489</v>
+        <v>69773.85183746301</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>72440.70874881347</v>
+        <v>72440.70874886651</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>75148.35050428359</v>
+        <v>75148.35050433109</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>77897.20085884084</v>
+        <v>77897.20085888232</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>80687.67269702231</v>
+        <v>80687.67269705744</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>83520.16714166096</v>
+        <v>83520.16714168916</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>86395.07264600336</v>
+        <v>86395.07264602421</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>89312.76407065539</v>
+        <v>89312.76407066839</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>92273.60174697166</v>
+        <v>92273.60174697642</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>95277.9305286263</v>
+        <v>95277.93052862231</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>98326.07883321805</v>
+        <v>98326.07883320488</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>101418.3576758894</v>
+        <v>101418.3576758666</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>104555.0596970435</v>
+        <v>104555.0596970107</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>107736.4581863681</v>
+        <v>107736.4581863245</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>110962.806105471</v>
+        <v>110962.8061054164</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>114234.33511155</v>
+        <v>114234.3351114839</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>117551.2545846056</v>
+        <v>117551.2545845275</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>120913.7506608076</v>
+        <v>120913.7506607171</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>124321.9852747058</v>
+        <v>124321.9852746024</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>127776.0952130563</v>
+        <v>127776.0952129397</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>131276.1911831023</v>
+        <v>131276.191182972</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>134822.3568982082</v>
+        <v>134822.3568980637</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>134795.7569839054</v>
+        <v>134795.7569837725</v>
       </c>
       <c r="C358" t="n">
-        <v>4109.695794142548</v>
+        <v>4109.695794112697</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>134767.2925104916</v>
+        <v>134767.292510371</v>
       </c>
       <c r="C359" t="n">
-        <v>8273.921016989143</v>
+        <v>8273.921016928327</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>134736.8479348837</v>
+        <v>134736.8479347759</v>
       </c>
       <c r="C360" t="n">
-        <v>12492.80400142575</v>
+        <v>12492.80400133285</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>134704.3016821326</v>
+        <v>134704.3016820383</v>
       </c>
       <c r="C361" t="n">
-        <v>16766.44538651478</v>
+        <v>16766.4453863887</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>134669.5259095918</v>
+        <v>134669.5259095116</v>
       </c>
       <c r="C362" t="n">
-        <v>21094.91749637598</v>
+        <v>21094.91749621543</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>134632.386267366</v>
+        <v>134632.3862673005</v>
       </c>
       <c r="C363" t="n">
-        <v>25478.26376347123</v>
+        <v>25478.26376327503</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>134592.7416554368</v>
+        <v>134592.7416553867</v>
       </c>
       <c r="C364" t="n">
-        <v>29916.49819925067</v>
+        <v>29916.49819901771</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>134550.4439779105</v>
+        <v>134550.4439778766</v>
       </c>
       <c r="C365" t="n">
-        <v>34409.60491500713</v>
+        <v>34409.60491473606</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>134505.3378948863</v>
+        <v>134505.3378948692</v>
       </c>
       <c r="C366" t="n">
-        <v>38957.53769566982</v>
+        <v>38957.53769535953</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>134457.2605724975</v>
+        <v>134457.2605724981</v>
       </c>
       <c r="C367" t="n">
-        <v>43560.21962913113</v>
+        <v>43560.21962878047</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>134406.0414317422</v>
+        <v>134406.041431761</v>
       </c>
       <c r="C368" t="n">
-        <v>48217.54279352803</v>
+        <v>48217.54279313577</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>134351.5018967772</v>
+        <v>134351.5018968151</v>
       </c>
       <c r="C369" t="n">
-        <v>52929.36800472975</v>
+        <v>52929.36800429472</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>134293.4551434223</v>
+        <v>134293.4551434801</v>
       </c>
       <c r="C370" t="n">
-        <v>57695.52462606716</v>
+        <v>57695.52462558803</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>134231.7058486882</v>
+        <v>134231.7058487666</v>
       </c>
       <c r="C371" t="n">
-        <v>62515.81044212358</v>
+        <v>62515.81044159919</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>134166.0499422179</v>
+        <v>134166.0499423178</v>
       </c>
       <c r="C372" t="n">
-        <v>67389.99159815939</v>
+        <v>67389.9915975887</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>134096.2743606101</v>
+        <v>134096.2743607323</v>
       </c>
       <c r="C373" t="n">
-        <v>67389.60427136545</v>
+        <v>67389.60427079425</v>
       </c>
       <c r="D373" t="n">
-        <v>4168.572026282972</v>
+        <v>4168.572026243032</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>134022.1568056742</v>
+        <v>134022.1568058195</v>
       </c>
       <c r="C374" t="n">
-        <v>67389.15608185789</v>
+        <v>67389.15608128614</v>
       </c>
       <c r="D374" t="n">
-        <v>8382.307688121962</v>
+        <v>8382.307688041275</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>133943.4655077528</v>
+        <v>133943.465507922</v>
       </c>
       <c r="C375" t="n">
-        <v>67388.63813634594</v>
+        <v>67388.63813577358</v>
       </c>
       <c r="D375" t="n">
-        <v>12640.93667476234</v>
+        <v>12640.93667464</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>133859.9589953371</v>
+        <v>133859.958995531</v>
       </c>
       <c r="C376" t="n">
-        <v>67388.0403526101</v>
+        <v>67388.04035203703</v>
       </c>
       <c r="D376" t="n">
-        <v>16944.16328725701</v>
+        <v>16944.16328709201</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>133771.3858722923</v>
+        <v>133771.3858725117</v>
       </c>
       <c r="C377" t="n">
-        <v>67387.35131787302</v>
+        <v>67387.35131729912</v>
       </c>
       <c r="D377" t="n">
-        <v>21291.66679615218</v>
+        <v>21291.66679594374</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>133677.4846041063</v>
+        <v>133677.4846043522</v>
       </c>
       <c r="C378" t="n">
-        <v>67386.55813286983</v>
+        <v>67386.55813229502</v>
       </c>
       <c r="D378" t="n">
-        <v>25683.10186951345</v>
+        <v>25683.10186926059</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>133577.9833146732</v>
+        <v>133577.9833149464</v>
       </c>
       <c r="C379" t="n">
-        <v>67385.64624053713</v>
+        <v>67385.64623996126</v>
       </c>
       <c r="D379" t="n">
-        <v>30118.0990716538</v>
+        <v>30118.09907135587</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>133472.5995952236</v>
+        <v>133472.5995955249</v>
       </c>
       <c r="C380" t="n">
-        <v>67384.59923820893</v>
+        <v>67384.59923763189</v>
       </c>
       <c r="D380" t="n">
-        <v>34596.26543263216</v>
+        <v>34596.2654322884</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>133361.0403271161</v>
+        <v>133361.0403274464</v>
       </c>
       <c r="C381" t="n">
-        <v>67383.3986721827</v>
+        <v>67383.39867160431</v>
       </c>
       <c r="D381" t="n">
-        <v>39117.18508828602</v>
+        <v>39117.18508789554</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>133243.0015203085</v>
+        <v>133243.0015206687</v>
       </c>
       <c r="C382" t="n">
-        <v>67382.0238135026</v>
+        <v>67382.02381292274</v>
       </c>
       <c r="D382" t="n">
-        <v>43680.41999023959</v>
+        <v>43680.41998980181</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>133118.1681694324</v>
+        <v>133118.1681698233</v>
       </c>
       <c r="C383" t="n">
-        <v>67380.45141380068</v>
+        <v>67380.4514132191</v>
       </c>
       <c r="D383" t="n">
-        <v>43680.33818024708</v>
+        <v>43680.33817980914</v>
       </c>
       <c r="E383" t="n">
-        <v>3363.063618856196</v>
+        <v>3363.06361882126</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>132986.2141294972</v>
+        <v>132986.2141299195</v>
       </c>
       <c r="C384" t="n">
-        <v>67378.65544004031</v>
+        <v>67378.65543945684</v>
       </c>
       <c r="D384" t="n">
-        <v>43680.24064684916</v>
+        <v>43680.24064641102</v>
       </c>
       <c r="E384" t="n">
-        <v>6756.354609851185</v>
+        <v>6756.354609780953</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>132846.8020133565</v>
+        <v>132846.8020138111</v>
       </c>
       <c r="C385" t="n">
-        <v>67376.60678702517</v>
+        <v>67376.60678643956</v>
       </c>
       <c r="D385" t="n">
-        <v>43680.12456255854</v>
+        <v>43680.12456212019</v>
       </c>
       <c r="E385" t="n">
-        <v>10179.51014878194</v>
+        <v>10179.51014867596</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>132699.5831131702</v>
+        <v>132699.5831136578</v>
       </c>
       <c r="C386" t="n">
-        <v>67374.2729665682</v>
+        <v>67374.27296598017</v>
       </c>
       <c r="D386" t="n">
-        <v>43679.98663019581</v>
+        <v>43679.98662975721</v>
       </c>
       <c r="E386" t="n">
-        <v>13632.15412197564</v>
+        <v>13632.15412183364</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>132544.1973481939</v>
+        <v>132544.1973487155</v>
       </c>
       <c r="C387" t="n">
-        <v>67371.61777226422</v>
+        <v>67371.61777167353</v>
       </c>
       <c r="D387" t="n">
-        <v>43679.8230122063</v>
+        <v>43679.8230117674</v>
       </c>
       <c r="E387" t="n">
-        <v>17113.89793699961</v>
+        <v>17113.89793682132</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>132380.2732413261</v>
+        <v>132380.2732418823</v>
       </c>
       <c r="C388" t="n">
-        <v>67368.60091887749</v>
+        <v>67368.60091828377</v>
       </c>
       <c r="D388" t="n">
-        <v>43679.62925065575</v>
+        <v>43679.62925021649</v>
       </c>
       <c r="E388" t="n">
-        <v>20624.34138343203</v>
+        <v>20624.34138321716</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>132207.4279269296</v>
+        <v>132207.4279275211</v>
       </c>
       <c r="C389" t="n">
-        <v>67365.17765544281</v>
+        <v>67365.17765484573</v>
       </c>
       <c r="D389" t="n">
-        <v>43679.40017689853</v>
+        <v>43679.40017645889</v>
       </c>
       <c r="E389" t="n">
-        <v>24163.07354214719</v>
+        <v>24163.07354189566</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>132025.2671925332</v>
+        <v>132025.2671931609</v>
       </c>
       <c r="C390" t="n">
-        <v>67361.2983512889</v>
+        <v>67361.2983506881</v>
       </c>
       <c r="D390" t="n">
-        <v>43679.1298098401</v>
+        <v>43679.12980939996</v>
       </c>
       <c r="E390" t="n">
-        <v>27729.6737413285</v>
+        <v>27729.67374104018</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>131833.3855570908</v>
+        <v>131833.3855577552</v>
       </c>
       <c r="C391" t="n">
-        <v>67356.90805432732</v>
+        <v>67356.90805372233</v>
       </c>
       <c r="D391" t="n">
-        <v>43678.81124164299</v>
+        <v>43678.81124120232</v>
       </c>
       <c r="E391" t="n">
-        <v>31323.71255717401</v>
+        <v>31323.71255684897</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>131631.3663885461</v>
+        <v>131631.3663892479</v>
       </c>
       <c r="C392" t="n">
-        <v>67351.94602110962</v>
+        <v>67351.94602050002</v>
       </c>
       <c r="D392" t="n">
-        <v>43678.43650965654</v>
+        <v>43678.43650921523</v>
       </c>
       <c r="E392" t="n">
-        <v>34944.75285700936</v>
+        <v>34944.75285664757</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>131418.7820635058</v>
+        <v>131418.7820642456</v>
       </c>
       <c r="C393" t="n">
-        <v>67346.34521834501</v>
+        <v>67346.34521773028</v>
       </c>
       <c r="D393" t="n">
-        <v>43677.99645328303</v>
+        <v>43677.996452841</v>
       </c>
       <c r="E393" t="n">
-        <v>34944.70972080249</v>
+        <v>34944.70972044061</v>
       </c>
       <c r="F393" t="n">
-        <v>5920.121729497791</v>
+        <v>5920.121729438618</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>131195.1941718684</v>
+        <v>131195.1941726467</v>
       </c>
       <c r="C394" t="n">
-        <v>67340.03179578661</v>
+        <v>67340.0317951662</v>
       </c>
       <c r="D394" t="n">
-        <v>43677.48055443209</v>
+        <v>43677.48055398923</v>
       </c>
       <c r="E394" t="n">
-        <v>34944.65747582719</v>
+        <v>34944.65747546522</v>
       </c>
       <c r="F394" t="n">
-        <v>11882.63227559281</v>
+        <v>11882.63227547472</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>130960.1537692854</v>
+        <v>130960.1537701029</v>
       </c>
       <c r="C395" t="n">
-        <v>67332.92453064422</v>
+        <v>67332.92453001751</v>
       </c>
       <c r="D395" t="n">
-        <v>43676.87676015969</v>
+        <v>43676.87675971586</v>
       </c>
       <c r="E395" t="n">
-        <v>34944.59431883498</v>
+        <v>34944.59431847289</v>
       </c>
       <c r="F395" t="n">
-        <v>17886.79834571565</v>
+        <v>17886.79834553917</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>130713.2016803457</v>
+        <v>130713.2016812028</v>
       </c>
       <c r="C396" t="n">
-        <v>67324.93424396143</v>
+        <v>67324.93424332779</v>
       </c>
       <c r="D396" t="n">
-        <v>43676.17128604195</v>
+        <v>43676.17128559701</v>
       </c>
       <c r="E396" t="n">
-        <v>34944.51811579565</v>
+        <v>34944.51811543341</v>
       </c>
       <c r="F396" t="n">
-        <v>23931.88204379822</v>
+        <v>23931.88204356409</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>130453.8688553682</v>
+        <v>130453.8688562653</v>
       </c>
       <c r="C397" t="n">
-        <v>67315.96318970867</v>
+        <v>67315.96318906738</v>
       </c>
       <c r="D397" t="n">
-        <v>43675.34839879905</v>
+        <v>43675.34839835283</v>
       </c>
       <c r="E397" t="n">
-        <v>34944.42634664892</v>
+        <v>34944.42634628652</v>
       </c>
       <c r="F397" t="n">
-        <v>30017.14292646407</v>
+        <v>30017.14292617311</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>130181.6767836675</v>
+        <v>130181.6767846051</v>
       </c>
       <c r="C398" t="n">
-        <v>67305.90441769116</v>
+        <v>67305.90441704144</v>
       </c>
       <c r="D398" t="n">
-        <v>43674.39017666261</v>
+        <v>43674.39017621495</v>
       </c>
       <c r="E398" t="n">
-        <v>34944.3160418933</v>
+        <v>34944.31604153068</v>
       </c>
       <c r="F398" t="n">
-        <v>36141.84010994281</v>
+        <v>36141.84010959612</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>129896.1379661062</v>
+        <v>129896.1379670847</v>
       </c>
       <c r="C399" t="n">
-        <v>67294.64111175219</v>
+        <v>67294.64111109321</v>
       </c>
       <c r="D399" t="n">
-        <v>43673.27624597443</v>
+        <v>43673.27624552514</v>
       </c>
       <c r="E399" t="n">
-        <v>34944.18371000342</v>
+        <v>34944.18370964057</v>
       </c>
       <c r="F399" t="n">
-        <v>42305.23442251921</v>
+        <v>42305.23442211799</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>129596.7564496844</v>
+        <v>129596.756450704</v>
       </c>
       <c r="C400" t="n">
-        <v>67282.04590516699</v>
+        <v>67282.04590449785</v>
       </c>
       <c r="D400" t="n">
-        <v>43671.98349251803</v>
+        <v>43671.98349206684</v>
       </c>
       <c r="E400" t="n">
-        <v>34944.0252545777</v>
+        <v>34944.02525421458</v>
       </c>
       <c r="F400" t="n">
-        <v>48506.59059697417</v>
+        <v>48506.59059651982</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>129283.0284268183</v>
+        <v>129283.0284278791</v>
       </c>
       <c r="C401" t="n">
-        <v>67267.98017557096</v>
+        <v>67267.98017489069</v>
       </c>
       <c r="D401" t="n">
-        <v>43670.48574611986</v>
+        <v>43670.48574566653</v>
       </c>
       <c r="E401" t="n">
-        <v>34943.83588002588</v>
+        <v>34943.83587966242</v>
       </c>
       <c r="F401" t="n">
-        <v>54745.17949713978</v>
+        <v>54745.17949663394</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>128954.4429018401</v>
+        <v>128954.4429029425</v>
       </c>
       <c r="C402" t="n">
-        <v>67252.29332224582</v>
+        <v>67252.29332155334</v>
       </c>
       <c r="D402" t="n">
-        <v>43668.75343711807</v>
+        <v>43668.75343666233</v>
       </c>
       <c r="E402" t="n">
-        <v>34943.60998451398</v>
+        <v>34943.60998415014</v>
       </c>
       <c r="F402" t="n">
-        <v>61020.28037231218</v>
+        <v>61020.28037175679</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>128610.4824271028</v>
+        <v>128610.4824282468</v>
       </c>
       <c r="C403" t="n">
-        <v>67234.82202909765</v>
+        <v>67234.82202839191</v>
       </c>
       <c r="D403" t="n">
-        <v>43666.75322338553</v>
+        <v>43666.75322292701</v>
       </c>
       <c r="E403" t="n">
-        <v>34943.34103879212</v>
+        <v>34943.34103842783</v>
       </c>
       <c r="F403" t="n">
-        <v>61020.2269493385</v>
+        <v>61020.22694878301</v>
       </c>
       <c r="G403" t="n">
-        <v>16384.05053903248</v>
+        <v>16384.05053890917</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>128250.623910889</v>
+        <v>128250.6239120746</v>
       </c>
       <c r="C404" t="n">
-        <v>67215.38951719881</v>
+        <v>67215.38951647855</v>
       </c>
       <c r="D404" t="n">
-        <v>43664.44758671483</v>
+        <v>43664.44758625321</v>
       </c>
       <c r="E404" t="n">
-        <v>34943.0214494411</v>
+        <v>34943.0214490763</v>
       </c>
       <c r="F404" t="n">
-        <v>61020.16136666074</v>
+        <v>61020.16136610513</v>
       </c>
       <c r="G404" t="n">
-        <v>32859.26906512315</v>
+        <v>32859.26906488295</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>127874.3394991147</v>
+        <v>127874.3395003419</v>
       </c>
       <c r="C405" t="n">
-        <v>67193.8047913269</v>
+        <v>67193.80479059086</v>
       </c>
       <c r="D405" t="n">
-        <v>43661.79439752953</v>
+        <v>43661.79439706441</v>
       </c>
       <c r="E405" t="n">
-        <v>34942.64240498885</v>
+        <v>34942.64240462342</v>
       </c>
       <c r="F405" t="n">
-        <v>61020.08102592215</v>
+        <v>61020.08102536642</v>
       </c>
       <c r="G405" t="n">
-        <v>49423.89204790944</v>
+        <v>49423.89204755875</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>127481.0975325718</v>
+        <v>127481.0975338405</v>
       </c>
       <c r="C406" t="n">
-        <v>67169.86188551843</v>
+        <v>67169.86188476525</v>
       </c>
       <c r="D406" t="n">
-        <v>43658.74644707971</v>
+        <v>43658.74644661063</v>
       </c>
       <c r="E406" t="n">
-        <v>34942.19370326892</v>
+        <v>34942.19370290278</v>
       </c>
       <c r="F406" t="n">
-        <v>61019.98281319009</v>
+        <v>61019.9828126342</v>
       </c>
       <c r="G406" t="n">
-        <v>66076.20284040608</v>
+        <v>66076.20283995243</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>127070.3635811741</v>
+        <v>127070.3635824842</v>
       </c>
       <c r="C407" t="n">
-        <v>67143.33911325222</v>
+        <v>67143.33911248042</v>
       </c>
       <c r="D407" t="n">
-        <v>43655.25094651587</v>
+        <v>43655.25094604235</v>
       </c>
       <c r="E407" t="n">
-        <v>34941.66355832478</v>
+        <v>34941.66355795782</v>
       </c>
       <c r="F407" t="n">
-        <v>61019.8630054801</v>
+        <v>61019.86300492402</v>
       </c>
       <c r="G407" t="n">
-        <v>82814.53785737441</v>
+        <v>82814.53785682635</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>126641.6015563574</v>
+        <v>126641.6015577086</v>
       </c>
       <c r="C408" t="n">
-        <v>67113.99832848737</v>
+        <v>67113.99832769542</v>
       </c>
       <c r="D408" t="n">
-        <v>43651.24899251616</v>
+        <v>43651.24899203766</v>
       </c>
       <c r="E408" t="n">
-        <v>34941.03838510603</v>
+        <v>34941.03838473812</v>
       </c>
       <c r="F408" t="n">
-        <v>61019.71716219302</v>
+        <v>61019.7171616367</v>
       </c>
       <c r="G408" t="n">
-        <v>99637.29274591969</v>
+        <v>99637.2927452857</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>126194.2749024344</v>
+        <v>126194.2749038264</v>
       </c>
       <c r="C409" t="n">
-        <v>67081.5842043946</v>
+        <v>67081.58420358083</v>
       </c>
       <c r="D409" t="n">
-        <v>43646.67499946806</v>
+        <v>43646.67499898399</v>
       </c>
       <c r="E409" t="n">
-        <v>34940.30256016218</v>
+        <v>34940.30255979318</v>
       </c>
       <c r="F409" t="n">
-        <v>61019.53999939977</v>
+        <v>61019.53999884317</v>
       </c>
       <c r="G409" t="n">
-        <v>116542.9285296642</v>
+        <v>116542.928528954</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>125727.8478673213</v>
+        <v>125727.8478687537</v>
       </c>
       <c r="C410" t="n">
-        <v>67045.82353722956</v>
+        <v>67045.82353639229</v>
       </c>
       <c r="D410" t="n">
-        <v>43641.4560985834</v>
+        <v>43641.4560980931</v>
       </c>
       <c r="E410" t="n">
-        <v>34939.43815651684</v>
+        <v>34939.43815614657</v>
       </c>
       <c r="F410" t="n">
-        <v>61019.32524469714</v>
+        <v>61019.32524414021</v>
       </c>
       <c r="G410" t="n">
-        <v>133529.9777069597</v>
+        <v>133529.9777061837</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>125241.7868526302</v>
+        <v>125241.7868541025</v>
       </c>
       <c r="C411" t="n">
-        <v>67006.42458339852</v>
+        <v>67006.42458253588</v>
       </c>
       <c r="D411" t="n">
-        <v>43635.51150475196</v>
+        <v>43635.51150425472</v>
       </c>
       <c r="E411" t="n">
-        <v>34938.42465090656</v>
+        <v>34938.42465053484</v>
       </c>
       <c r="F411" t="n">
-        <v>61019.0654701349</v>
+        <v>61019.06546957761</v>
       </c>
       <c r="G411" t="n">
-        <v>150597.0502828065</v>
+        <v>150597.0502819758</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>124735.5618426675</v>
+        <v>124735.5618441792</v>
       </c>
       <c r="C412" t="n">
-        <v>66963.07643834644</v>
+        <v>66963.07643745653</v>
       </c>
       <c r="D412" t="n">
-        <v>43628.75185241948</v>
+        <v>43628.75185191451</v>
       </c>
       <c r="E412" t="n">
-        <v>34937.23860159679</v>
+        <v>34937.23860122341</v>
       </c>
       <c r="F412" t="n">
-        <v>61018.75190048727</v>
+        <v>61018.75189992952</v>
       </c>
       <c r="G412" t="n">
-        <v>167742.8397131413</v>
+        <v>167742.8397122684</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>124208.6479113872</v>
+        <v>124208.6479129377</v>
       </c>
       <c r="C413" t="n">
-        <v>66915.44846645182</v>
+        <v>66915.44846553265</v>
       </c>
       <c r="D413" t="n">
-        <v>43621.07850230703</v>
+        <v>43621.07850179348</v>
       </c>
       <c r="E413" t="n">
-        <v>34935.85329504676</v>
+        <v>34935.85329467145</v>
       </c>
       <c r="F413" t="n">
-        <v>61018.37419390815</v>
+        <v>61018.37419334987</v>
       </c>
       <c r="G413" t="n">
-        <v>167742.7273253464</v>
+        <v>167742.7273244734</v>
       </c>
       <c r="H413" t="n">
-        <v>16405.63576934146</v>
+        <v>16405.63576931414</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>123660.5268058263</v>
+        <v>123660.5268074149</v>
       </c>
       <c r="C414" t="n">
-        <v>66863.18979162641</v>
+        <v>66863.18979067587</v>
       </c>
       <c r="D414" t="n">
-        <v>43612.38282137371</v>
+        <v>43612.38282085065</v>
       </c>
       <c r="E414" t="n">
-        <v>34934.23835979182</v>
+        <v>34934.23835941435</v>
       </c>
       <c r="F414" t="n">
-        <v>61017.92019177814</v>
+        <v>61017.92019121923</v>
       </c>
       <c r="G414" t="n">
-        <v>167742.5878559164</v>
+        <v>167742.5878550432</v>
       </c>
       <c r="H414" t="n">
-        <v>32884.04826896406</v>
+        <v>32884.04826892243</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>123090.6886039945</v>
+        <v>123090.6886056204</v>
       </c>
       <c r="C415" t="n">
-        <v>66805.92885878435</v>
+        <v>66805.92885780023</v>
       </c>
       <c r="D415" t="n">
-        <v>43602.54543905884</v>
+        <v>43602.54543852526</v>
       </c>
       <c r="E415" t="n">
-        <v>34932.35934604869</v>
+        <v>34932.35934566874</v>
       </c>
       <c r="F415" t="n">
-        <v>61017.37563432097</v>
+        <v>61017.37563376128</v>
       </c>
       <c r="G415" t="n">
-        <v>167742.4151725231</v>
+        <v>167742.4151716498</v>
       </c>
       <c r="H415" t="n">
-        <v>49434.27010943733</v>
+        <v>49434.27010939518</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>122498.633444608</v>
+        <v>122498.6334462704</v>
       </c>
       <c r="C416" t="n">
-        <v>66743.27307675152</v>
+        <v>66743.27307573151</v>
       </c>
       <c r="D416" t="n">
-        <v>43591.43548352349</v>
+        <v>43591.43548297829</v>
       </c>
       <c r="E416" t="n">
-        <v>34930.17726973126</v>
+        <v>34930.17726934848</v>
       </c>
       <c r="F416" t="n">
-        <v>61016.72383834784</v>
+        <v>61016.72383778729</v>
       </c>
       <c r="G416" t="n">
-        <v>167742.2018515263</v>
+        <v>167742.2018506526</v>
       </c>
       <c r="H416" t="n">
-        <v>66055.43599273643</v>
+        <v>66055.43599270884</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>121883.8733254484</v>
+        <v>121883.8733271463</v>
       </c>
       <c r="C417" t="n">
-        <v>66674.80855352116</v>
+        <v>66674.80855246294</v>
       </c>
       <c r="D417" t="n">
-        <v>43578.90980233894</v>
+        <v>43578.90980178095</v>
       </c>
       <c r="E417" t="n">
-        <v>34927.64811979875</v>
+        <v>34927.64811941277</v>
       </c>
       <c r="F417" t="n">
-        <v>61015.94533328361</v>
+        <v>61015.94533272204</v>
       </c>
       <c r="G417" t="n">
-        <v>167741.9389289219</v>
+        <v>167741.9389280481</v>
       </c>
       <c r="H417" t="n">
-        <v>82746.7878536093</v>
+        <v>82746.78785361291</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>121245.9339664935</v>
+        <v>121245.933968226</v>
       </c>
       <c r="C418" t="n">
-        <v>66600.0999350154</v>
+        <v>66600.09993391648</v>
       </c>
       <c r="D418" t="n">
-        <v>43564.81217283771</v>
+        <v>43564.81217226567</v>
       </c>
       <c r="E418" t="n">
-        <v>34924.72232814515</v>
+        <v>34924.72232775554</v>
       </c>
       <c r="F418" t="n">
-        <v>61015.01745144484</v>
+        <v>61015.01745088206</v>
       </c>
       <c r="G418" t="n">
-        <v>167741.6156083488</v>
+        <v>167741.6156074745</v>
       </c>
       <c r="H418" t="n">
-        <v>99507.67981369075</v>
+        <v>99507.67981374219</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>120584.3567333186</v>
+        <v>120584.3567350846</v>
       </c>
       <c r="C419" t="n">
-        <v>66518.69035867047</v>
+        <v>66518.69035752834</v>
       </c>
       <c r="D419" t="n">
-        <v>43548.97250814464</v>
+        <v>43548.97250755716</v>
       </c>
       <c r="E419" t="n">
-        <v>34921.34420158681</v>
+        <v>34921.3442011931</v>
       </c>
       <c r="F419" t="n">
-        <v>61013.91386838783</v>
+        <v>61013.91386782366</v>
       </c>
       <c r="G419" t="n">
-        <v>167741.2189198146</v>
+        <v>167741.2189189399</v>
       </c>
       <c r="H419" t="n">
-        <v>116337.5829256236</v>
+        <v>116337.5829257408</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>119898.7006155941</v>
+        <v>119898.7006173924</v>
       </c>
       <c r="C420" t="n">
-        <v>66430.10153321816</v>
+        <v>66430.10153203018</v>
       </c>
       <c r="D420" t="n">
-        <v>43531.20606573381</v>
+        <v>43531.20606512943</v>
       </c>
       <c r="E420" t="n">
-        <v>34917.45131591463</v>
+        <v>34917.45131551631</v>
       </c>
       <c r="F420" t="n">
-        <v>61012.60408902964</v>
+        <v>61012.60408846385</v>
       </c>
       <c r="G420" t="n">
-        <v>167740.7333220879</v>
+        <v>167740.7333212128</v>
       </c>
       <c r="H420" t="n">
-        <v>133236.0896835262</v>
+        <v>133236.0896837284</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>119188.544254834</v>
+        <v>119188.5442566635</v>
       </c>
       <c r="C421" t="n">
-        <v>66333.83395597234</v>
+        <v>66333.83395473591</v>
       </c>
       <c r="D421" t="n">
-        <v>43511.31266620247</v>
+        <v>43511.31266557963</v>
       </c>
       <c r="E421" t="n">
-        <v>34912.9738724542</v>
+        <v>34912.97387205069</v>
       </c>
       <c r="F421" t="n">
-        <v>61011.05287517953</v>
+        <v>61011.05287461184</v>
       </c>
       <c r="G421" t="n">
-        <v>167740.1402409348</v>
+        <v>167740.140240059</v>
       </c>
       <c r="H421" t="n">
-        <v>150202.9182751823</v>
+        <v>150202.9182754891</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>118453.4880148602</v>
+        <v>118453.4880167197</v>
       </c>
       <c r="C422" t="n">
-        <v>66229.36727874013</v>
+        <v>66229.36727745247</v>
       </c>
       <c r="D422" t="n">
-        <v>43489.07593080623</v>
+        <v>43489.07593016326</v>
       </c>
       <c r="E422" t="n">
-        <v>34907.83401812168</v>
+        <v>34907.83401771234</v>
       </c>
       <c r="F422" t="n">
-        <v>61009.21961011099</v>
+        <v>61009.21960954113</v>
       </c>
       <c r="G422" t="n">
-        <v>167739.4175345832</v>
+        <v>167739.4175337066</v>
       </c>
       <c r="H422" t="n">
-        <v>167237.9165502669</v>
+        <v>167237.9165506987</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>117693.1560877683</v>
+        <v>117693.1560896563</v>
       </c>
       <c r="C423" t="n">
-        <v>66116.16083314942</v>
+        <v>66116.16083180776</v>
       </c>
       <c r="D423" t="n">
-        <v>43464.26254714721</v>
+        <v>43464.26254648234</v>
       </c>
       <c r="E423" t="n">
-        <v>34901.94513057875</v>
+        <v>34901.94513016289</v>
       </c>
       <c r="F423" t="n">
-        <v>61007.05759586821</v>
+        <v>61007.05759529583</v>
       </c>
       <c r="G423" t="n">
-        <v>167738.5388769736</v>
+        <v>167738.5388760961</v>
       </c>
       <c r="H423" t="n">
-        <v>184341.0656778538</v>
+        <v>184341.0656784328</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>116907.1986274993</v>
+        <v>116907.1986294145</v>
       </c>
       <c r="C424" t="n">
-        <v>65993.65432571271</v>
+        <v>65993.65432431422</v>
       </c>
       <c r="D424" t="n">
-        <v>43436.62157323692</v>
+        <v>43436.62157254826</v>
       </c>
       <c r="E424" t="n">
-        <v>34895.21107077579</v>
+        <v>34895.21107035264</v>
       </c>
       <c r="F424" t="n">
-        <v>61004.51327914675</v>
+        <v>61004.51327857147</v>
       </c>
       <c r="G424" t="n">
-        <v>167737.4730485113</v>
+        <v>167737.4730476328</v>
       </c>
       <c r="H424" t="n">
-        <v>201512.4834652281</v>
+        <v>201512.4834659772</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>116095.2939024587</v>
+        <v>116095.2939043997</v>
       </c>
       <c r="C425" t="n">
-        <v>65861.268712319</v>
+        <v>65861.26871086087</v>
       </c>
       <c r="D425" t="n">
-        <v>43405.88379095297</v>
+        <v>43405.88379023855</v>
       </c>
       <c r="E425" t="n">
-        <v>34887.52540592788</v>
+        <v>34887.52540549661</v>
       </c>
       <c r="F425" t="n">
-        <v>61001.52540182899</v>
+        <v>61001.52540125037</v>
       </c>
       <c r="G425" t="n">
-        <v>167736.1831231954</v>
+        <v>167736.1831223156</v>
       </c>
       <c r="H425" t="n">
-        <v>218752.427308843</v>
+        <v>218752.4273097859</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>115257.1504579763</v>
+        <v>115257.1504599415</v>
       </c>
       <c r="C426" t="n">
-        <v>65718.40726105985</v>
+        <v>65718.40725953921</v>
       </c>
       <c r="D426" t="n">
-        <v>43371.7611206571</v>
+        <v>43371.76111991485</v>
       </c>
       <c r="E426" t="n">
-        <v>34878.77060679199</v>
+        <v>34878.7706063517</v>
       </c>
       <c r="F426" t="n">
-        <v>60998.0240726046</v>
+        <v>60998.02407202216</v>
       </c>
       <c r="G426" t="n">
-        <v>167734.6255401657</v>
+        <v>167734.6255392845</v>
       </c>
       <c r="H426" t="n">
-        <v>236061.2967468974</v>
+        <v>236061.2967480583</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>114392.5092787759</v>
+        <v>114392.5092807639</v>
       </c>
       <c r="C427" t="n">
-        <v>65564.45681134294</v>
+        <v>65564.45680975693</v>
       </c>
       <c r="D427" t="n">
-        <v>43333.94610942587</v>
+        <v>43333.94610865357</v>
       </c>
       <c r="E427" t="n">
-        <v>34868.81722400044</v>
+        <v>34868.81722355012</v>
       </c>
       <c r="F427" t="n">
-        <v>60993.92975657612</v>
+        <v>60993.92975598931</v>
       </c>
       <c r="G427" t="n">
-        <v>167732.7490469191</v>
+        <v>167732.7490460361</v>
       </c>
       <c r="H427" t="n">
-        <v>253439.6355816882</v>
+        <v>253439.6355830933</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>113501.1459410422</v>
+        <v>113501.1459430514</v>
       </c>
       <c r="C428" t="n">
-        <v>65398.78923612724</v>
+        <v>65398.78923447303</v>
       </c>
       <c r="D428" t="n">
-        <v>43292.11150594518</v>
+        <v>43292.11150514055</v>
       </c>
       <c r="E428" t="n">
-        <v>34857.52304915113</v>
+        <v>34857.52304868971</v>
       </c>
       <c r="F428" t="n">
-        <v>60989.15218035436</v>
+        <v>60989.15217976256</v>
       </c>
       <c r="G428" t="n">
-        <v>167730.4935007016</v>
+        <v>167730.4934998166</v>
       </c>
       <c r="H428" t="n">
-        <v>270888.1335384605</v>
+        <v>270888.1335401362</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>112582.8727431159</v>
+        <v>112582.8727451447</v>
       </c>
       <c r="C429" t="n">
-        <v>65220.76311282588</v>
+        <v>65220.7631111006</v>
       </c>
       <c r="D429" t="n">
-        <v>43245.90993561896</v>
+        <v>43245.90993477958</v>
       </c>
       <c r="E429" t="n">
-        <v>34844.73226735068</v>
+        <v>34844.73226687701</v>
       </c>
       <c r="F429" t="n">
-        <v>60983.5891508988</v>
+        <v>60983.58915030132</v>
       </c>
       <c r="G429" t="n">
-        <v>167727.7885139347</v>
+        <v>167727.7885130472</v>
       </c>
       <c r="H429" t="n">
-        <v>288407.6274259877</v>
+        <v>288407.6274279611</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>111637.5408033524</v>
+        <v>111637.5408053991</v>
       </c>
       <c r="C430" t="n">
-        <v>65029.72560696684</v>
+        <v>65029.72560516774</v>
       </c>
       <c r="D430" t="n">
-        <v>43194.97368981993</v>
+        <v>43194.97368894333</v>
       </c>
       <c r="E430" t="n">
-        <v>34830.27460894314</v>
+        <v>34830.27460845597</v>
       </c>
       <c r="F430" t="n">
-        <v>60977.12528726663</v>
+        <v>60977.1252866627</v>
       </c>
       <c r="G430" t="n">
-        <v>167724.5519289923</v>
+        <v>167724.551928102</v>
       </c>
       <c r="H430" t="n">
-        <v>305999.101762643</v>
+        <v>305999.1017649431</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>110665.0421132301</v>
+        <v>110665.0421152931</v>
       </c>
       <c r="C431" t="n">
-        <v>64825.01457108347</v>
+        <v>64825.01456920781</v>
       </c>
       <c r="D431" t="n">
-        <v>43138.91464344956</v>
+        <v>43138.91464253317</v>
       </c>
       <c r="E431" t="n">
-        <v>34813.96450922279</v>
+        <v>34813.96450872078</v>
       </c>
       <c r="F431" t="n">
-        <v>60969.63066551011</v>
+        <v>60969.63066489888</v>
       </c>
       <c r="G431" t="n">
-        <v>167720.6881072572</v>
+        <v>167720.6881063636</v>
       </c>
       <c r="H431" t="n">
-        <v>323663.688830166</v>
+        <v>323663.6888328215</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>109665.3115334122</v>
+        <v>109665.3115354897</v>
       </c>
       <c r="C432" t="n">
-        <v>64605.96085953107</v>
+        <v>64605.96085757622</v>
       </c>
       <c r="D432" t="n">
-        <v>43077.32431505413</v>
+        <v>43077.32431409528</v>
       </c>
       <c r="E432" t="n">
-        <v>34795.60028601043</v>
+        <v>34795.60028549214</v>
       </c>
       <c r="F432" t="n">
-        <v>60960.95937821425</v>
+        <v>60960.95937759477</v>
       </c>
       <c r="G432" t="n">
-        <v>167716.0860171849</v>
+        <v>167716.0860162874</v>
       </c>
       <c r="H432" t="n">
-        <v>341402.6681157945</v>
+        <v>341402.6681188347</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>108638.3287201487</v>
+        <v>108638.3287222391</v>
       </c>
       <c r="C433" t="n">
-        <v>64371.89085800281</v>
+        <v>64371.89085596617</v>
       </c>
       <c r="D433" t="n">
-        <v>43009.77408364823</v>
+        <v>43009.7740826442</v>
       </c>
       <c r="E433" t="n">
-        <v>34774.96334605257</v>
+        <v>34774.96334551647</v>
       </c>
       <c r="F433" t="n">
-        <v>60950.94801160097</v>
+        <v>60950.94801097218</v>
       </c>
       <c r="G433" t="n">
-        <v>167710.6171061329</v>
+        <v>167710.617105231</v>
       </c>
       <c r="H433" t="n">
-        <v>359217.4651019155</v>
+        <v>359217.4651053714</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>107584.1199691662</v>
+        <v>107584.1199712677</v>
       </c>
       <c r="C434" t="n">
-        <v>64122.12922445927</v>
+        <v>64122.12922233842</v>
       </c>
       <c r="D434" t="n">
-        <v>42935.81557610738</v>
+        <v>42935.81557505537</v>
       </c>
       <c r="E434" t="n">
-        <v>34751.81743226411</v>
+        <v>34751.81743170856</v>
       </c>
       <c r="F434" t="n">
-        <v>60939.41404474519</v>
+        <v>60939.41404410596</v>
       </c>
       <c r="G434" t="n">
-        <v>167704.1329410175</v>
+        <v>167704.1329401104</v>
       </c>
       <c r="H434" t="n">
-        <v>377109.6493608654</v>
+        <v>377109.6493647688</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>106502.7599640375</v>
+        <v>106502.7599661483</v>
       </c>
       <c r="C435" t="n">
-        <v>63856.00183600673</v>
+        <v>63856.00183379935</v>
       </c>
       <c r="D435" t="n">
-        <v>42854.98123849251</v>
+        <v>42854.98123738969</v>
       </c>
       <c r="E435" t="n">
-        <v>34725.9079248561</v>
+        <v>34725.90792427938</v>
       </c>
       <c r="F435" t="n">
-        <v>60926.15417725305</v>
+        <v>60926.15417660206</v>
       </c>
       <c r="G435" t="n">
-        <v>167696.4626034862</v>
+        <v>167696.4626025731</v>
       </c>
       <c r="H435" t="n">
-        <v>395080.9319111132</v>
+        <v>395080.9319154957</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>105394.3734159526</v>
+        <v>105394.3734180711</v>
       </c>
       <c r="C436" t="n">
-        <v>63572.83893397574</v>
+        <v>63572.83893167967</v>
       </c>
       <c r="D436" t="n">
-        <v>42766.78510394754</v>
+        <v>42766.78510279101</v>
       </c>
       <c r="E436" t="n">
-        <v>34696.96121035049</v>
+        <v>34696.96120975076</v>
       </c>
       <c r="F436" t="n">
-        <v>60910.94259373687</v>
+        <v>60910.94259307274</v>
       </c>
       <c r="G436" t="n">
-        <v>167687.409826293</v>
+        <v>167687.4098253729</v>
       </c>
       <c r="H436" t="n">
-        <v>413133.1617896613</v>
+        <v>413133.1617945547</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>104259.1365818391</v>
+        <v>104259.1365839635</v>
       </c>
       <c r="C437" t="n">
-        <v>63271.97845708601</v>
+        <v>63271.97845469926</v>
       </c>
       <c r="D437" t="n">
-        <v>42670.72376885477</v>
+        <v>42670.7237676416</v>
       </c>
       <c r="E437" t="n">
-        <v>34664.68413335762</v>
+        <v>34664.68413273297</v>
       </c>
       <c r="F437" t="n">
-        <v>60893.52917557998</v>
+        <v>60893.52917490123</v>
       </c>
       <c r="G437" t="n">
-        <v>167676.7498589835</v>
+        <v>167676.7498580554</v>
       </c>
       <c r="H437" t="n">
-        <v>431268.3217943402</v>
+        <v>431268.3217997778</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>103097.2786479016</v>
+        <v>103097.2786500302</v>
       </c>
       <c r="C438" t="n">
-        <v>62952.76955015783</v>
+        <v>62952.76954767858</v>
       </c>
       <c r="D438" t="n">
-        <v>42566.27758773362</v>
+        <v>42566.27758646089</v>
       </c>
       <c r="E438" t="n">
-        <v>34628.76354675596</v>
+        <v>34628.76354610436</v>
       </c>
       <c r="F438" t="n">
-        <v>60873.63767279976</v>
+        <v>60873.6376721047</v>
       </c>
       <c r="G438" t="n">
-        <v>167664.2260528895</v>
+        <v>167664.2260519523</v>
       </c>
       <c r="H438" t="n">
-        <v>449488.5233485636</v>
+        <v>449488.5233545779</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>101909.0829658781</v>
+        <v>101909.0829680092</v>
       </c>
       <c r="C439" t="n">
-        <v>62614.57623336976</v>
+        <v>62614.57623079643</v>
       </c>
       <c r="D439" t="n">
-        <v>42452.91209592006</v>
+        <v>42452.91209458486</v>
       </c>
       <c r="E439" t="n">
-        <v>34588.86597654</v>
+        <v>34588.86597585933</v>
       </c>
       <c r="F439" t="n">
-        <v>60850.96385127436</v>
+        <v>60850.96385056118</v>
       </c>
       <c r="G439" t="n">
-        <v>167649.5461578461</v>
+        <v>167649.5461568984</v>
       </c>
       <c r="H439" t="n">
-        <v>467796.0004403373</v>
+        <v>467796.0004469619</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>100694.8881296427</v>
+        <v>100694.8881317745</v>
       </c>
       <c r="C440" t="n">
-        <v>62256.78121459582</v>
+        <v>62256.78121192709</v>
       </c>
       <c r="D440" t="n">
-        <v>42330.07966736511</v>
+        <v>42330.07966596451</v>
       </c>
       <c r="E440" t="n">
-        <v>34544.63741806497</v>
+        <v>34544.63741735306</v>
       </c>
       <c r="F440" t="n">
-        <v>60825.1736331698</v>
+        <v>60825.17363243656</v>
       </c>
       <c r="G440" t="n">
-        <v>167632.3783260253</v>
+        <v>167632.3783250655</v>
       </c>
       <c r="H440" t="n">
-        <v>486193.1025866797</v>
+        <v>486193.1025939483</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>99455.08888022065</v>
+        <v>99455.08888235157</v>
       </c>
       <c r="C441" t="n">
-        <v>61878.78982491146</v>
+        <v>61878.78982214616</v>
       </c>
       <c r="D441" t="n">
-        <v>42197.22141294432</v>
+        <v>42197.22141147546</v>
       </c>
       <c r="E441" t="n">
-        <v>34495.70328068855</v>
+        <v>34495.70327994309</v>
       </c>
       <c r="F441" t="n">
-        <v>60795.90125106121</v>
+        <v>60795.90125030579</v>
       </c>
       <c r="G441" t="n">
-        <v>167612.3468218716</v>
+        <v>167612.3468208981</v>
       </c>
       <c r="H441" t="n">
-        <v>504682.2867744266</v>
+        <v>504682.2867823728</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>98190.13682783804</v>
+        <v>98190.13682996639</v>
       </c>
       <c r="C442" t="n">
-        <v>61480.0340549687</v>
+        <v>61480.03405210604</v>
       </c>
       <c r="D442" t="n">
-        <v>42053.76932248044</v>
+        <v>42053.76932094052</v>
       </c>
       <c r="E442" t="n">
-        <v>34441.66849786431</v>
+        <v>34441.66849708294</v>
       </c>
       <c r="F442" t="n">
-        <v>60762.74743894577</v>
+        <v>60762.74743816591</v>
       </c>
       <c r="G442" t="n">
-        <v>167589.0274413573</v>
+        <v>167589.0274403683</v>
       </c>
       <c r="H442" t="n">
-        <v>523266.1083284999</v>
+        <v>523266.108337157</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>96900.5409802791</v>
+        <v>96900.54098240331</v>
       </c>
       <c r="C443" t="n">
-        <v>61059.97666763997</v>
+        <v>61059.97666467933</v>
       </c>
       <c r="D443" t="n">
-        <v>41899.14865126194</v>
+        <v>41899.14864964823</v>
       </c>
       <c r="E443" t="n">
-        <v>34382.11781955307</v>
+        <v>34382.11781873339</v>
       </c>
       <c r="F443" t="n">
-        <v>60725.2776860552</v>
+        <v>60725.27768524849</v>
       </c>
       <c r="G443" t="n">
-        <v>167561.9426486838</v>
+        <v>167561.9426476771</v>
       </c>
       <c r="H443" t="n">
-        <v>541947.2106593181</v>
+        <v>541947.210668719</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>95586.8680675987</v>
+        <v>95586.86806971711</v>
       </c>
       <c r="C444" t="n">
-        <v>60618.11536014908</v>
+        <v>60618.11535709026</v>
       </c>
       <c r="D444" t="n">
-        <v>41732.7805492049</v>
+        <v>41732.7805475148</v>
       </c>
       <c r="E444" t="n">
-        <v>34316.61630336344</v>
+        <v>34316.61630250296</v>
       </c>
       <c r="F444" t="n">
-        <v>60683.02058203988</v>
+        <v>60683.02058120373</v>
       </c>
       <c r="G444" t="n">
-        <v>167530.5564441462</v>
+        <v>167530.5564431196</v>
       </c>
       <c r="H444" t="n">
-        <v>560728.3138421678</v>
+        <v>560728.3138523458</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>94249.74265410809</v>
+        <v>94249.7426562192</v>
       </c>
       <c r="C445" t="n">
-        <v>60153.98694688486</v>
+        <v>60153.9869437279</v>
       </c>
       <c r="D445" t="n">
-        <v>41554.08492797618</v>
+        <v>41554.08492620717</v>
       </c>
       <c r="E445" t="n">
-        <v>34244.71002008926</v>
+        <v>34244.71001918546</v>
       </c>
       <c r="F445" t="n">
-        <v>60635.46628466273</v>
+        <v>60635.46628379436</v>
       </c>
       <c r="G445" t="n">
-        <v>167494.2689831691</v>
+        <v>167494.26898212</v>
       </c>
       <c r="H445" t="n">
-        <v>579612.2019830828</v>
+        <v>579612.2019940699</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>92889.84702953332</v>
+        <v>92889.84703163567</v>
       </c>
       <c r="C446" t="n">
-        <v>59667.17153225604</v>
+        <v>59667.17152900134</v>
       </c>
       <c r="D446" t="n">
-        <v>41362.4835583983</v>
+        <v>41362.48355654802</v>
       </c>
       <c r="E446" t="n">
-        <v>34165.92698826284</v>
+        <v>34165.92698731315</v>
       </c>
       <c r="F446" t="n">
-        <v>60582.06514354584</v>
+        <v>60582.06514264236</v>
       </c>
       <c r="G446" t="n">
-        <v>167452.4109734835</v>
+        <v>167452.4109724092</v>
       </c>
       <c r="H446" t="n">
-        <v>598601.7093281932</v>
+        <v>598601.7093400212</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>91507.92087232119</v>
+        <v>91507.92087441322</v>
       </c>
       <c r="C447" t="n">
-        <v>59157.29664133646</v>
+        <v>59157.29663798479</v>
       </c>
       <c r="D447" t="n">
-        <v>41157.40338732</v>
+        <v>41157.40338538629</v>
       </c>
       <c r="E447" t="n">
-        <v>34079.7783509721</v>
+        <v>34079.77834997395</v>
       </c>
       <c r="F447" t="n">
-        <v>60522.22651569307</v>
+        <v>60522.2265147514</v>
       </c>
       <c r="G447" t="n">
-        <v>167404.2378850401</v>
+        <v>167404.2378839375</v>
       </c>
       <c r="H447" t="n">
-        <v>617699.7050767132</v>
+        <v>617699.7050894124</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>90104.7606792413</v>
+        <v>90104.76068132161</v>
       </c>
       <c r="C448" t="n">
-        <v>58624.0412746923</v>
+        <v>58624.04127124474</v>
       </c>
       <c r="D448" t="n">
-        <v>40938.28005989843</v>
+        <v>40938.28005787931</v>
       </c>
       <c r="E448" t="n">
-        <v>33985.75980648919</v>
+        <v>33985.75980543999</v>
       </c>
       <c r="F448" t="n">
-        <v>60455.31781039613</v>
+        <v>60455.31780941301</v>
       </c>
       <c r="G448" t="n">
-        <v>167348.9240154779</v>
+        <v>167348.9240143436</v>
       </c>
       <c r="H448" t="n">
-        <v>636909.0768617976</v>
+        <v>636909.0768753983</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>88681.21895669188</v>
+        <v>88681.21895875926</v>
       </c>
       <c r="C449" t="n">
-        <v>58067.13985271372</v>
+        <v>58067.13984917176</v>
       </c>
       <c r="D449" t="n">
-        <v>40704.56162993728</v>
+        <v>40704.56162783098</v>
       </c>
       <c r="E449" t="n">
-        <v>33883.35330222116</v>
+        <v>33883.35330111833</v>
       </c>
       <c r="F449" t="n">
-        <v>60380.66380265058</v>
+        <v>60380.66380162264</v>
       </c>
       <c r="G449" t="n">
-        <v>167285.5564627329</v>
+        <v>167285.5564615632</v>
       </c>
       <c r="H449" t="n">
-        <v>656232.7128685403</v>
+        <v>656232.7128830714</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>87238.20317045442</v>
+        <v>87238.2031725074</v>
       </c>
       <c r="C450" t="n">
-        <v>57486.38601401923</v>
+        <v>57486.38601038471</v>
       </c>
       <c r="D450" t="n">
-        <v>40455.71243760466</v>
+        <v>40455.71243540966</v>
       </c>
       <c r="E450" t="n">
-        <v>33772.02899912242</v>
+        <v>33772.02899796345</v>
       </c>
       <c r="F450" t="n">
-        <v>60297.54625528502</v>
+        <v>60297.54625420873</v>
       </c>
       <c r="G450" t="n">
-        <v>167213.1290655843</v>
+        <v>167213.1290643754</v>
       </c>
       <c r="H450" t="n">
-        <v>675673.4825643805</v>
+        <v>675673.4825798686</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>85776.67445205295</v>
+        <v>85776.6744540903</v>
       </c>
       <c r="C451" t="n">
-        <v>56881.63623208596</v>
+        <v>56881.63622836109</v>
       </c>
       <c r="D451" t="n">
-        <v>40191.21713056312</v>
+        <v>40191.21712827817</v>
       </c>
       <c r="E451" t="n">
-        <v>33651.24751101009</v>
+        <v>33651.24750979246</v>
       </c>
       <c r="F451" t="n">
-        <v>60205.2038905705</v>
+        <v>60205.20388944217</v>
       </c>
       <c r="G451" t="n">
-        <v>167130.5363824804</v>
+        <v>167130.5363812278</v>
       </c>
       <c r="H451" t="n">
-        <v>695234.2160244528</v>
+        <v>695234.2160409237</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>84297.64606134276</v>
+        <v>84297.64606336334</v>
       </c>
       <c r="C452" t="n">
-        <v>56252.81321420821</v>
+        <v>56252.81321039561</v>
       </c>
       <c r="D452" t="n">
-        <v>39910.58480133039</v>
+        <v>39910.58479895453</v>
       </c>
       <c r="E452" t="n">
-        <v>33520.46242021151</v>
+        <v>33520.46241893282</v>
       </c>
       <c r="F452" t="n">
-        <v>60102.83275205432</v>
+        <v>60102.83275087016</v>
       </c>
       <c r="G452" t="n">
-        <v>167036.5677887218</v>
+        <v>167036.567787421</v>
       </c>
       <c r="H452" t="n">
-        <v>714917.6818427478</v>
+        <v>714917.681860227</v>
       </c>
     </row>
   </sheetData>
